--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9898859217461111</v>
+        <v>0.9898859217461118</v>
       </c>
       <c r="D2">
-        <v>1.009004312633084</v>
+        <v>1.009004312633085</v>
       </c>
       <c r="E2">
-        <v>0.9969768042547599</v>
+        <v>0.9969768042547605</v>
       </c>
       <c r="F2">
-        <v>0.9632201469917366</v>
+        <v>0.9632201469917365</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037916553704609</v>
       </c>
       <c r="J2">
-        <v>1.01237340958585</v>
+        <v>1.012373409585851</v>
       </c>
       <c r="K2">
-        <v>1.020339612372295</v>
+        <v>1.020339612372296</v>
       </c>
       <c r="L2">
         <v>1.008478418299338</v>
       </c>
       <c r="M2">
-        <v>0.975216831945901</v>
+        <v>0.9752168319459011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972179658123335</v>
+        <v>0.9972179658123317</v>
       </c>
       <c r="D3">
-        <v>1.014582334237524</v>
+        <v>1.014582334237522</v>
       </c>
       <c r="E3">
-        <v>1.003098032956697</v>
+        <v>1.003098032956696</v>
       </c>
       <c r="F3">
-        <v>0.9766020146287628</v>
+        <v>0.9766020146287611</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041001260017928</v>
+        <v>1.041001260017927</v>
       </c>
       <c r="J3">
-        <v>1.017784760275453</v>
+        <v>1.017784760275451</v>
       </c>
       <c r="K3">
-        <v>1.0250319703206</v>
+        <v>1.025031970320599</v>
       </c>
       <c r="L3">
-        <v>1.013691426752573</v>
+        <v>1.013691426752572</v>
       </c>
       <c r="M3">
-        <v>0.9875432976226305</v>
+        <v>0.9875432976226286</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001803760386067</v>
+        <v>1.001803760386068</v>
       </c>
       <c r="D4">
         <v>1.018069807361744</v>
@@ -506,7 +506,7 @@
         <v>1.006931496209688</v>
       </c>
       <c r="F4">
-        <v>0.9848378332876239</v>
+        <v>0.9848378332876241</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.027954929756605</v>
       </c>
       <c r="L4">
-        <v>1.016946977881635</v>
+        <v>1.016946977881636</v>
       </c>
       <c r="M4">
-        <v>0.9951227637403434</v>
+        <v>0.9951227637403436</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003696150477322</v>
+        <v>1.003696150477321</v>
       </c>
       <c r="D5">
         <v>1.019508636399621</v>
@@ -544,7 +544,7 @@
         <v>1.008514537375742</v>
       </c>
       <c r="F5">
-        <v>0.9882083853264771</v>
+        <v>0.9882083853264767</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.018289223937765</v>
       </c>
       <c r="M5">
-        <v>0.9982230073483985</v>
+        <v>0.9982230073483982</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>1.004011877496855</v>
       </c>
       <c r="D6">
-        <v>1.019748671428576</v>
+        <v>1.019748671428577</v>
       </c>
       <c r="E6">
-        <v>1.008778715583317</v>
+        <v>1.008778715583318</v>
       </c>
       <c r="F6">
         <v>0.9887691832439945</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043815702203241</v>
+        <v>1.043815702203242</v>
       </c>
       <c r="J6">
-        <v>1.022785064884118</v>
+        <v>1.022785064884119</v>
       </c>
       <c r="K6">
         <v>1.029358944126921</v>
       </c>
       <c r="L6">
-        <v>1.018513093298899</v>
+        <v>1.0185130932989</v>
       </c>
       <c r="M6">
-        <v>0.9987387297287655</v>
+        <v>0.9987387297287657</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.006952758637766</v>
       </c>
       <c r="F7">
-        <v>0.9848832199313532</v>
+        <v>0.984883219931353</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1.021180139876974</v>
       </c>
       <c r="K7">
-        <v>1.027971107396768</v>
+        <v>1.027971107396767</v>
       </c>
       <c r="L7">
         <v>1.016965014534206</v>
       </c>
       <c r="M7">
-        <v>0.9951645173044663</v>
+        <v>0.9951645173044661</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9923982263301319</v>
+        <v>0.9923982263301326</v>
       </c>
       <c r="D8">
-        <v>1.010915868071862</v>
+        <v>1.010915868071863</v>
       </c>
       <c r="E8">
-        <v>0.9990731232455184</v>
+        <v>0.999073123245519</v>
       </c>
       <c r="F8">
-        <v>0.9678364508574221</v>
+        <v>0.9678364508574225</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038978918645841</v>
+        <v>1.038978918645842</v>
       </c>
       <c r="J8">
-        <v>1.014229261657603</v>
+        <v>1.014229261657604</v>
       </c>
       <c r="K8">
-        <v>1.021949979584138</v>
+        <v>1.021949979584139</v>
       </c>
       <c r="L8">
-        <v>1.010265664320634</v>
+        <v>1.010265664320635</v>
       </c>
       <c r="M8">
-        <v>0.9794704736274611</v>
+        <v>0.9794704736274618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9744366219352496</v>
+        <v>0.9744366219352498</v>
       </c>
       <c r="D9">
-        <v>0.9972438487326404</v>
+        <v>0.9972438487326405</v>
       </c>
       <c r="E9">
-        <v>0.9841109852636662</v>
+        <v>0.9841109852636668</v>
       </c>
       <c r="F9">
-        <v>0.9340291411802935</v>
+        <v>0.9340291411802931</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>1.010381801405223</v>
       </c>
       <c r="L9">
-        <v>0.9974672206147875</v>
+        <v>0.997467220614788</v>
       </c>
       <c r="M9">
-        <v>0.9482916359785579</v>
+        <v>0.9482916359785578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,7 +725,7 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9613420760682546</v>
+        <v>0.9613420760682547</v>
       </c>
       <c r="D10">
         <v>0.9872680202804874</v>
@@ -734,7 +734,7 @@
         <v>0.9732404684095421</v>
       </c>
       <c r="F10">
-        <v>0.9079916231228714</v>
+        <v>0.9079916231228716</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>0.9881102881735908</v>
       </c>
       <c r="M10">
-        <v>0.9242477442756993</v>
+        <v>0.9242477442756998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553427529754934</v>
+        <v>0.9553427529754929</v>
       </c>
       <c r="D11">
-        <v>0.982694311011846</v>
+        <v>0.9826943110118459</v>
       </c>
       <c r="E11">
-        <v>0.9682705798305004</v>
+        <v>0.9682705798304998</v>
       </c>
       <c r="F11">
         <v>0.8955708241196599</v>
@@ -781,16 +781,16 @@
         <v>1.022756492932479</v>
       </c>
       <c r="J11">
-        <v>0.9866990160195864</v>
+        <v>0.9866990160195861</v>
       </c>
       <c r="K11">
-        <v>0.9979501369609779</v>
+        <v>0.9979501369609776</v>
       </c>
       <c r="L11">
-        <v>0.9838167429280006</v>
+        <v>0.9838167429280003</v>
       </c>
       <c r="M11">
-        <v>0.9127730528370073</v>
+        <v>0.9127730528370074</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.95305782150694</v>
+        <v>0.953057821506941</v>
       </c>
       <c r="D12">
-        <v>0.9809516455691645</v>
+        <v>0.9809516455691651</v>
       </c>
       <c r="E12">
-        <v>0.9663794424154959</v>
+        <v>0.9663794424154966</v>
       </c>
       <c r="F12">
-        <v>0.890746309639475</v>
+        <v>0.8907463096394747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021716416862317</v>
+        <v>1.021716416862318</v>
       </c>
       <c r="J12">
-        <v>0.9849908571083107</v>
+        <v>0.9849908571083117</v>
       </c>
       <c r="K12">
-        <v>0.996453112919931</v>
+        <v>0.9964531129199317</v>
       </c>
       <c r="L12">
-        <v>0.9821804052544189</v>
+        <v>0.9821804052544195</v>
       </c>
       <c r="M12">
-        <v>0.9083155901987227</v>
+        <v>0.9083155901987223</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9535506374622276</v>
       </c>
       <c r="D13">
-        <v>0.9813275415710739</v>
+        <v>0.9813275415710738</v>
       </c>
       <c r="E13">
-        <v>0.9667872447422242</v>
+        <v>0.9667872447422241</v>
       </c>
       <c r="F13">
-        <v>0.8917914977216133</v>
+        <v>0.891791497721613</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>0.9967761682513214</v>
       </c>
       <c r="L13">
-        <v>0.9825333825414237</v>
+        <v>0.9825333825414239</v>
       </c>
       <c r="M13">
-        <v>0.9092812734376464</v>
+        <v>0.9092812734376463</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9551550799107212</v>
+        <v>0.9551550799107179</v>
       </c>
       <c r="D14">
-        <v>0.9825511928834643</v>
+        <v>0.9825511928834618</v>
       </c>
       <c r="E14">
-        <v>0.9681152154762565</v>
+        <v>0.9681152154762539</v>
       </c>
       <c r="F14">
-        <v>0.8951766023297953</v>
+        <v>0.8951766023297928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022671252479693</v>
+        <v>1.022671252479692</v>
       </c>
       <c r="J14">
-        <v>0.9865587632225604</v>
+        <v>0.9865587632225576</v>
       </c>
       <c r="K14">
-        <v>0.9978272567857912</v>
+        <v>0.9978272567857889</v>
       </c>
       <c r="L14">
-        <v>0.9836823646728651</v>
+        <v>0.9836823646728625</v>
       </c>
       <c r="M14">
-        <v>0.9124088303584352</v>
+        <v>0.9124088303584326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9561358999322538</v>
+        <v>0.9561358999322557</v>
       </c>
       <c r="D15">
-        <v>0.9832991291941481</v>
+        <v>0.9832991291941497</v>
       </c>
       <c r="E15">
-        <v>0.9689272537025262</v>
+        <v>0.9689272537025276</v>
       </c>
       <c r="F15">
-        <v>0.8972329489822122</v>
+        <v>0.8972329489822127</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023116372924045</v>
+        <v>1.023116372924046</v>
       </c>
       <c r="J15">
-        <v>0.9872916624205141</v>
+        <v>0.9872916624205155</v>
       </c>
       <c r="K15">
-        <v>0.9984693022164919</v>
+        <v>0.9984693022164932</v>
       </c>
       <c r="L15">
-        <v>0.984384610189631</v>
+        <v>0.9843846101896322</v>
       </c>
       <c r="M15">
-        <v>0.9143086785421394</v>
+        <v>0.91430867854214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9617327309497857</v>
+        <v>0.961732730949788</v>
       </c>
       <c r="D16">
-        <v>0.9875657624132147</v>
+        <v>0.9875657624132165</v>
       </c>
       <c r="E16">
-        <v>0.9735643177917928</v>
+        <v>0.973564317791795</v>
       </c>
       <c r="F16">
-        <v>0.9087887870029715</v>
+        <v>0.9087887870029733</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025639409623403</v>
+        <v>1.025639409623404</v>
       </c>
       <c r="J16">
-        <v>0.9914694716517464</v>
+        <v>0.9914694716517487</v>
       </c>
       <c r="K16">
-        <v>1.002125859657613</v>
+        <v>1.002125859657615</v>
       </c>
       <c r="L16">
-        <v>0.9883897269637972</v>
+        <v>0.9883897269637991</v>
       </c>
       <c r="M16">
-        <v>0.9249841103344717</v>
+        <v>0.9249841103344734</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651508529502906</v>
+        <v>0.9651508529502891</v>
       </c>
       <c r="D17">
-        <v>0.9901705489859279</v>
+        <v>0.9901705489859267</v>
       </c>
       <c r="E17">
-        <v>0.9763991019310899</v>
+        <v>0.9763991019310888</v>
       </c>
       <c r="F17">
-        <v>0.9157070462123574</v>
+        <v>0.9157070462123564</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02716645168292</v>
       </c>
       <c r="J17">
-        <v>0.9940173929429481</v>
+        <v>0.9940173929429467</v>
       </c>
       <c r="K17">
-        <v>1.004353147421514</v>
+        <v>1.004353147421513</v>
       </c>
       <c r="L17">
-        <v>0.9908339937739652</v>
+        <v>0.9908339937739639</v>
       </c>
       <c r="M17">
-        <v>0.9313742157539547</v>
+        <v>0.9313742157539537</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9671133652171041</v>
+        <v>0.9671133652171053</v>
       </c>
       <c r="D18">
-        <v>0.9916658018420069</v>
+        <v>0.9916658018420083</v>
       </c>
       <c r="E18">
-        <v>0.9780276592606763</v>
+        <v>0.9780276592606773</v>
       </c>
       <c r="F18">
-        <v>0.9196348963047251</v>
+        <v>0.9196348963047264</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028038563000353</v>
+        <v>1.028038563000354</v>
       </c>
       <c r="J18">
-        <v>0.9954790650179087</v>
+        <v>0.9954790650179098</v>
       </c>
       <c r="K18">
-        <v>1.005629962012732</v>
+        <v>1.005629962012734</v>
       </c>
       <c r="L18">
-        <v>0.9922367577226257</v>
+        <v>0.9922367577226268</v>
       </c>
       <c r="M18">
-        <v>0.9350017359073303</v>
+        <v>0.9350017359073316</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9677774227078458</v>
+        <v>0.9677774227078462</v>
       </c>
       <c r="D19">
         <v>0.9921717085626842</v>
       </c>
       <c r="E19">
-        <v>0.9785788761415007</v>
+        <v>0.9785788761415009</v>
       </c>
       <c r="F19">
-        <v>0.9209569408518202</v>
+        <v>0.9209569408518206</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028332901334356</v>
       </c>
       <c r="J19">
-        <v>0.9959734519699749</v>
+        <v>0.995973451969975</v>
       </c>
       <c r="K19">
         <v>1.006061673415312</v>
       </c>
       <c r="L19">
-        <v>0.992711310530761</v>
+        <v>0.9927113105307611</v>
       </c>
       <c r="M19">
-        <v>0.9362226078652994</v>
+        <v>0.9362226078652998</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,25 +1105,25 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964787395555881</v>
+        <v>0.9647873955558811</v>
       </c>
       <c r="D20">
         <v>0.9898936061824445</v>
       </c>
       <c r="E20">
-        <v>0.9760975705690718</v>
+        <v>0.9760975705690714</v>
       </c>
       <c r="F20">
-        <v>0.914976135767829</v>
+        <v>0.914976135767828</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027004567142517</v>
+        <v>1.027004567142518</v>
       </c>
       <c r="J20">
-        <v>0.9937465939535747</v>
+        <v>0.9937465939535748</v>
       </c>
       <c r="K20">
         <v>1.004116523093056</v>
@@ -1132,7 +1132,7 @@
         <v>0.990574152687029</v>
       </c>
       <c r="M20">
-        <v>0.9306991518216902</v>
+        <v>0.9306991518216895</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9546842373115449</v>
+        <v>0.9546842373115421</v>
       </c>
       <c r="D21">
-        <v>0.9821921195050719</v>
+        <v>0.9821921195050696</v>
       </c>
       <c r="E21">
-        <v>0.9677254584958406</v>
+        <v>0.9677254584958378</v>
       </c>
       <c r="F21">
-        <v>0.8941859732166363</v>
+        <v>0.8941859732166344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022457251433685</v>
+        <v>1.022457251433684</v>
       </c>
       <c r="J21">
-        <v>0.9862068538346064</v>
+        <v>0.9862068538346037</v>
       </c>
       <c r="K21">
-        <v>0.9975189083011445</v>
+        <v>0.9975189083011421</v>
       </c>
       <c r="L21">
-        <v>0.9833452127972823</v>
+        <v>0.9833452127972796</v>
       </c>
       <c r="M21">
-        <v>0.9114935799182523</v>
+        <v>0.9114935799182505</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480000281328383</v>
+        <v>0.9480000281328376</v>
       </c>
       <c r="D22">
-        <v>0.9770925131032454</v>
+        <v>0.9770925131032447</v>
       </c>
       <c r="E22">
-        <v>0.9621966687421221</v>
+        <v>0.9621966687421215</v>
       </c>
       <c r="F22">
-        <v>0.8798637329550301</v>
+        <v>0.8798637329550295</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.019396132884557</v>
       </c>
       <c r="J22">
-        <v>0.9812052519902393</v>
+        <v>0.9812052519902387</v>
       </c>
       <c r="K22">
-        <v>0.9931318528653358</v>
+        <v>0.993131852865335</v>
       </c>
       <c r="L22">
-        <v>0.9785561503215737</v>
+        <v>0.9785561503215731</v>
       </c>
       <c r="M22">
-        <v>0.8982605946197376</v>
+        <v>0.8982605946197373</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9515777855760321</v>
+        <v>0.9515777855760316</v>
       </c>
       <c r="D23">
-        <v>0.97982261889774</v>
+        <v>0.9798226188977399</v>
       </c>
       <c r="E23">
-        <v>0.9651549843553577</v>
+        <v>0.9651549843553572</v>
       </c>
       <c r="F23">
-        <v>0.8875916221837317</v>
+        <v>0.8875916221837309</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021040050897016</v>
       </c>
       <c r="J23">
-        <v>0.9838837470299063</v>
+        <v>0.9838837470299059</v>
       </c>
       <c r="K23">
         <v>0.9954823175378064</v>
       </c>
       <c r="L23">
-        <v>0.9811201676118529</v>
+        <v>0.9811201676118525</v>
       </c>
       <c r="M23">
-        <v>0.9054008375641647</v>
+        <v>0.9054008375641637</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9649517222763906</v>
+        <v>0.9649517222763898</v>
       </c>
       <c r="D24">
-        <v>0.9900188187075624</v>
+        <v>0.9900188187075617</v>
       </c>
       <c r="E24">
-        <v>0.9762338962292068</v>
+        <v>0.976233896229206</v>
       </c>
       <c r="F24">
-        <v>0.9153067320392643</v>
+        <v>0.9153067320392642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027077772892196</v>
+        <v>1.027077772892195</v>
       </c>
       <c r="J24">
-        <v>0.9938690316269069</v>
+        <v>0.9938690316269062</v>
       </c>
       <c r="K24">
-        <v>1.004223512053361</v>
+        <v>1.00422351205336</v>
       </c>
       <c r="L24">
-        <v>0.9906916341917335</v>
+        <v>0.9906916341917329</v>
       </c>
       <c r="M24">
-        <v>0.9310044897862654</v>
+        <v>0.9310044897862652</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9792593249180588</v>
+        <v>0.97925932491806</v>
       </c>
       <c r="D25">
         <v>1.000916021979451</v>
       </c>
       <c r="E25">
-        <v>0.9881225197772728</v>
+        <v>0.9881225197772736</v>
       </c>
       <c r="F25">
-        <v>0.9433007785325531</v>
+        <v>0.9433007785325538</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033362299424634</v>
       </c>
       <c r="J25">
-        <v>1.00450543979621</v>
+        <v>1.004505439796211</v>
       </c>
       <c r="K25">
-        <v>1.013500134510293</v>
+        <v>1.013500134510294</v>
       </c>
       <c r="L25">
-        <v>1.000908059803725</v>
+        <v>1.000908059803726</v>
       </c>
       <c r="M25">
-        <v>0.9568480389773585</v>
+        <v>0.9568480389773593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9898859217461118</v>
+        <v>0.9898859217461111</v>
       </c>
       <c r="D2">
-        <v>1.009004312633085</v>
+        <v>1.009004312633084</v>
       </c>
       <c r="E2">
-        <v>0.9969768042547605</v>
+        <v>0.9969768042547599</v>
       </c>
       <c r="F2">
-        <v>0.9632201469917365</v>
+        <v>0.9632201469917366</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037916553704609</v>
       </c>
       <c r="J2">
-        <v>1.012373409585851</v>
+        <v>1.01237340958585</v>
       </c>
       <c r="K2">
-        <v>1.020339612372296</v>
+        <v>1.020339612372295</v>
       </c>
       <c r="L2">
         <v>1.008478418299338</v>
       </c>
       <c r="M2">
-        <v>0.9752168319459011</v>
+        <v>0.975216831945901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972179658123317</v>
+        <v>0.9972179658123335</v>
       </c>
       <c r="D3">
-        <v>1.014582334237522</v>
+        <v>1.014582334237524</v>
       </c>
       <c r="E3">
-        <v>1.003098032956696</v>
+        <v>1.003098032956697</v>
       </c>
       <c r="F3">
-        <v>0.9766020146287611</v>
+        <v>0.9766020146287628</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041001260017927</v>
+        <v>1.041001260017928</v>
       </c>
       <c r="J3">
-        <v>1.017784760275451</v>
+        <v>1.017784760275453</v>
       </c>
       <c r="K3">
-        <v>1.025031970320599</v>
+        <v>1.0250319703206</v>
       </c>
       <c r="L3">
-        <v>1.013691426752572</v>
+        <v>1.013691426752573</v>
       </c>
       <c r="M3">
-        <v>0.9875432976226286</v>
+        <v>0.9875432976226305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001803760386068</v>
+        <v>1.001803760386067</v>
       </c>
       <c r="D4">
         <v>1.018069807361744</v>
@@ -506,7 +506,7 @@
         <v>1.006931496209688</v>
       </c>
       <c r="F4">
-        <v>0.9848378332876241</v>
+        <v>0.9848378332876239</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>1.027954929756605</v>
       </c>
       <c r="L4">
-        <v>1.016946977881636</v>
+        <v>1.016946977881635</v>
       </c>
       <c r="M4">
-        <v>0.9951227637403436</v>
+        <v>0.9951227637403434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003696150477321</v>
+        <v>1.003696150477322</v>
       </c>
       <c r="D5">
         <v>1.019508636399621</v>
@@ -544,7 +544,7 @@
         <v>1.008514537375742</v>
       </c>
       <c r="F5">
-        <v>0.9882083853264767</v>
+        <v>0.9882083853264771</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.018289223937765</v>
       </c>
       <c r="M5">
-        <v>0.9982230073483982</v>
+        <v>0.9982230073483985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>1.004011877496855</v>
       </c>
       <c r="D6">
-        <v>1.019748671428577</v>
+        <v>1.019748671428576</v>
       </c>
       <c r="E6">
-        <v>1.008778715583318</v>
+        <v>1.008778715583317</v>
       </c>
       <c r="F6">
         <v>0.9887691832439945</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043815702203242</v>
+        <v>1.043815702203241</v>
       </c>
       <c r="J6">
-        <v>1.022785064884119</v>
+        <v>1.022785064884118</v>
       </c>
       <c r="K6">
         <v>1.029358944126921</v>
       </c>
       <c r="L6">
-        <v>1.0185130932989</v>
+        <v>1.018513093298899</v>
       </c>
       <c r="M6">
-        <v>0.9987387297287657</v>
+        <v>0.9987387297287655</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.006952758637766</v>
       </c>
       <c r="F7">
-        <v>0.984883219931353</v>
+        <v>0.9848832199313532</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -632,13 +632,13 @@
         <v>1.021180139876974</v>
       </c>
       <c r="K7">
-        <v>1.027971107396767</v>
+        <v>1.027971107396768</v>
       </c>
       <c r="L7">
         <v>1.016965014534206</v>
       </c>
       <c r="M7">
-        <v>0.9951645173044661</v>
+        <v>0.9951645173044663</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9923982263301326</v>
+        <v>0.9923982263301319</v>
       </c>
       <c r="D8">
-        <v>1.010915868071863</v>
+        <v>1.010915868071862</v>
       </c>
       <c r="E8">
-        <v>0.999073123245519</v>
+        <v>0.9990731232455184</v>
       </c>
       <c r="F8">
-        <v>0.9678364508574225</v>
+        <v>0.9678364508574221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038978918645842</v>
+        <v>1.038978918645841</v>
       </c>
       <c r="J8">
-        <v>1.014229261657604</v>
+        <v>1.014229261657603</v>
       </c>
       <c r="K8">
-        <v>1.021949979584139</v>
+        <v>1.021949979584138</v>
       </c>
       <c r="L8">
-        <v>1.010265664320635</v>
+        <v>1.010265664320634</v>
       </c>
       <c r="M8">
-        <v>0.9794704736274618</v>
+        <v>0.9794704736274611</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9744366219352498</v>
+        <v>0.9744366219352496</v>
       </c>
       <c r="D9">
-        <v>0.9972438487326405</v>
+        <v>0.9972438487326404</v>
       </c>
       <c r="E9">
-        <v>0.9841109852636668</v>
+        <v>0.9841109852636662</v>
       </c>
       <c r="F9">
-        <v>0.9340291411802931</v>
+        <v>0.9340291411802935</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>1.010381801405223</v>
       </c>
       <c r="L9">
-        <v>0.997467220614788</v>
+        <v>0.9974672206147875</v>
       </c>
       <c r="M9">
-        <v>0.9482916359785578</v>
+        <v>0.9482916359785579</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,7 +725,7 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9613420760682547</v>
+        <v>0.9613420760682546</v>
       </c>
       <c r="D10">
         <v>0.9872680202804874</v>
@@ -734,7 +734,7 @@
         <v>0.9732404684095421</v>
       </c>
       <c r="F10">
-        <v>0.9079916231228716</v>
+        <v>0.9079916231228714</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -752,7 +752,7 @@
         <v>0.9881102881735908</v>
       </c>
       <c r="M10">
-        <v>0.9242477442756998</v>
+        <v>0.9242477442756993</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553427529754929</v>
+        <v>0.9553427529754934</v>
       </c>
       <c r="D11">
-        <v>0.9826943110118459</v>
+        <v>0.982694311011846</v>
       </c>
       <c r="E11">
-        <v>0.9682705798304998</v>
+        <v>0.9682705798305004</v>
       </c>
       <c r="F11">
         <v>0.8955708241196599</v>
@@ -781,16 +781,16 @@
         <v>1.022756492932479</v>
       </c>
       <c r="J11">
-        <v>0.9866990160195861</v>
+        <v>0.9866990160195864</v>
       </c>
       <c r="K11">
-        <v>0.9979501369609776</v>
+        <v>0.9979501369609779</v>
       </c>
       <c r="L11">
-        <v>0.9838167429280003</v>
+        <v>0.9838167429280006</v>
       </c>
       <c r="M11">
-        <v>0.9127730528370074</v>
+        <v>0.9127730528370073</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.953057821506941</v>
+        <v>0.95305782150694</v>
       </c>
       <c r="D12">
-        <v>0.9809516455691651</v>
+        <v>0.9809516455691645</v>
       </c>
       <c r="E12">
-        <v>0.9663794424154966</v>
+        <v>0.9663794424154959</v>
       </c>
       <c r="F12">
-        <v>0.8907463096394747</v>
+        <v>0.890746309639475</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021716416862318</v>
+        <v>1.021716416862317</v>
       </c>
       <c r="J12">
-        <v>0.9849908571083117</v>
+        <v>0.9849908571083107</v>
       </c>
       <c r="K12">
-        <v>0.9964531129199317</v>
+        <v>0.996453112919931</v>
       </c>
       <c r="L12">
-        <v>0.9821804052544195</v>
+        <v>0.9821804052544189</v>
       </c>
       <c r="M12">
-        <v>0.9083155901987223</v>
+        <v>0.9083155901987227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9535506374622276</v>
       </c>
       <c r="D13">
-        <v>0.9813275415710738</v>
+        <v>0.9813275415710739</v>
       </c>
       <c r="E13">
-        <v>0.9667872447422241</v>
+        <v>0.9667872447422242</v>
       </c>
       <c r="F13">
-        <v>0.891791497721613</v>
+        <v>0.8917914977216133</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>0.9967761682513214</v>
       </c>
       <c r="L13">
-        <v>0.9825333825414239</v>
+        <v>0.9825333825414237</v>
       </c>
       <c r="M13">
-        <v>0.9092812734376463</v>
+        <v>0.9092812734376464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9551550799107179</v>
+        <v>0.9551550799107212</v>
       </c>
       <c r="D14">
-        <v>0.9825511928834618</v>
+        <v>0.9825511928834643</v>
       </c>
       <c r="E14">
-        <v>0.9681152154762539</v>
+        <v>0.9681152154762565</v>
       </c>
       <c r="F14">
-        <v>0.8951766023297928</v>
+        <v>0.8951766023297953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022671252479692</v>
+        <v>1.022671252479693</v>
       </c>
       <c r="J14">
-        <v>0.9865587632225576</v>
+        <v>0.9865587632225604</v>
       </c>
       <c r="K14">
-        <v>0.9978272567857889</v>
+        <v>0.9978272567857912</v>
       </c>
       <c r="L14">
-        <v>0.9836823646728625</v>
+        <v>0.9836823646728651</v>
       </c>
       <c r="M14">
-        <v>0.9124088303584326</v>
+        <v>0.9124088303584352</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9561358999322557</v>
+        <v>0.9561358999322538</v>
       </c>
       <c r="D15">
-        <v>0.9832991291941497</v>
+        <v>0.9832991291941481</v>
       </c>
       <c r="E15">
-        <v>0.9689272537025276</v>
+        <v>0.9689272537025262</v>
       </c>
       <c r="F15">
-        <v>0.8972329489822127</v>
+        <v>0.8972329489822122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023116372924046</v>
+        <v>1.023116372924045</v>
       </c>
       <c r="J15">
-        <v>0.9872916624205155</v>
+        <v>0.9872916624205141</v>
       </c>
       <c r="K15">
-        <v>0.9984693022164932</v>
+        <v>0.9984693022164919</v>
       </c>
       <c r="L15">
-        <v>0.9843846101896322</v>
+        <v>0.984384610189631</v>
       </c>
       <c r="M15">
-        <v>0.91430867854214</v>
+        <v>0.9143086785421394</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.961732730949788</v>
+        <v>0.9617327309497857</v>
       </c>
       <c r="D16">
-        <v>0.9875657624132165</v>
+        <v>0.9875657624132147</v>
       </c>
       <c r="E16">
-        <v>0.973564317791795</v>
+        <v>0.9735643177917928</v>
       </c>
       <c r="F16">
-        <v>0.9087887870029733</v>
+        <v>0.9087887870029715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025639409623404</v>
+        <v>1.025639409623403</v>
       </c>
       <c r="J16">
-        <v>0.9914694716517487</v>
+        <v>0.9914694716517464</v>
       </c>
       <c r="K16">
-        <v>1.002125859657615</v>
+        <v>1.002125859657613</v>
       </c>
       <c r="L16">
-        <v>0.9883897269637991</v>
+        <v>0.9883897269637972</v>
       </c>
       <c r="M16">
-        <v>0.9249841103344734</v>
+        <v>0.9249841103344717</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651508529502891</v>
+        <v>0.9651508529502906</v>
       </c>
       <c r="D17">
-        <v>0.9901705489859267</v>
+        <v>0.9901705489859279</v>
       </c>
       <c r="E17">
-        <v>0.9763991019310888</v>
+        <v>0.9763991019310899</v>
       </c>
       <c r="F17">
-        <v>0.9157070462123564</v>
+        <v>0.9157070462123574</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02716645168292</v>
       </c>
       <c r="J17">
-        <v>0.9940173929429467</v>
+        <v>0.9940173929429481</v>
       </c>
       <c r="K17">
-        <v>1.004353147421513</v>
+        <v>1.004353147421514</v>
       </c>
       <c r="L17">
-        <v>0.9908339937739639</v>
+        <v>0.9908339937739652</v>
       </c>
       <c r="M17">
-        <v>0.9313742157539537</v>
+        <v>0.9313742157539547</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9671133652171053</v>
+        <v>0.9671133652171041</v>
       </c>
       <c r="D18">
-        <v>0.9916658018420083</v>
+        <v>0.9916658018420069</v>
       </c>
       <c r="E18">
-        <v>0.9780276592606773</v>
+        <v>0.9780276592606763</v>
       </c>
       <c r="F18">
-        <v>0.9196348963047264</v>
+        <v>0.9196348963047251</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028038563000354</v>
+        <v>1.028038563000353</v>
       </c>
       <c r="J18">
-        <v>0.9954790650179098</v>
+        <v>0.9954790650179087</v>
       </c>
       <c r="K18">
-        <v>1.005629962012734</v>
+        <v>1.005629962012732</v>
       </c>
       <c r="L18">
-        <v>0.9922367577226268</v>
+        <v>0.9922367577226257</v>
       </c>
       <c r="M18">
-        <v>0.9350017359073316</v>
+        <v>0.9350017359073303</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9677774227078462</v>
+        <v>0.9677774227078458</v>
       </c>
       <c r="D19">
         <v>0.9921717085626842</v>
       </c>
       <c r="E19">
-        <v>0.9785788761415009</v>
+        <v>0.9785788761415007</v>
       </c>
       <c r="F19">
-        <v>0.9209569408518206</v>
+        <v>0.9209569408518202</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028332901334356</v>
       </c>
       <c r="J19">
-        <v>0.995973451969975</v>
+        <v>0.9959734519699749</v>
       </c>
       <c r="K19">
         <v>1.006061673415312</v>
       </c>
       <c r="L19">
-        <v>0.9927113105307611</v>
+        <v>0.992711310530761</v>
       </c>
       <c r="M19">
-        <v>0.9362226078652998</v>
+        <v>0.9362226078652994</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,25 +1105,25 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647873955558811</v>
+        <v>0.964787395555881</v>
       </c>
       <c r="D20">
         <v>0.9898936061824445</v>
       </c>
       <c r="E20">
-        <v>0.9760975705690714</v>
+        <v>0.9760975705690718</v>
       </c>
       <c r="F20">
-        <v>0.914976135767828</v>
+        <v>0.914976135767829</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027004567142518</v>
+        <v>1.027004567142517</v>
       </c>
       <c r="J20">
-        <v>0.9937465939535748</v>
+        <v>0.9937465939535747</v>
       </c>
       <c r="K20">
         <v>1.004116523093056</v>
@@ -1132,7 +1132,7 @@
         <v>0.990574152687029</v>
       </c>
       <c r="M20">
-        <v>0.9306991518216895</v>
+        <v>0.9306991518216902</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9546842373115421</v>
+        <v>0.9546842373115449</v>
       </c>
       <c r="D21">
-        <v>0.9821921195050696</v>
+        <v>0.9821921195050719</v>
       </c>
       <c r="E21">
-        <v>0.9677254584958378</v>
+        <v>0.9677254584958406</v>
       </c>
       <c r="F21">
-        <v>0.8941859732166344</v>
+        <v>0.8941859732166363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022457251433684</v>
+        <v>1.022457251433685</v>
       </c>
       <c r="J21">
-        <v>0.9862068538346037</v>
+        <v>0.9862068538346064</v>
       </c>
       <c r="K21">
-        <v>0.9975189083011421</v>
+        <v>0.9975189083011445</v>
       </c>
       <c r="L21">
-        <v>0.9833452127972796</v>
+        <v>0.9833452127972823</v>
       </c>
       <c r="M21">
-        <v>0.9114935799182505</v>
+        <v>0.9114935799182523</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480000281328376</v>
+        <v>0.9480000281328383</v>
       </c>
       <c r="D22">
-        <v>0.9770925131032447</v>
+        <v>0.9770925131032454</v>
       </c>
       <c r="E22">
-        <v>0.9621966687421215</v>
+        <v>0.9621966687421221</v>
       </c>
       <c r="F22">
-        <v>0.8798637329550295</v>
+        <v>0.8798637329550301</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.019396132884557</v>
       </c>
       <c r="J22">
-        <v>0.9812052519902387</v>
+        <v>0.9812052519902393</v>
       </c>
       <c r="K22">
-        <v>0.993131852865335</v>
+        <v>0.9931318528653358</v>
       </c>
       <c r="L22">
-        <v>0.9785561503215731</v>
+        <v>0.9785561503215737</v>
       </c>
       <c r="M22">
-        <v>0.8982605946197373</v>
+        <v>0.8982605946197376</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9515777855760316</v>
+        <v>0.9515777855760321</v>
       </c>
       <c r="D23">
-        <v>0.9798226188977399</v>
+        <v>0.97982261889774</v>
       </c>
       <c r="E23">
-        <v>0.9651549843553572</v>
+        <v>0.9651549843553577</v>
       </c>
       <c r="F23">
-        <v>0.8875916221837309</v>
+        <v>0.8875916221837317</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.021040050897016</v>
       </c>
       <c r="J23">
-        <v>0.9838837470299059</v>
+        <v>0.9838837470299063</v>
       </c>
       <c r="K23">
         <v>0.9954823175378064</v>
       </c>
       <c r="L23">
-        <v>0.9811201676118525</v>
+        <v>0.9811201676118529</v>
       </c>
       <c r="M23">
-        <v>0.9054008375641637</v>
+        <v>0.9054008375641647</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9649517222763898</v>
+        <v>0.9649517222763906</v>
       </c>
       <c r="D24">
-        <v>0.9900188187075617</v>
+        <v>0.9900188187075624</v>
       </c>
       <c r="E24">
-        <v>0.976233896229206</v>
+        <v>0.9762338962292068</v>
       </c>
       <c r="F24">
-        <v>0.9153067320392642</v>
+        <v>0.9153067320392643</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027077772892195</v>
+        <v>1.027077772892196</v>
       </c>
       <c r="J24">
-        <v>0.9938690316269062</v>
+        <v>0.9938690316269069</v>
       </c>
       <c r="K24">
-        <v>1.00422351205336</v>
+        <v>1.004223512053361</v>
       </c>
       <c r="L24">
-        <v>0.9906916341917329</v>
+        <v>0.9906916341917335</v>
       </c>
       <c r="M24">
-        <v>0.9310044897862652</v>
+        <v>0.9310044897862654</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.97925932491806</v>
+        <v>0.9792593249180588</v>
       </c>
       <c r="D25">
         <v>1.000916021979451</v>
       </c>
       <c r="E25">
-        <v>0.9881225197772736</v>
+        <v>0.9881225197772728</v>
       </c>
       <c r="F25">
-        <v>0.9433007785325538</v>
+        <v>0.9433007785325531</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033362299424634</v>
       </c>
       <c r="J25">
-        <v>1.004505439796211</v>
+        <v>1.00450543979621</v>
       </c>
       <c r="K25">
-        <v>1.013500134510294</v>
+        <v>1.013500134510293</v>
       </c>
       <c r="L25">
-        <v>1.000908059803726</v>
+        <v>1.000908059803725</v>
       </c>
       <c r="M25">
-        <v>0.9568480389773593</v>
+        <v>0.9568480389773585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9898859217461111</v>
+        <v>0.9920615401415691</v>
       </c>
       <c r="D2">
-        <v>1.009004312633084</v>
+        <v>1.010679264333306</v>
       </c>
       <c r="E2">
-        <v>0.9969768042547599</v>
+        <v>0.9988498995549004</v>
       </c>
       <c r="F2">
-        <v>0.9632201469917366</v>
+        <v>0.9643927014083449</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037916553704609</v>
+        <v>1.038876517556884</v>
       </c>
       <c r="J2">
-        <v>1.01237340958585</v>
+        <v>1.01448230975048</v>
       </c>
       <c r="K2">
-        <v>1.020339612372295</v>
+        <v>1.021991798238778</v>
       </c>
       <c r="L2">
-        <v>1.008478418299338</v>
+        <v>1.010325280391871</v>
       </c>
       <c r="M2">
-        <v>0.975216831945901</v>
+        <v>0.9763714489869673</v>
+      </c>
+      <c r="N2">
+        <v>1.015922990993072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972179658123335</v>
+        <v>0.9993785147191379</v>
       </c>
       <c r="D3">
-        <v>1.014582334237524</v>
+        <v>1.016247886398227</v>
       </c>
       <c r="E3">
-        <v>1.003098032956697</v>
+        <v>1.0049606064475</v>
       </c>
       <c r="F3">
-        <v>0.9766020146287628</v>
+        <v>0.9777413384952146</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041001260017928</v>
+        <v>1.041955663681942</v>
       </c>
       <c r="J3">
-        <v>1.017784760275453</v>
+        <v>1.019886136400248</v>
       </c>
       <c r="K3">
-        <v>1.0250319703206</v>
+        <v>1.026677009183124</v>
       </c>
       <c r="L3">
-        <v>1.013691426752573</v>
+        <v>1.015530406437969</v>
       </c>
       <c r="M3">
-        <v>0.9875432976226305</v>
+        <v>0.9886671744689635</v>
+      </c>
+      <c r="N3">
+        <v>1.021334491696511</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001803760386067</v>
+        <v>1.003955561334253</v>
       </c>
       <c r="D4">
-        <v>1.018069807361744</v>
+        <v>1.019729966710411</v>
       </c>
       <c r="E4">
-        <v>1.006931496209688</v>
+        <v>1.008788004067107</v>
       </c>
       <c r="F4">
-        <v>0.9848378332876239</v>
+        <v>0.9859583267931149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042905728314823</v>
+        <v>1.043857021020633</v>
       </c>
       <c r="J4">
-        <v>1.021161438061883</v>
+        <v>1.023258621832074</v>
       </c>
       <c r="K4">
-        <v>1.027954929756605</v>
+        <v>1.029595960294025</v>
       </c>
       <c r="L4">
-        <v>1.016946977881635</v>
+        <v>1.018781510190945</v>
       </c>
       <c r="M4">
-        <v>0.9951227637403434</v>
+        <v>0.9962292297499225</v>
+      </c>
+      <c r="N4">
+        <v>1.02471176644448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003696150477322</v>
+        <v>1.005844489498769</v>
       </c>
       <c r="D5">
-        <v>1.019508636399621</v>
+        <v>1.0211666764001</v>
       </c>
       <c r="E5">
-        <v>1.008514537375742</v>
+        <v>1.010368654946346</v>
       </c>
       <c r="F5">
-        <v>0.9882083853264771</v>
+        <v>0.9893215091304465</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04368587562345</v>
+        <v>1.044635963834024</v>
       </c>
       <c r="J5">
-        <v>1.022553004872248</v>
+        <v>1.02464857095223</v>
       </c>
       <c r="K5">
-        <v>1.029158331580732</v>
+        <v>1.030797808913188</v>
       </c>
       <c r="L5">
-        <v>1.018289223937765</v>
+        <v>1.020122026775274</v>
       </c>
       <c r="M5">
-        <v>0.9982230073483985</v>
+        <v>0.9993226618420775</v>
+      </c>
+      <c r="N5">
+        <v>1.026103689451816</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004011877496855</v>
+        <v>1.006159647257024</v>
       </c>
       <c r="D6">
-        <v>1.019748671428576</v>
+        <v>1.021406363800188</v>
       </c>
       <c r="E6">
-        <v>1.008778715583317</v>
+        <v>1.010632440707448</v>
       </c>
       <c r="F6">
-        <v>0.9887691832439945</v>
+        <v>0.9898810993599862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043815702203241</v>
+        <v>1.044765593895946</v>
       </c>
       <c r="J6">
-        <v>1.022785064884118</v>
+        <v>1.024880367392167</v>
       </c>
       <c r="K6">
-        <v>1.029358944126921</v>
+        <v>1.030998167998728</v>
       </c>
       <c r="L6">
-        <v>1.018513093298899</v>
+        <v>1.020345613552216</v>
       </c>
       <c r="M6">
-        <v>0.9987387297287655</v>
+        <v>0.9998372681771033</v>
+      </c>
+      <c r="N6">
+        <v>1.026335815069285</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001829182932629</v>
+        <v>1.003980936804143</v>
       </c>
       <c r="D7">
-        <v>1.018089138038189</v>
+        <v>1.019749268507925</v>
       </c>
       <c r="E7">
-        <v>1.006952758637766</v>
+        <v>1.008809233950256</v>
       </c>
       <c r="F7">
-        <v>0.9848832199313532</v>
+        <v>0.9860036129228846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04291623145038</v>
+        <v>1.043867507671184</v>
       </c>
       <c r="J7">
-        <v>1.021180139876974</v>
+        <v>1.023277301483111</v>
       </c>
       <c r="K7">
-        <v>1.027971107396768</v>
+        <v>1.0296121166806</v>
       </c>
       <c r="L7">
-        <v>1.016965014534206</v>
+        <v>1.018799523202662</v>
       </c>
       <c r="M7">
-        <v>0.9951645173044663</v>
+        <v>0.9962708904017008</v>
+      </c>
+      <c r="N7">
+        <v>1.024730472622764</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9923982263301319</v>
+        <v>0.9945685282292633</v>
       </c>
       <c r="D8">
-        <v>1.010915868071862</v>
+        <v>1.012587489054705</v>
       </c>
       <c r="E8">
-        <v>0.9990731232455184</v>
+        <v>1.000942496980604</v>
       </c>
       <c r="F8">
-        <v>0.9678364508574221</v>
+        <v>0.9689971584850308</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038978918645841</v>
+        <v>1.039936893800866</v>
       </c>
       <c r="J8">
-        <v>1.014229261657603</v>
+        <v>1.016335467741344</v>
       </c>
       <c r="K8">
-        <v>1.021949979584138</v>
+        <v>1.023599612147031</v>
       </c>
       <c r="L8">
-        <v>1.010265664320634</v>
+        <v>1.012109716663523</v>
       </c>
       <c r="M8">
-        <v>0.9794704736274611</v>
+        <v>0.9806141302549982</v>
+      </c>
+      <c r="N8">
+        <v>1.017778780680844</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9744366219352496</v>
+        <v>0.9766486550423829</v>
       </c>
       <c r="D9">
-        <v>0.9972438487326404</v>
+        <v>0.9989419768310759</v>
       </c>
       <c r="E9">
-        <v>0.9841109852636662</v>
+        <v>0.986009793652161</v>
       </c>
       <c r="F9">
-        <v>0.9340291411802935</v>
+        <v>0.9352870615399936</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031263539921164</v>
+        <v>1.03223782046906</v>
       </c>
       <c r="J9">
-        <v>1.000925546739063</v>
+        <v>1.003053840887482</v>
       </c>
       <c r="K9">
-        <v>1.010381801405223</v>
+        <v>1.012052243078221</v>
       </c>
       <c r="L9">
-        <v>0.9974672206147875</v>
+        <v>0.999334005019816</v>
       </c>
       <c r="M9">
-        <v>0.9482916359785579</v>
+        <v>0.949525236732903</v>
+      </c>
+      <c r="N9">
+        <v>1.004478292393426</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9613420760682546</v>
+        <v>0.963590540069303</v>
       </c>
       <c r="D10">
-        <v>0.9872680202804874</v>
+        <v>0.9889898848422726</v>
       </c>
       <c r="E10">
-        <v>0.9732404684095421</v>
+        <v>0.9751653089540995</v>
       </c>
       <c r="F10">
-        <v>0.9079916231228714</v>
+        <v>0.9093438509938352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025464224518726</v>
+        <v>1.026453920139532</v>
       </c>
       <c r="J10">
-        <v>0.9911780998824505</v>
+        <v>0.9933270908564912</v>
       </c>
       <c r="K10">
-        <v>1.001871023640348</v>
+        <v>1.003560817100188</v>
       </c>
       <c r="L10">
-        <v>0.9881102881735908</v>
+        <v>0.9899979213361333</v>
       </c>
       <c r="M10">
-        <v>0.9242477442756993</v>
+        <v>0.9255685400246845</v>
+      </c>
+      <c r="N10">
+        <v>0.9947377292617171</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9553427529754934</v>
+        <v>0.9576098796181276</v>
       </c>
       <c r="D11">
-        <v>0.982694311011846</v>
+        <v>0.9844285342368937</v>
       </c>
       <c r="E11">
-        <v>0.9682705798305004</v>
+        <v>0.9702088566714604</v>
       </c>
       <c r="F11">
-        <v>0.8955708241196599</v>
+        <v>0.8969755152154407</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022756492932479</v>
+        <v>1.023754492463968</v>
       </c>
       <c r="J11">
-        <v>0.9866990160195864</v>
+        <v>0.9888590175395664</v>
       </c>
       <c r="K11">
-        <v>0.9979501369609779</v>
+        <v>0.9996502038686237</v>
       </c>
       <c r="L11">
-        <v>0.9838167429280006</v>
+        <v>0.9857153419175455</v>
       </c>
       <c r="M11">
-        <v>0.9127730528370073</v>
+        <v>0.9141423089575963</v>
+      </c>
+      <c r="N11">
+        <v>0.9902633107681871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.95305782150694</v>
+        <v>0.9553324201198785</v>
       </c>
       <c r="D12">
-        <v>0.9809516455691645</v>
+        <v>0.9826908548452341</v>
       </c>
       <c r="E12">
-        <v>0.9663794424154959</v>
+        <v>0.968323116949658</v>
       </c>
       <c r="F12">
-        <v>0.890746309639475</v>
+        <v>0.8921728904949654</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021716416862317</v>
+        <v>1.022717819625962</v>
       </c>
       <c r="J12">
-        <v>0.9849908571083107</v>
+        <v>0.9871553375318901</v>
       </c>
       <c r="K12">
-        <v>0.996453112919931</v>
+        <v>0.9981573576730121</v>
       </c>
       <c r="L12">
-        <v>0.9821804052544189</v>
+        <v>0.9840834437893043</v>
       </c>
       <c r="M12">
-        <v>0.9083155901987227</v>
+        <v>0.9097050551544479</v>
+      </c>
+      <c r="N12">
+        <v>0.988557211339485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535506374622276</v>
+        <v>0.9558236067292579</v>
       </c>
       <c r="D13">
-        <v>0.9813275415710739</v>
+        <v>0.9830656617106561</v>
       </c>
       <c r="E13">
-        <v>0.9667872447422242</v>
+        <v>0.9687297413685598</v>
       </c>
       <c r="F13">
-        <v>0.8917914977216133</v>
+        <v>0.8932132601956368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021941161592608</v>
+        <v>1.022941818361009</v>
       </c>
       <c r="J13">
-        <v>0.9853593801350389</v>
+        <v>0.9875228805337872</v>
       </c>
       <c r="K13">
-        <v>0.9967761682513214</v>
+        <v>0.9984794988646137</v>
       </c>
       <c r="L13">
-        <v>0.9825333825414237</v>
+        <v>0.9844354506545481</v>
       </c>
       <c r="M13">
-        <v>0.9092812734376464</v>
+        <v>0.910666290570627</v>
+      </c>
+      <c r="N13">
+        <v>0.9889252762946029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9551550799107212</v>
+        <v>0.9574228124167629</v>
       </c>
       <c r="D14">
-        <v>0.9825511928834643</v>
+        <v>0.9842858195854645</v>
       </c>
       <c r="E14">
-        <v>0.9681152154762565</v>
+        <v>0.9700539296029488</v>
       </c>
       <c r="F14">
-        <v>0.8951766023297953</v>
+        <v>0.8965830488384434</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022671252479693</v>
+        <v>1.023669526270457</v>
       </c>
       <c r="J14">
-        <v>0.9865587632225604</v>
+        <v>0.988719126442032</v>
       </c>
       <c r="K14">
-        <v>0.9978272567857912</v>
+        <v>0.9995276610896707</v>
       </c>
       <c r="L14">
-        <v>0.9836823646728651</v>
+        <v>0.9855813226186487</v>
       </c>
       <c r="M14">
-        <v>0.9124088303584352</v>
+        <v>0.9137797073300381</v>
+      </c>
+      <c r="N14">
+        <v>0.9901232210092489</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9561358999322538</v>
+        <v>0.9584004812864985</v>
       </c>
       <c r="D15">
-        <v>0.9832991291941481</v>
+        <v>0.9850316589408846</v>
       </c>
       <c r="E15">
-        <v>0.9689272537025262</v>
+        <v>0.9708636942098848</v>
       </c>
       <c r="F15">
-        <v>0.8972329489822122</v>
+        <v>0.8986303023796384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023116372924045</v>
+        <v>1.024113223508449</v>
       </c>
       <c r="J15">
-        <v>0.9872916624205141</v>
+        <v>0.989450147274286</v>
       </c>
       <c r="K15">
-        <v>0.9984693022164919</v>
+        <v>1.000167954331747</v>
       </c>
       <c r="L15">
-        <v>0.984384610189631</v>
+        <v>0.9862817031654303</v>
       </c>
       <c r="M15">
-        <v>0.9143086785421394</v>
+        <v>0.9156711589931983</v>
+      </c>
+      <c r="N15">
+        <v>0.9908552799749338</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9617327309497857</v>
+        <v>0.9639800254036142</v>
       </c>
       <c r="D16">
-        <v>0.9875657624132147</v>
+        <v>0.9892868569610218</v>
       </c>
       <c r="E16">
-        <v>0.9735643177917928</v>
+        <v>0.9754883185023144</v>
       </c>
       <c r="F16">
-        <v>0.9087887870029715</v>
+        <v>0.9101378271050409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025639409623403</v>
+        <v>1.026628594079395</v>
       </c>
       <c r="J16">
-        <v>0.9914694716517464</v>
+        <v>0.9936177812940351</v>
       </c>
       <c r="K16">
-        <v>1.002125859657613</v>
+        <v>1.003815017118858</v>
       </c>
       <c r="L16">
-        <v>0.9883897269637972</v>
+        <v>0.9902766789705667</v>
       </c>
       <c r="M16">
-        <v>0.9249841103344717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9263019603927469</v>
+      </c>
+      <c r="N16">
+        <v>0.995028832513025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9651508529502906</v>
+        <v>0.9673881405299013</v>
       </c>
       <c r="D17">
-        <v>0.9901705489859279</v>
+        <v>0.9918850766697193</v>
       </c>
       <c r="E17">
-        <v>0.9763991019310899</v>
+        <v>0.9783159276626103</v>
       </c>
       <c r="F17">
-        <v>0.9157070462123574</v>
+        <v>0.9170292669934118</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02716645168292</v>
+        <v>1.028151306633858</v>
       </c>
       <c r="J17">
-        <v>0.9940173929429481</v>
+        <v>0.9961599166750775</v>
       </c>
       <c r="K17">
-        <v>1.004353147421514</v>
+        <v>1.006036901843718</v>
       </c>
       <c r="L17">
-        <v>0.9908339937739652</v>
+        <v>0.9927151482182118</v>
       </c>
       <c r="M17">
-        <v>0.9313742157539547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9326672781999884</v>
+      </c>
+      <c r="N17">
+        <v>0.9975745780178957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9671133652171041</v>
+        <v>0.9693450858606195</v>
       </c>
       <c r="D18">
-        <v>0.9916658018420069</v>
+        <v>0.9933766930326381</v>
       </c>
       <c r="E18">
-        <v>0.9780276592606763</v>
+        <v>0.9799405020024051</v>
       </c>
       <c r="F18">
-        <v>0.9196348963047251</v>
+        <v>0.9209425394382313</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028038563000353</v>
+        <v>1.029021043559171</v>
       </c>
       <c r="J18">
-        <v>0.9954790650179087</v>
+        <v>0.9976184048359216</v>
       </c>
       <c r="K18">
-        <v>1.005629962012732</v>
+        <v>1.007310741227995</v>
       </c>
       <c r="L18">
-        <v>0.9922367577226257</v>
+        <v>0.9941147113163703</v>
       </c>
       <c r="M18">
-        <v>0.9350017359073303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.936281321479065</v>
+      </c>
+      <c r="N18">
+        <v>0.9990351373992189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9677774227078458</v>
+        <v>0.9700072883200244</v>
       </c>
       <c r="D19">
-        <v>0.9921717085626842</v>
+        <v>0.9938813906594314</v>
       </c>
       <c r="E19">
-        <v>0.9785788761415007</v>
+        <v>0.9804903930445376</v>
       </c>
       <c r="F19">
-        <v>0.9209569408518202</v>
+        <v>0.9222597789089614</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028332901334356</v>
+        <v>1.029314596119633</v>
       </c>
       <c r="J19">
-        <v>0.9959734519699749</v>
+        <v>0.998111736547625</v>
       </c>
       <c r="K19">
-        <v>1.006061673415312</v>
+        <v>1.007741466185124</v>
       </c>
       <c r="L19">
-        <v>0.992711310530761</v>
+        <v>0.9945882015345178</v>
       </c>
       <c r="M19">
-        <v>0.9362226078652994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9374977506746491</v>
+      </c>
+      <c r="N19">
+        <v>0.9995291696985389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964787395555881</v>
+        <v>0.9670257282152057</v>
       </c>
       <c r="D20">
-        <v>0.9898936061824445</v>
+        <v>0.9916088178800768</v>
       </c>
       <c r="E20">
-        <v>0.9760975705690718</v>
+        <v>0.9780151447136524</v>
       </c>
       <c r="F20">
-        <v>0.914976135767829</v>
+        <v>0.9163011200133957</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027004567142517</v>
+        <v>1.027989870559897</v>
       </c>
       <c r="J20">
-        <v>0.9937465939535747</v>
+        <v>0.995889718223061</v>
       </c>
       <c r="K20">
-        <v>1.004116523093056</v>
+        <v>1.005800838512547</v>
       </c>
       <c r="L20">
-        <v>0.990574152687029</v>
+        <v>0.9924559100035153</v>
       </c>
       <c r="M20">
-        <v>0.9306991518216902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9319947687840623</v>
+      </c>
+      <c r="N20">
+        <v>0.9973039958530852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9546842373115449</v>
+        <v>0.9569534959549221</v>
       </c>
       <c r="D21">
-        <v>0.9821921195050719</v>
+        <v>0.9839277631804025</v>
       </c>
       <c r="E21">
-        <v>0.9677254584958406</v>
+        <v>0.9696652744233901</v>
       </c>
       <c r="F21">
-        <v>0.8941859732166363</v>
+        <v>0.8955968566335499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022457251433685</v>
+        <v>1.023456217387325</v>
       </c>
       <c r="J21">
-        <v>0.9862068538346064</v>
+        <v>0.9883681293128946</v>
       </c>
       <c r="K21">
-        <v>0.9975189083011445</v>
+        <v>0.9992201635568653</v>
       </c>
       <c r="L21">
-        <v>0.9833452127972823</v>
+        <v>0.9852450757395503</v>
       </c>
       <c r="M21">
-        <v>0.9114935799182523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9128685535013524</v>
+      </c>
+      <c r="N21">
+        <v>0.9897717254239279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9480000281328383</v>
+        <v>0.950291941977761</v>
       </c>
       <c r="D22">
-        <v>0.9770925131032454</v>
+        <v>0.9788433622944145</v>
       </c>
       <c r="E22">
-        <v>0.9621966687421221</v>
+        <v>0.9641528913938303</v>
       </c>
       <c r="F22">
-        <v>0.8798637329550301</v>
+        <v>0.8813431423450228</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019396132884557</v>
+        <v>1.020405599548023</v>
       </c>
       <c r="J22">
-        <v>0.9812052519902393</v>
+        <v>0.9833802602336583</v>
       </c>
       <c r="K22">
-        <v>0.9931318528653358</v>
+        <v>0.9948459188970179</v>
       </c>
       <c r="L22">
-        <v>0.9785561503215737</v>
+        <v>0.9804695801601123</v>
       </c>
       <c r="M22">
-        <v>0.8982605946197376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8996988047443237</v>
+      </c>
+      <c r="N22">
+        <v>0.9847767729984825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9515777855760321</v>
+        <v>0.9538573376989706</v>
       </c>
       <c r="D23">
-        <v>0.97982261889774</v>
+        <v>0.9815651458096198</v>
       </c>
       <c r="E23">
-        <v>0.9651549843553577</v>
+        <v>0.9671022429604241</v>
       </c>
       <c r="F23">
-        <v>0.8875916221837317</v>
+        <v>0.8890330096489875</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021040050897016</v>
+        <v>1.022043735032014</v>
       </c>
       <c r="J23">
-        <v>0.9838837470299063</v>
+        <v>0.9860512182526315</v>
       </c>
       <c r="K23">
-        <v>0.9954823175378064</v>
+        <v>0.9971893520682151</v>
       </c>
       <c r="L23">
-        <v>0.9811201676118529</v>
+        <v>0.9830261642923426</v>
       </c>
       <c r="M23">
-        <v>0.9054008375641647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9068039684628822</v>
+      </c>
+      <c r="N23">
+        <v>0.9874515240842058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9649517222763906</v>
+        <v>0.9671895818826048</v>
       </c>
       <c r="D24">
-        <v>0.9900188187075624</v>
+        <v>0.9917337207355674</v>
       </c>
       <c r="E24">
-        <v>0.9762338962292068</v>
+        <v>0.978151131579506</v>
       </c>
       <c r="F24">
-        <v>0.9153067320392643</v>
+        <v>0.9166304643462108</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027077772892196</v>
+        <v>1.028062873205617</v>
       </c>
       <c r="J24">
-        <v>0.9938690316269069</v>
+        <v>0.996011883955171</v>
       </c>
       <c r="K24">
-        <v>1.004223512053361</v>
+        <v>1.005907573442951</v>
       </c>
       <c r="L24">
-        <v>0.9906916341917335</v>
+        <v>0.9925731185428732</v>
       </c>
       <c r="M24">
-        <v>0.9310044897862654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9322989494813831</v>
+      </c>
+      <c r="N24">
+        <v>0.9974263350745471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9792593249180588</v>
+        <v>0.9814592764466875</v>
       </c>
       <c r="D25">
-        <v>1.000916021979451</v>
+        <v>1.002606395507479</v>
       </c>
       <c r="E25">
-        <v>0.9881225197772728</v>
+        <v>0.9900127586437275</v>
       </c>
       <c r="F25">
-        <v>0.9433007785325531</v>
+        <v>0.9445294942861089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033362299424634</v>
+        <v>1.034331703106782</v>
       </c>
       <c r="J25">
-        <v>1.00450543979621</v>
+        <v>1.006627136210431</v>
       </c>
       <c r="K25">
-        <v>1.013500134510293</v>
+        <v>1.015164384837313</v>
       </c>
       <c r="L25">
-        <v>1.000908059803725</v>
+        <v>1.002768117766777</v>
       </c>
       <c r="M25">
-        <v>0.9568480389773585</v>
+        <v>0.9580546210751686</v>
+      </c>
+      <c r="N25">
+        <v>1.008056662205596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9920615401415691</v>
+        <v>0.9935117071208863</v>
       </c>
       <c r="D2">
-        <v>1.010679264333306</v>
+        <v>1.012720847454484</v>
       </c>
       <c r="E2">
-        <v>0.9988498995549004</v>
+        <v>1.000240546680601</v>
       </c>
       <c r="F2">
-        <v>0.9643927014083449</v>
+        <v>0.9657227417172015</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038876517556884</v>
+        <v>1.039966149542276</v>
       </c>
       <c r="J2">
-        <v>1.01448230975048</v>
+        <v>1.015888229052468</v>
       </c>
       <c r="K2">
-        <v>1.021991798238778</v>
+        <v>1.024005760346434</v>
       </c>
       <c r="L2">
-        <v>1.010325280391871</v>
+        <v>1.011696531322769</v>
       </c>
       <c r="M2">
-        <v>0.9763714489869673</v>
+        <v>0.9776812099678512</v>
       </c>
       <c r="N2">
-        <v>1.015922990993072</v>
+        <v>1.017330906861731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9993785147191379</v>
+        <v>1.000362653258492</v>
       </c>
       <c r="D3">
-        <v>1.016247886398227</v>
+        <v>1.01814085887113</v>
       </c>
       <c r="E3">
-        <v>1.0049606064475</v>
+        <v>1.005931704566103</v>
       </c>
       <c r="F3">
-        <v>0.9777413384952146</v>
+        <v>0.978913907072459</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041955663681942</v>
+        <v>1.042938430637279</v>
       </c>
       <c r="J3">
-        <v>1.019886136400248</v>
+        <v>1.020843436860222</v>
       </c>
       <c r="K3">
-        <v>1.026677009183124</v>
+        <v>1.028546768728212</v>
       </c>
       <c r="L3">
-        <v>1.015530406437969</v>
+        <v>1.016489246586476</v>
       </c>
       <c r="M3">
-        <v>0.9886671744689635</v>
+        <v>0.989823892503368</v>
       </c>
       <c r="N3">
-        <v>1.021334491696511</v>
+        <v>1.022293151632943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003955561334253</v>
+        <v>1.004654209567829</v>
       </c>
       <c r="D4">
-        <v>1.019729966710411</v>
+        <v>1.021534186986048</v>
       </c>
       <c r="E4">
-        <v>1.008788004067107</v>
+        <v>1.009501716163177</v>
       </c>
       <c r="F4">
-        <v>0.9859583267931149</v>
+        <v>0.9870396360381921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043857021020633</v>
+        <v>1.044775454915436</v>
       </c>
       <c r="J4">
-        <v>1.023258621832074</v>
+        <v>1.023939604860167</v>
       </c>
       <c r="K4">
-        <v>1.029595960294025</v>
+        <v>1.031379478864726</v>
       </c>
       <c r="L4">
-        <v>1.018781510190945</v>
+        <v>1.019486800686689</v>
       </c>
       <c r="M4">
-        <v>0.9962292297499225</v>
+        <v>0.997297039677414</v>
       </c>
       <c r="N4">
-        <v>1.02471176644448</v>
+        <v>1.025393716546583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005844489498769</v>
+        <v>1.006426630574741</v>
       </c>
       <c r="D5">
-        <v>1.0211666764001</v>
+        <v>1.022935200034477</v>
       </c>
       <c r="E5">
-        <v>1.010368654946346</v>
+        <v>1.010977260683791</v>
       </c>
       <c r="F5">
-        <v>0.9893215091304465</v>
+        <v>0.9903666519407688</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044635963834024</v>
+        <v>1.045528398584683</v>
       </c>
       <c r="J5">
-        <v>1.02464857095223</v>
+        <v>1.025216464205081</v>
       </c>
       <c r="K5">
-        <v>1.030797808913188</v>
+        <v>1.032546614550997</v>
       </c>
       <c r="L5">
-        <v>1.020122026775274</v>
+        <v>1.020723657083172</v>
       </c>
       <c r="M5">
-        <v>0.9993226618420775</v>
+        <v>1.000355192155721</v>
       </c>
       <c r="N5">
-        <v>1.026103689451816</v>
+        <v>1.026672389178224</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006159647257024</v>
+        <v>1.006722423405871</v>
       </c>
       <c r="D6">
-        <v>1.021406363800188</v>
+        <v>1.023168984274524</v>
       </c>
       <c r="E6">
-        <v>1.010632440707448</v>
+        <v>1.011223572993058</v>
       </c>
       <c r="F6">
-        <v>0.9898810993599862</v>
+        <v>0.9909202898181738</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044765593895946</v>
+        <v>1.045653721828527</v>
       </c>
       <c r="J6">
-        <v>1.024880367392167</v>
+        <v>1.025429445416604</v>
       </c>
       <c r="K6">
-        <v>1.030998167998728</v>
+        <v>1.032741231678352</v>
       </c>
       <c r="L6">
-        <v>1.020345613552216</v>
+        <v>1.020930004007874</v>
       </c>
       <c r="M6">
-        <v>0.9998372681771033</v>
+        <v>1.000863989613328</v>
       </c>
       <c r="N6">
-        <v>1.026335815069285</v>
+        <v>1.026885672847497</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003980936804143</v>
+        <v>1.004678014866828</v>
       </c>
       <c r="D7">
-        <v>1.019749268507925</v>
+        <v>1.021553005652493</v>
       </c>
       <c r="E7">
-        <v>1.008809233950256</v>
+        <v>1.009521529771203</v>
       </c>
       <c r="F7">
-        <v>0.9860036129228846</v>
+        <v>0.9870844306763848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043867507671184</v>
+        <v>1.04478559018153</v>
       </c>
       <c r="J7">
-        <v>1.023277301483111</v>
+        <v>1.023956761652678</v>
       </c>
       <c r="K7">
-        <v>1.0296121166806</v>
+        <v>1.0313951655358</v>
       </c>
       <c r="L7">
-        <v>1.018799523202662</v>
+        <v>1.019503417376497</v>
       </c>
       <c r="M7">
-        <v>0.9962708904017008</v>
+        <v>0.9973382210619832</v>
       </c>
       <c r="N7">
-        <v>1.024730472622764</v>
+        <v>1.025410897703707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9945685282292633</v>
+        <v>0.9958576587882724</v>
       </c>
       <c r="D8">
-        <v>1.012587489054705</v>
+        <v>1.01457721166976</v>
       </c>
       <c r="E8">
-        <v>1.000942496980604</v>
+        <v>1.002188261216962</v>
       </c>
       <c r="F8">
-        <v>0.9689971584850308</v>
+        <v>0.9702715449833951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039936893800866</v>
+        <v>1.040989343884538</v>
       </c>
       <c r="J8">
-        <v>1.016335467741344</v>
+        <v>1.017586707747097</v>
       </c>
       <c r="K8">
-        <v>1.023599612147031</v>
+        <v>1.02556328037388</v>
       </c>
       <c r="L8">
-        <v>1.012109716663523</v>
+        <v>1.013338672479956</v>
       </c>
       <c r="M8">
-        <v>0.9806141302549982</v>
+        <v>0.9818698554117994</v>
       </c>
       <c r="N8">
-        <v>1.017778780680844</v>
+        <v>1.019031797590925</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9766486550423829</v>
+        <v>0.979121801498357</v>
       </c>
       <c r="D9">
-        <v>0.9989419768310759</v>
+        <v>1.001324713412493</v>
       </c>
       <c r="E9">
-        <v>0.986009793652161</v>
+        <v>0.9883181081654394</v>
       </c>
       <c r="F9">
-        <v>0.9352870615399936</v>
+        <v>0.9370047907138591</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03223782046906</v>
+        <v>1.033569740755694</v>
       </c>
       <c r="J9">
-        <v>1.003053840887482</v>
+        <v>1.005433994179559</v>
       </c>
       <c r="K9">
-        <v>1.012052243078221</v>
+        <v>1.014396334566683</v>
       </c>
       <c r="L9">
-        <v>0.999334005019816</v>
+        <v>1.001603602667996</v>
       </c>
       <c r="M9">
-        <v>0.949525236732903</v>
+        <v>0.951209894813812</v>
       </c>
       <c r="N9">
-        <v>1.004478292393426</v>
+        <v>1.006861825776185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.963590540069303</v>
+        <v>0.966978391502466</v>
       </c>
       <c r="D10">
-        <v>0.9889898848422726</v>
+        <v>0.9916934640232138</v>
       </c>
       <c r="E10">
-        <v>0.9751653089540995</v>
+        <v>0.9782895445108541</v>
       </c>
       <c r="F10">
-        <v>0.9093438509938352</v>
+        <v>0.9114679641894649</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026453920139532</v>
+        <v>1.028011288679262</v>
       </c>
       <c r="J10">
-        <v>0.9933270908564912</v>
+        <v>0.9965663099739156</v>
       </c>
       <c r="K10">
-        <v>1.003560817100188</v>
+        <v>1.006214332832498</v>
       </c>
       <c r="L10">
-        <v>0.9899979213361333</v>
+        <v>0.9930621729464975</v>
       </c>
       <c r="M10">
-        <v>0.9255685400246845</v>
+        <v>0.9276435305599154</v>
       </c>
       <c r="N10">
-        <v>0.9947377292617171</v>
+        <v>0.9979815484418318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9576098796181276</v>
+        <v>0.961432864748481</v>
       </c>
       <c r="D11">
-        <v>0.9844285342368937</v>
+        <v>0.9872895950453917</v>
       </c>
       <c r="E11">
-        <v>0.9702088566714604</v>
+        <v>0.9737195096321436</v>
       </c>
       <c r="F11">
-        <v>0.8969755152154407</v>
+        <v>0.8993176514894503</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023754492463968</v>
+        <v>1.025422103436269</v>
       </c>
       <c r="J11">
-        <v>0.9888590175395664</v>
+        <v>0.9925030047675601</v>
       </c>
       <c r="K11">
-        <v>0.9996502038686237</v>
+        <v>1.002455258767916</v>
       </c>
       <c r="L11">
-        <v>0.9857153419175455</v>
+        <v>0.989154659042393</v>
       </c>
       <c r="M11">
-        <v>0.9141423089575963</v>
+        <v>0.9164256940879205</v>
       </c>
       <c r="N11">
-        <v>0.9902633107681871</v>
+        <v>0.9939124728760158</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9553324201198785</v>
+        <v>0.9593239642247191</v>
       </c>
       <c r="D12">
-        <v>0.9826908548452341</v>
+        <v>0.9856137314460103</v>
       </c>
       <c r="E12">
-        <v>0.968323116949658</v>
+        <v>0.9719831427390183</v>
       </c>
       <c r="F12">
-        <v>0.8921728904949654</v>
+        <v>0.8946044946082793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022717819625962</v>
+        <v>1.024428678122145</v>
       </c>
       <c r="J12">
-        <v>0.9871553375318901</v>
+        <v>0.9909554595775116</v>
       </c>
       <c r="K12">
-        <v>0.9981573576730121</v>
+        <v>1.001021839050948</v>
       </c>
       <c r="L12">
-        <v>0.9840834437893043</v>
+        <v>0.9876675325190351</v>
       </c>
       <c r="M12">
-        <v>0.9097050551544479</v>
+        <v>0.9120737644970394</v>
       </c>
       <c r="N12">
-        <v>0.988557211339485</v>
+        <v>0.9923627299942918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9558236067292579</v>
+        <v>0.9597786603562534</v>
       </c>
       <c r="D13">
-        <v>0.9830656617106561</v>
+        <v>0.9859751180559585</v>
       </c>
       <c r="E13">
-        <v>0.9687297413685598</v>
+        <v>0.9723574453382133</v>
       </c>
       <c r="F13">
-        <v>0.8932132601956368</v>
+        <v>0.8956252429967597</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022941818361009</v>
+        <v>1.024643288109568</v>
       </c>
       <c r="J13">
-        <v>0.9875228805337872</v>
+        <v>0.9912892327860215</v>
       </c>
       <c r="K13">
-        <v>0.9984794988646137</v>
+        <v>1.001331081352481</v>
       </c>
       <c r="L13">
-        <v>0.9844354506545481</v>
+        <v>0.987988223128154</v>
       </c>
       <c r="M13">
-        <v>0.910666290570627</v>
+        <v>0.9130162966832764</v>
       </c>
       <c r="N13">
-        <v>0.9889252762946029</v>
+        <v>0.9926969771990418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9574228124167629</v>
+        <v>0.9612595820768737</v>
       </c>
       <c r="D14">
-        <v>0.9842858195854645</v>
+        <v>0.987151918724638</v>
       </c>
       <c r="E14">
-        <v>0.9700539296029488</v>
+        <v>0.9735768047604223</v>
       </c>
       <c r="F14">
-        <v>0.8965830488384434</v>
+        <v>0.8989323912440623</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023669526270457</v>
+        <v>1.025340662383005</v>
       </c>
       <c r="J14">
-        <v>0.988719126442032</v>
+        <v>0.9923758959378084</v>
       </c>
       <c r="K14">
-        <v>0.9995276610896707</v>
+        <v>1.002337560748629</v>
       </c>
       <c r="L14">
-        <v>0.9855813226186487</v>
+        <v>0.9890324898669867</v>
       </c>
       <c r="M14">
-        <v>0.9137797073300381</v>
+        <v>0.9160699689084544</v>
       </c>
       <c r="N14">
-        <v>0.9901232210092489</v>
+        <v>0.9937851835371464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9584004812864985</v>
+        <v>0.9621653275429389</v>
       </c>
       <c r="D15">
-        <v>0.9850316589408846</v>
+        <v>0.9878715028424452</v>
       </c>
       <c r="E15">
-        <v>0.9708636942098848</v>
+        <v>0.9743227847114919</v>
       </c>
       <c r="F15">
-        <v>0.8986303023796384</v>
+        <v>0.9009422563018045</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024113223508449</v>
+        <v>1.025765989012495</v>
       </c>
       <c r="J15">
-        <v>0.989450147274286</v>
+        <v>0.9930401957726397</v>
       </c>
       <c r="K15">
-        <v>1.000167954331747</v>
+        <v>1.002952605163849</v>
       </c>
       <c r="L15">
-        <v>0.9862817031654303</v>
+        <v>0.9896710188079046</v>
       </c>
       <c r="M15">
-        <v>0.9156711589931983</v>
+        <v>0.9179257348080276</v>
       </c>
       <c r="N15">
-        <v>0.9908552799749338</v>
+        <v>0.9944504267539396</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9639800254036142</v>
+        <v>0.9673399056957753</v>
       </c>
       <c r="D16">
-        <v>0.9892868569610218</v>
+        <v>0.9919804175766695</v>
       </c>
       <c r="E16">
-        <v>0.9754883185023144</v>
+        <v>0.9785876751824711</v>
       </c>
       <c r="F16">
-        <v>0.9101378271050409</v>
+        <v>0.9122485203339479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026628594079395</v>
+        <v>1.028178943533749</v>
       </c>
       <c r="J16">
-        <v>0.9936177812940351</v>
+        <v>0.9968308962383163</v>
       </c>
       <c r="K16">
-        <v>1.003815017118858</v>
+        <v>1.006458885091757</v>
       </c>
       <c r="L16">
-        <v>0.9902766789705667</v>
+        <v>0.9933167549331063</v>
       </c>
       <c r="M16">
-        <v>0.9263019603927469</v>
+        <v>0.9283641012458003</v>
       </c>
       <c r="N16">
-        <v>0.995028832513025</v>
+        <v>0.9982465104490768</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9673881405299013</v>
+        <v>0.9705051193098734</v>
       </c>
       <c r="D17">
-        <v>0.9918850766697193</v>
+        <v>0.9944921762377149</v>
       </c>
       <c r="E17">
-        <v>0.9783159276626103</v>
+        <v>0.9811990412604098</v>
       </c>
       <c r="F17">
-        <v>0.9170292669934118</v>
+        <v>0.9190262244321978</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028151306633858</v>
+        <v>1.029641038033327</v>
       </c>
       <c r="J17">
-        <v>0.9961599166750775</v>
+        <v>0.9991459070320947</v>
       </c>
       <c r="K17">
-        <v>1.006036901843718</v>
+        <v>1.008597471700321</v>
       </c>
       <c r="L17">
-        <v>0.9927151482182118</v>
+        <v>0.9955449503420092</v>
       </c>
       <c r="M17">
-        <v>0.9326672781999884</v>
+        <v>0.9346204089862963</v>
       </c>
       <c r="N17">
-        <v>0.9975745780178957</v>
+        <v>1.000564808823718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9693450858606195</v>
+        <v>0.9723240687280077</v>
       </c>
       <c r="D18">
-        <v>0.9933766930326381</v>
+        <v>0.9959351090580604</v>
       </c>
       <c r="E18">
-        <v>0.9799405020024051</v>
+        <v>0.9827006115559129</v>
       </c>
       <c r="F18">
-        <v>0.9209425394382313</v>
+        <v>0.9228770303674284</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029021043559171</v>
+        <v>1.030476602649676</v>
       </c>
       <c r="J18">
-        <v>0.9976184048359216</v>
+        <v>1.000475012426526</v>
       </c>
       <c r="K18">
-        <v>1.007310741227995</v>
+        <v>1.009824378656261</v>
       </c>
       <c r="L18">
-        <v>0.9941147113163703</v>
+        <v>0.9968247892985196</v>
       </c>
       <c r="M18">
-        <v>0.936281321479065</v>
+        <v>0.9381744980030406</v>
       </c>
       <c r="N18">
-        <v>0.9990351373992189</v>
+        <v>1.00189580170026</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9700072883200244</v>
+        <v>0.9729398152607853</v>
       </c>
       <c r="D19">
-        <v>0.9938813906594314</v>
+        <v>0.9964234894809774</v>
       </c>
       <c r="E19">
-        <v>0.9804903930445376</v>
+        <v>0.9832090691081508</v>
       </c>
       <c r="F19">
-        <v>0.9222597789089614</v>
+        <v>0.9241735762482024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029314596119633</v>
+        <v>1.030758694156552</v>
       </c>
       <c r="J19">
-        <v>0.998111736547625</v>
+        <v>1.000924730461294</v>
       </c>
       <c r="K19">
-        <v>1.007741466185124</v>
+        <v>1.01023936842947</v>
       </c>
       <c r="L19">
-        <v>0.9945882015345178</v>
+        <v>0.9972579318152445</v>
       </c>
       <c r="M19">
-        <v>0.9374977506746491</v>
+        <v>0.9393710526061141</v>
       </c>
       <c r="N19">
-        <v>0.9995291696985389</v>
+        <v>1.00234615838622</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9670257282152057</v>
+        <v>0.9701683801515094</v>
       </c>
       <c r="D20">
-        <v>0.9916088178800768</v>
+        <v>0.9942250097546431</v>
       </c>
       <c r="E20">
-        <v>0.9780151447136524</v>
+        <v>0.980921130199234</v>
       </c>
       <c r="F20">
-        <v>0.9163011200133957</v>
+        <v>0.9183098669024932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027989870559897</v>
+        <v>1.029485980617221</v>
       </c>
       <c r="J20">
-        <v>0.995889718223061</v>
+        <v>0.9988997512721035</v>
       </c>
       <c r="K20">
-        <v>1.005800838512547</v>
+        <v>1.008370171226896</v>
       </c>
       <c r="L20">
-        <v>0.9924559100035153</v>
+        <v>0.995307964855395</v>
       </c>
       <c r="M20">
-        <v>0.9319947687840623</v>
+        <v>0.9339592081969555</v>
       </c>
       <c r="N20">
-        <v>0.9973039958530852</v>
+        <v>1.000318303494313</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9569534959549221</v>
+        <v>0.9608248959299521</v>
       </c>
       <c r="D21">
-        <v>0.9839277631804025</v>
+        <v>0.986806533205692</v>
       </c>
       <c r="E21">
-        <v>0.9696652744233901</v>
+        <v>0.9732188496736984</v>
       </c>
       <c r="F21">
-        <v>0.8955968566335499</v>
+        <v>0.897964388295086</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023456217387325</v>
+        <v>1.025136218621767</v>
       </c>
       <c r="J21">
-        <v>0.9883681293128946</v>
+        <v>0.9920570003396368</v>
       </c>
       <c r="K21">
-        <v>0.9992201635568653</v>
+        <v>1.002042246366302</v>
       </c>
       <c r="L21">
-        <v>0.9852450757395503</v>
+        <v>0.9887260050149396</v>
       </c>
       <c r="M21">
-        <v>0.9128685535013524</v>
+        <v>0.9151761689854708</v>
       </c>
       <c r="N21">
-        <v>0.9897717254239279</v>
+        <v>0.9934658350706473</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.950291941977761</v>
+        <v>0.9546624091538261</v>
       </c>
       <c r="D22">
-        <v>0.9788433622944145</v>
+        <v>0.9819068320178941</v>
       </c>
       <c r="E22">
-        <v>0.9641528913938303</v>
+        <v>0.968148050837396</v>
       </c>
       <c r="F22">
-        <v>0.8813431423450228</v>
+        <v>0.8839873143684029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020405599548023</v>
+        <v>1.022214835893388</v>
       </c>
       <c r="J22">
-        <v>0.9833802602336583</v>
+        <v>0.987530049019559</v>
       </c>
       <c r="K22">
-        <v>0.9948459188970179</v>
+        <v>0.9978454458166595</v>
       </c>
       <c r="L22">
-        <v>0.9804695801601123</v>
+        <v>0.984378057302436</v>
       </c>
       <c r="M22">
-        <v>0.8996988047443237</v>
+        <v>0.902269808882356</v>
       </c>
       <c r="N22">
-        <v>0.9847767729984825</v>
+        <v>0.9889324549604467</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9538573376989706</v>
+        <v>0.9579589247090837</v>
       </c>
       <c r="D23">
-        <v>0.9815651458096198</v>
+        <v>0.9845286202340486</v>
       </c>
       <c r="E23">
-        <v>0.9671022429604241</v>
+        <v>0.9708596893566812</v>
       </c>
       <c r="F23">
-        <v>0.8890330096489875</v>
+        <v>0.8915246590828791</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022043735032014</v>
+        <v>1.02378299602612</v>
       </c>
       <c r="J23">
-        <v>0.9860512182526315</v>
+        <v>0.9899530751670216</v>
       </c>
       <c r="K23">
-        <v>0.9971893520682151</v>
+        <v>1.000092845279317</v>
       </c>
       <c r="L23">
-        <v>0.9830261642923426</v>
+        <v>0.9867046098187622</v>
       </c>
       <c r="M23">
-        <v>0.9068039684628822</v>
+        <v>0.9092298814556506</v>
       </c>
       <c r="N23">
-        <v>0.9874515240842058</v>
+        <v>0.9913589220829635</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9671895818826048</v>
+        <v>0.9703206219157875</v>
       </c>
       <c r="D24">
-        <v>0.9917337207355674</v>
+        <v>0.9943457988257033</v>
       </c>
       <c r="E24">
-        <v>0.978151131579506</v>
+        <v>0.9810467726432369</v>
       </c>
       <c r="F24">
-        <v>0.9166304643462108</v>
+        <v>0.9186338722696342</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028062873205617</v>
+        <v>1.029556097388266</v>
       </c>
       <c r="J24">
-        <v>0.996011883955171</v>
+        <v>0.9990110436439393</v>
       </c>
       <c r="K24">
-        <v>1.005907573442951</v>
+        <v>1.008472941524055</v>
       </c>
       <c r="L24">
-        <v>0.9925731185428732</v>
+        <v>0.9954151093637227</v>
       </c>
       <c r="M24">
-        <v>0.9322989494813831</v>
+        <v>0.934258267935446</v>
       </c>
       <c r="N24">
-        <v>0.9974263350745471</v>
+        <v>1.000429753914082</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9814592764466875</v>
+        <v>0.9836068550256547</v>
       </c>
       <c r="D25">
-        <v>1.002606395507479</v>
+        <v>1.004878441977458</v>
       </c>
       <c r="E25">
-        <v>0.9900127586437275</v>
+        <v>0.9920295666424227</v>
       </c>
       <c r="F25">
-        <v>0.9445294942861089</v>
+        <v>0.9461169978837632</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034331703106782</v>
+        <v>1.035585385463526</v>
       </c>
       <c r="J25">
-        <v>1.006627136210431</v>
+        <v>1.008698794974823</v>
       </c>
       <c r="K25">
-        <v>1.015164384837313</v>
+        <v>1.017401495533352</v>
       </c>
       <c r="L25">
-        <v>1.002768117766777</v>
+        <v>1.004752886400095</v>
       </c>
       <c r="M25">
-        <v>0.9580546210751686</v>
+        <v>0.9596136384961069</v>
       </c>
       <c r="N25">
-        <v>1.008056662205596</v>
+        <v>1.010131262963056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9935117071208863</v>
+        <v>1.026860145300737</v>
       </c>
       <c r="D2">
-        <v>1.012720847454484</v>
+        <v>1.042094275666428</v>
       </c>
       <c r="E2">
-        <v>1.000240546680601</v>
+        <v>1.028907130943661</v>
       </c>
       <c r="F2">
-        <v>0.9657227417172015</v>
+        <v>1.043260805598913</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039966149542276</v>
+        <v>1.05920541534054</v>
       </c>
       <c r="J2">
-        <v>1.015888229052468</v>
+        <v>1.048266115992737</v>
       </c>
       <c r="K2">
-        <v>1.024005760346434</v>
+        <v>1.052996739898883</v>
       </c>
       <c r="L2">
-        <v>1.011696531322769</v>
+        <v>1.039977913782797</v>
       </c>
       <c r="M2">
-        <v>0.9776812099678512</v>
+        <v>1.054148635879424</v>
       </c>
       <c r="N2">
-        <v>1.017330906861731</v>
+        <v>1.04975477411525</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000362653258492</v>
+        <v>1.033087254575557</v>
       </c>
       <c r="D3">
-        <v>1.01814085887113</v>
+        <v>1.047072779253125</v>
       </c>
       <c r="E3">
-        <v>1.005931704566103</v>
+        <v>1.034102228732972</v>
       </c>
       <c r="F3">
-        <v>0.978913907072459</v>
+        <v>1.049168715105365</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042938430637279</v>
+        <v>1.061834189702591</v>
       </c>
       <c r="J3">
-        <v>1.020843436860222</v>
+        <v>1.052714840181577</v>
       </c>
       <c r="K3">
-        <v>1.028546768728212</v>
+        <v>1.05713680182977</v>
       </c>
       <c r="L3">
-        <v>1.016489246586476</v>
+        <v>1.044316594818307</v>
       </c>
       <c r="M3">
-        <v>0.989823892503368</v>
+        <v>1.059208873667367</v>
       </c>
       <c r="N3">
-        <v>1.022293151632943</v>
+        <v>1.054209816002715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004654209567829</v>
+        <v>1.037012214988465</v>
       </c>
       <c r="D4">
-        <v>1.021534186986048</v>
+        <v>1.050213330587826</v>
       </c>
       <c r="E4">
-        <v>1.009501716163177</v>
+        <v>1.037381112056981</v>
       </c>
       <c r="F4">
-        <v>0.9870396360381921</v>
+        <v>1.052899278383713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044775454915436</v>
+        <v>1.063479828694761</v>
       </c>
       <c r="J4">
-        <v>1.023939604860167</v>
+        <v>1.055514297834683</v>
       </c>
       <c r="K4">
-        <v>1.031379478864726</v>
+        <v>1.059741265296511</v>
       </c>
       <c r="L4">
-        <v>1.019486800686689</v>
+        <v>1.047048379481034</v>
       </c>
       <c r="M4">
-        <v>0.997297039677414</v>
+        <v>1.062398575205223</v>
       </c>
       <c r="N4">
-        <v>1.025393716546583</v>
+        <v>1.05701324920679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006426630574741</v>
+        <v>1.038638449458201</v>
       </c>
       <c r="D5">
-        <v>1.022935200034477</v>
+        <v>1.051515113178211</v>
       </c>
       <c r="E5">
-        <v>1.010977260683791</v>
+        <v>1.038740648473934</v>
       </c>
       <c r="F5">
-        <v>0.9903666519407688</v>
+        <v>1.054446544009552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045528398584683</v>
+        <v>1.064158917020314</v>
       </c>
       <c r="J5">
-        <v>1.025216464205081</v>
+        <v>1.056673055635851</v>
       </c>
       <c r="K5">
-        <v>1.032546614550997</v>
+        <v>1.060819117545776</v>
       </c>
       <c r="L5">
-        <v>1.020723657083172</v>
+        <v>1.048179495698077</v>
       </c>
       <c r="M5">
-        <v>1.000355192155721</v>
+        <v>1.063720167683528</v>
       </c>
       <c r="N5">
-        <v>1.026672389178224</v>
+        <v>1.058173652576947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006722423405871</v>
+        <v>1.038910137260895</v>
       </c>
       <c r="D6">
-        <v>1.023168984274524</v>
+        <v>1.051732626877991</v>
       </c>
       <c r="E6">
-        <v>1.011223572993058</v>
+        <v>1.038967836745495</v>
       </c>
       <c r="F6">
-        <v>0.9909202898181738</v>
+        <v>1.054705129991537</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045653721828527</v>
+        <v>1.064272206240797</v>
       </c>
       <c r="J6">
-        <v>1.025429445416604</v>
+        <v>1.056866575524777</v>
       </c>
       <c r="K6">
-        <v>1.032741231678352</v>
+        <v>1.060999114044121</v>
       </c>
       <c r="L6">
-        <v>1.020930004007874</v>
+        <v>1.048368420795609</v>
       </c>
       <c r="M6">
-        <v>1.000863989613328</v>
+        <v>1.063940958698253</v>
       </c>
       <c r="N6">
-        <v>1.026885672847497</v>
+        <v>1.058367447286312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004678014866828</v>
+        <v>1.03703403691183</v>
       </c>
       <c r="D7">
-        <v>1.021553005652493</v>
+        <v>1.050230796692691</v>
       </c>
       <c r="E7">
-        <v>1.009521529771203</v>
+        <v>1.037399351402789</v>
       </c>
       <c r="F7">
-        <v>0.9870844306763848</v>
+        <v>1.052920034485628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04478559018153</v>
+        <v>1.063488952105079</v>
       </c>
       <c r="J7">
-        <v>1.023956761652678</v>
+        <v>1.055529851426689</v>
       </c>
       <c r="K7">
-        <v>1.0313951655358</v>
+        <v>1.059755733699683</v>
       </c>
       <c r="L7">
-        <v>1.019503417376497</v>
+        <v>1.047063560596886</v>
       </c>
       <c r="M7">
-        <v>0.9973382210619832</v>
+        <v>1.062416309308892</v>
       </c>
       <c r="N7">
-        <v>1.025410897703707</v>
+        <v>1.057028824886681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958576587882724</v>
+        <v>1.028986974715097</v>
       </c>
       <c r="D8">
-        <v>1.01457721166976</v>
+        <v>1.043794063697044</v>
       </c>
       <c r="E8">
-        <v>1.002188261216962</v>
+        <v>1.030680516144514</v>
       </c>
       <c r="F8">
-        <v>0.9702715449833951</v>
+        <v>1.04527714939184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040989343884538</v>
+        <v>1.060105603844522</v>
       </c>
       <c r="J8">
-        <v>1.017586707747097</v>
+        <v>1.049786485159965</v>
       </c>
       <c r="K8">
-        <v>1.02556328037388</v>
+        <v>1.054411776515696</v>
       </c>
       <c r="L8">
-        <v>1.013338672479956</v>
+        <v>1.041460338468012</v>
       </c>
       <c r="M8">
-        <v>0.9818698554117994</v>
+        <v>1.05587684640701</v>
       </c>
       <c r="N8">
-        <v>1.019031797590925</v>
+        <v>1.051277302381084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.979121801498357</v>
+        <v>1.013950164640905</v>
       </c>
       <c r="D9">
-        <v>1.001324713412493</v>
+        <v>1.031790618719177</v>
       </c>
       <c r="E9">
-        <v>0.9883181081654394</v>
+        <v>1.018164360182017</v>
       </c>
       <c r="F9">
-        <v>0.9370047907138591</v>
+        <v>1.031053116155608</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033569740755694</v>
+        <v>1.053694719174712</v>
       </c>
       <c r="J9">
-        <v>1.005433994179559</v>
+        <v>1.03901974465234</v>
       </c>
       <c r="K9">
-        <v>1.014396334566683</v>
+        <v>1.044388143808473</v>
       </c>
       <c r="L9">
-        <v>1.001603602667996</v>
+        <v>1.030969450629398</v>
       </c>
       <c r="M9">
-        <v>0.951209894813812</v>
+        <v>1.043661696688885</v>
       </c>
       <c r="N9">
-        <v>1.006861825776185</v>
+        <v>1.040495271866977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.966978391502466</v>
+        <v>1.003261405028071</v>
       </c>
       <c r="D10">
-        <v>0.9916934640232138</v>
+        <v>1.023279897011438</v>
       </c>
       <c r="E10">
-        <v>0.9782895445108541</v>
+        <v>1.009298760470196</v>
       </c>
       <c r="F10">
-        <v>0.9114679641894649</v>
+        <v>1.020985604340685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028011288679262</v>
+        <v>1.049080467915185</v>
       </c>
       <c r="J10">
-        <v>0.9965663099739156</v>
+        <v>1.031346219856618</v>
       </c>
       <c r="K10">
-        <v>1.006214332832498</v>
+        <v>1.037241173438717</v>
       </c>
       <c r="L10">
-        <v>0.9930621729464975</v>
+        <v>1.023502128349802</v>
       </c>
       <c r="M10">
-        <v>0.9276435305599154</v>
+        <v>1.034986020208682</v>
       </c>
       <c r="N10">
-        <v>0.9979815484418318</v>
+        <v>1.03281084978588</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.961432864748481</v>
+        <v>0.9984531600497529</v>
       </c>
       <c r="D11">
-        <v>0.9872895950453917</v>
+        <v>1.019457915024388</v>
       </c>
       <c r="E11">
-        <v>0.9737195096321436</v>
+        <v>1.005319361028799</v>
       </c>
       <c r="F11">
-        <v>0.8993176514894503</v>
+        <v>1.016468253063923</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025422103436269</v>
+        <v>1.046991996914935</v>
       </c>
       <c r="J11">
-        <v>0.9925030047675601</v>
+        <v>1.027890431258748</v>
       </c>
       <c r="K11">
-        <v>1.002455258767916</v>
+        <v>1.034021981604998</v>
       </c>
       <c r="L11">
-        <v>0.989154659042393</v>
+        <v>1.020141654395309</v>
       </c>
       <c r="M11">
-        <v>0.9164256940879205</v>
+        <v>1.03108614418367</v>
       </c>
       <c r="N11">
-        <v>0.9939124728760158</v>
+        <v>1.029350153571815</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9593239642247191</v>
+        <v>0.9966379874112609</v>
       </c>
       <c r="D12">
-        <v>0.9856137314460103</v>
+        <v>1.018016167418949</v>
       </c>
       <c r="E12">
-        <v>0.9719831427390183</v>
+        <v>1.003818515437719</v>
       </c>
       <c r="F12">
-        <v>0.8946044946082793</v>
+        <v>1.014764717983192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024428678122145</v>
+        <v>1.046201723470751</v>
       </c>
       <c r="J12">
-        <v>0.9909554595775116</v>
+        <v>1.026585318356922</v>
       </c>
       <c r="K12">
-        <v>1.001021839050948</v>
+        <v>1.032806158533334</v>
       </c>
       <c r="L12">
-        <v>0.9876675325190351</v>
+        <v>1.018872922555913</v>
       </c>
       <c r="M12">
-        <v>0.9120737644970394</v>
+        <v>1.029614412602102</v>
       </c>
       <c r="N12">
-        <v>0.9923627299942918</v>
+        <v>1.02804318725997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9597786603562534</v>
+        <v>0.9970287052864785</v>
       </c>
       <c r="D13">
-        <v>0.9859751180559585</v>
+        <v>1.018326453469348</v>
       </c>
       <c r="E13">
-        <v>0.9723574453382133</v>
+        <v>1.004141507612921</v>
       </c>
       <c r="F13">
-        <v>0.8956252429967597</v>
+        <v>1.015131321735887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024643288109568</v>
+        <v>1.046371912969491</v>
       </c>
       <c r="J13">
-        <v>0.9912892327860215</v>
+        <v>1.026866266974366</v>
       </c>
       <c r="K13">
-        <v>1.001331081352481</v>
+        <v>1.033067888496917</v>
       </c>
       <c r="L13">
-        <v>0.987988223128154</v>
+        <v>1.019146021866747</v>
       </c>
       <c r="M13">
-        <v>0.9130162966832764</v>
+        <v>1.029931179227956</v>
       </c>
       <c r="N13">
-        <v>0.9926969771990418</v>
+        <v>1.028324534856677</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9612595820768737</v>
+        <v>0.998303725697798</v>
       </c>
       <c r="D14">
-        <v>0.987151918724638</v>
+        <v>1.019339199904001</v>
       </c>
       <c r="E14">
-        <v>0.9735768047604223</v>
+        <v>1.005195774007031</v>
       </c>
       <c r="F14">
-        <v>0.8989323912440623</v>
+        <v>1.016327971687633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025340662383005</v>
+        <v>1.046926974639026</v>
       </c>
       <c r="J14">
-        <v>0.9923758959378084</v>
+        <v>1.027782997506782</v>
       </c>
       <c r="K14">
-        <v>1.002337560748629</v>
+        <v>1.033921899155054</v>
       </c>
       <c r="L14">
-        <v>0.9890324898669867</v>
+        <v>1.020037207541783</v>
       </c>
       <c r="M14">
-        <v>0.9160699689084544</v>
+        <v>1.030964972500157</v>
       </c>
       <c r="N14">
-        <v>0.9937851835371464</v>
+        <v>1.0292425672516</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9621653275429389</v>
+        <v>0.9990853737730486</v>
       </c>
       <c r="D15">
-        <v>0.9878715028424452</v>
+        <v>1.019960209970529</v>
       </c>
       <c r="E15">
-        <v>0.9743227847114919</v>
+        <v>1.005842280947287</v>
       </c>
       <c r="F15">
-        <v>0.9009422563018045</v>
+        <v>1.017061817935929</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025765989012495</v>
+        <v>1.047267012641788</v>
       </c>
       <c r="J15">
-        <v>0.9930401957726397</v>
+        <v>1.028344932297496</v>
       </c>
       <c r="K15">
-        <v>1.002952605163849</v>
+        <v>1.034445380319522</v>
       </c>
       <c r="L15">
-        <v>0.9896710188079046</v>
+        <v>1.020583535033146</v>
       </c>
       <c r="M15">
-        <v>0.9179257348080276</v>
+        <v>1.031598808481026</v>
       </c>
       <c r="N15">
-        <v>0.9944504267539396</v>
+        <v>1.029805300054171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9673399056957753</v>
+        <v>1.00357654347314</v>
       </c>
       <c r="D16">
-        <v>0.9919804175766695</v>
+        <v>1.023530539335332</v>
       </c>
       <c r="E16">
-        <v>0.9785876751824711</v>
+        <v>1.00955976583103</v>
       </c>
       <c r="F16">
-        <v>0.9122485203339479</v>
+        <v>1.021281922947406</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028178943533749</v>
+        <v>1.049217089514436</v>
       </c>
       <c r="J16">
-        <v>0.9968308962383163</v>
+        <v>1.031572641803652</v>
       </c>
       <c r="K16">
-        <v>1.006458885091757</v>
+        <v>1.037452083940316</v>
       </c>
       <c r="L16">
-        <v>0.9933167549331063</v>
+        <v>1.023722357483132</v>
       </c>
       <c r="M16">
-        <v>0.9283641012458003</v>
+        <v>1.035241689296626</v>
       </c>
       <c r="N16">
-        <v>0.9982465104490768</v>
+        <v>1.033037593278049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705051193098734</v>
+        <v>1.006344116794102</v>
       </c>
       <c r="D17">
-        <v>0.9944921762377149</v>
+        <v>1.025732450769557</v>
       </c>
       <c r="E17">
-        <v>0.9811990412604098</v>
+        <v>1.011852937279011</v>
       </c>
       <c r="F17">
-        <v>0.9190262244321978</v>
+        <v>1.023885524419049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029641038033327</v>
+        <v>1.050415472483577</v>
       </c>
       <c r="J17">
-        <v>0.9991459070320947</v>
+        <v>1.033560664175563</v>
       </c>
       <c r="K17">
-        <v>1.008597471700321</v>
+        <v>1.039303854325675</v>
       </c>
       <c r="L17">
-        <v>0.9955449503420092</v>
+        <v>1.025656285028355</v>
       </c>
       <c r="M17">
-        <v>0.9346204089862963</v>
+        <v>1.037487325738772</v>
       </c>
       <c r="N17">
-        <v>1.000564808823718</v>
+        <v>1.035028438869758</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9723240687280077</v>
+        <v>1.007941189834201</v>
       </c>
       <c r="D18">
-        <v>0.9959351090580604</v>
+        <v>1.027003703076298</v>
       </c>
       <c r="E18">
-        <v>0.9827006115559129</v>
+        <v>1.01317706244009</v>
       </c>
       <c r="F18">
-        <v>0.9228770303674284</v>
+        <v>1.025389045515266</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030476602649676</v>
+        <v>1.051105807661138</v>
       </c>
       <c r="J18">
-        <v>1.000475012426526</v>
+        <v>1.03470750946929</v>
       </c>
       <c r="K18">
-        <v>1.009824378656261</v>
+        <v>1.040372046988538</v>
       </c>
       <c r="L18">
-        <v>0.9968247892985196</v>
+        <v>1.026772154069323</v>
       </c>
       <c r="M18">
-        <v>0.9381744980030406</v>
+        <v>1.03878346386211</v>
       </c>
       <c r="N18">
-        <v>1.00189580170026</v>
+        <v>1.036176912815346</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9729398152607853</v>
+        <v>1.008482893537234</v>
       </c>
       <c r="D19">
-        <v>0.9964234894809774</v>
+        <v>1.027434992086984</v>
       </c>
       <c r="E19">
-        <v>0.9832090691081508</v>
+        <v>1.013626320865754</v>
       </c>
       <c r="F19">
-        <v>0.9241735762482024</v>
+        <v>1.025899196454014</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030758694156552</v>
+        <v>1.05133975172071</v>
       </c>
       <c r="J19">
-        <v>1.000924730461294</v>
+        <v>1.035096436636975</v>
       </c>
       <c r="K19">
-        <v>1.01023936842947</v>
+        <v>1.040734291552945</v>
       </c>
       <c r="L19">
-        <v>0.9972579318152445</v>
+        <v>1.027150614855018</v>
       </c>
       <c r="M19">
-        <v>0.9393710526061141</v>
+        <v>1.039223135686143</v>
       </c>
       <c r="N19">
-        <v>1.00234615838622</v>
+        <v>1.03656639230422</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9701683801515094</v>
+        <v>1.006048976796568</v>
       </c>
       <c r="D20">
-        <v>0.9942250097546431</v>
+        <v>1.025497570644963</v>
       </c>
       <c r="E20">
-        <v>0.980921130199234</v>
+        <v>1.011608303233058</v>
       </c>
       <c r="F20">
-        <v>0.9183098669024932</v>
+        <v>1.023607758823893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029485980617221</v>
+        <v>1.050287799633963</v>
       </c>
       <c r="J20">
-        <v>0.9988997512721035</v>
+        <v>1.033348695605914</v>
       </c>
       <c r="K20">
-        <v>1.008370171226896</v>
+        <v>1.039106418602832</v>
       </c>
       <c r="L20">
-        <v>0.995307964855395</v>
+        <v>1.025450060217474</v>
       </c>
       <c r="M20">
-        <v>0.9339592081969555</v>
+        <v>1.037247818824936</v>
       </c>
       <c r="N20">
-        <v>1.000318303494313</v>
+        <v>1.034816169280427</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9608248959299521</v>
+        <v>0.9979290877222352</v>
       </c>
       <c r="D21">
-        <v>0.986806533205692</v>
+        <v>1.019041594398106</v>
       </c>
       <c r="E21">
-        <v>0.9732188496736984</v>
+        <v>1.004885959725621</v>
       </c>
       <c r="F21">
-        <v>0.897964388295086</v>
+        <v>1.015976310273608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025136218621767</v>
+        <v>1.046763931655256</v>
       </c>
       <c r="J21">
-        <v>0.9920570003396368</v>
+        <v>1.027513648822563</v>
       </c>
       <c r="K21">
-        <v>1.002042246366302</v>
+        <v>1.033670980068501</v>
       </c>
       <c r="L21">
-        <v>0.9887260050149396</v>
+        <v>1.019775353598194</v>
       </c>
       <c r="M21">
-        <v>0.9151761689854708</v>
+        <v>1.030661198907772</v>
       </c>
       <c r="N21">
-        <v>0.9934658350706473</v>
+        <v>1.028972836061354</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9546624091538261</v>
+        <v>0.9926537523066663</v>
       </c>
       <c r="D22">
-        <v>0.9819068320178941</v>
+        <v>1.014853755799304</v>
       </c>
       <c r="E22">
-        <v>0.968148050837396</v>
+        <v>1.000526986996516</v>
       </c>
       <c r="F22">
-        <v>0.8839873143684029</v>
+        <v>1.011029003442714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022214835893388</v>
+        <v>1.044463780402799</v>
       </c>
       <c r="J22">
-        <v>0.987530049019559</v>
+        <v>1.023719800442768</v>
       </c>
       <c r="K22">
-        <v>0.9978454458166595</v>
+        <v>1.030136590287226</v>
       </c>
       <c r="L22">
-        <v>0.984378057302436</v>
+        <v>1.016088011395461</v>
       </c>
       <c r="M22">
-        <v>0.902269808882356</v>
+        <v>1.026385094741014</v>
       </c>
       <c r="N22">
-        <v>0.9889324549604467</v>
+        <v>1.025173599981699</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9579589247090837</v>
+        <v>0.9954672017667459</v>
       </c>
       <c r="D23">
-        <v>0.9845286202340486</v>
+        <v>1.017086566708618</v>
       </c>
       <c r="E23">
-        <v>0.9708596893566812</v>
+        <v>1.002850888701436</v>
       </c>
       <c r="F23">
-        <v>0.8915246590828791</v>
+        <v>1.013666465823929</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02378299602612</v>
+        <v>1.045691485645854</v>
       </c>
       <c r="J23">
-        <v>0.9899530751670216</v>
+        <v>1.025743387998671</v>
       </c>
       <c r="K23">
-        <v>1.000092845279317</v>
+        <v>1.032021813667753</v>
       </c>
       <c r="L23">
-        <v>0.9867046098187622</v>
+        <v>1.018054572248868</v>
       </c>
       <c r="M23">
-        <v>0.9092298814556506</v>
+        <v>1.028665306234043</v>
       </c>
       <c r="N23">
-        <v>0.9913589220829635</v>
+        <v>1.027200061264041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9703206219157875</v>
+        <v>1.006182390869299</v>
       </c>
       <c r="D24">
-        <v>0.9943457988257033</v>
+        <v>1.02560374318665</v>
       </c>
       <c r="E24">
-        <v>0.9810467726432369</v>
+        <v>1.01171888425235</v>
       </c>
       <c r="F24">
-        <v>0.9186338722696342</v>
+        <v>1.023733315715453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029556097388266</v>
+        <v>1.050345516196248</v>
       </c>
       <c r="J24">
-        <v>0.9990110436439393</v>
+        <v>1.033444514322232</v>
       </c>
       <c r="K24">
-        <v>1.008472941524055</v>
+        <v>1.039195668023165</v>
       </c>
       <c r="L24">
-        <v>0.9954151093637227</v>
+        <v>1.025543281800696</v>
       </c>
       <c r="M24">
-        <v>0.934258267935446</v>
+        <v>1.037356083918148</v>
       </c>
       <c r="N24">
-        <v>1.000429753914082</v>
+        <v>1.034912124070313</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9836068550256547</v>
+        <v>1.017947651503461</v>
       </c>
       <c r="D25">
-        <v>1.004878441977458</v>
+        <v>1.03497836808429</v>
       </c>
       <c r="E25">
-        <v>0.9920295666424227</v>
+        <v>1.021486758305824</v>
       </c>
       <c r="F25">
-        <v>0.9461169978837632</v>
+        <v>1.034827427545135</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035585385463526</v>
+        <v>1.05540903726417</v>
       </c>
       <c r="J25">
-        <v>1.008698794974823</v>
+        <v>1.041885742639074</v>
       </c>
       <c r="K25">
-        <v>1.017401495533352</v>
+        <v>1.047056914725906</v>
       </c>
       <c r="L25">
-        <v>1.004752886400095</v>
+        <v>1.033760431616136</v>
       </c>
       <c r="M25">
-        <v>0.9596136384961069</v>
+        <v>1.046908121607326</v>
       </c>
       <c r="N25">
-        <v>1.010131262963056</v>
+        <v>1.043365339899586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026860145300737</v>
+        <v>1.055348271424477</v>
       </c>
       <c r="D2">
-        <v>1.042094275666428</v>
+        <v>1.059223765969924</v>
       </c>
       <c r="E2">
-        <v>1.028907130943661</v>
+        <v>1.05172781776135</v>
       </c>
       <c r="F2">
-        <v>1.043260805598913</v>
+        <v>1.068201921739796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05920541534054</v>
+        <v>1.050872577125768</v>
       </c>
       <c r="J2">
-        <v>1.048266115992737</v>
+        <v>1.060355602432158</v>
       </c>
       <c r="K2">
-        <v>1.052996739898883</v>
+        <v>1.061953854772176</v>
       </c>
       <c r="L2">
-        <v>1.039977913782797</v>
+        <v>1.054478516877626</v>
       </c>
       <c r="M2">
-        <v>1.054148635879424</v>
+        <v>1.070907736768231</v>
       </c>
       <c r="N2">
-        <v>1.04975477411525</v>
+        <v>1.0618614290121</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033087254575557</v>
+        <v>1.056593545473205</v>
       </c>
       <c r="D3">
-        <v>1.047072779253125</v>
+        <v>1.060232641963411</v>
       </c>
       <c r="E3">
-        <v>1.034102228732972</v>
+        <v>1.052803067570205</v>
       </c>
       <c r="F3">
-        <v>1.049168715105365</v>
+        <v>1.069443555495317</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061834189702591</v>
+        <v>1.051312973854122</v>
       </c>
       <c r="J3">
-        <v>1.052714840181577</v>
+        <v>1.061251089807425</v>
       </c>
       <c r="K3">
-        <v>1.05713680182977</v>
+        <v>1.062776425360184</v>
       </c>
       <c r="L3">
-        <v>1.044316594818307</v>
+        <v>1.055365795996082</v>
       </c>
       <c r="M3">
-        <v>1.059208873667367</v>
+        <v>1.071964245104395</v>
       </c>
       <c r="N3">
-        <v>1.054209816002715</v>
+        <v>1.062758188082153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037012214988465</v>
+        <v>1.057398757179376</v>
       </c>
       <c r="D4">
-        <v>1.050213330587826</v>
+        <v>1.060884916209817</v>
       </c>
       <c r="E4">
-        <v>1.037381112056981</v>
+        <v>1.053498457051168</v>
       </c>
       <c r="F4">
-        <v>1.052899278383713</v>
+        <v>1.070246899659429</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063479828694761</v>
+        <v>1.051596339751782</v>
       </c>
       <c r="J4">
-        <v>1.055514297834683</v>
+        <v>1.0618294440183</v>
       </c>
       <c r="K4">
-        <v>1.059741265296511</v>
+        <v>1.063307536670919</v>
       </c>
       <c r="L4">
-        <v>1.047048379481034</v>
+        <v>1.055938960743286</v>
       </c>
       <c r="M4">
-        <v>1.062398575205223</v>
+        <v>1.07264723478061</v>
       </c>
       <c r="N4">
-        <v>1.05701324920679</v>
+        <v>1.063337363622346</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038638449458201</v>
+        <v>1.057737135940284</v>
       </c>
       <c r="D5">
-        <v>1.051515113178211</v>
+        <v>1.061159005556815</v>
       </c>
       <c r="E5">
-        <v>1.038740648473934</v>
+        <v>1.05379071217558</v>
       </c>
       <c r="F5">
-        <v>1.054446544009552</v>
+        <v>1.070584609505153</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064158917020314</v>
+        <v>1.051715084673273</v>
       </c>
       <c r="J5">
-        <v>1.056673055635851</v>
+        <v>1.062072325900816</v>
       </c>
       <c r="K5">
-        <v>1.060819117545776</v>
+        <v>1.063530542856669</v>
       </c>
       <c r="L5">
-        <v>1.048179495698077</v>
+        <v>1.056179690023958</v>
       </c>
       <c r="M5">
-        <v>1.063720167683528</v>
+        <v>1.072934211881747</v>
       </c>
       <c r="N5">
-        <v>1.058173652576947</v>
+        <v>1.063580590424994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038910137260895</v>
+        <v>1.05779394354847</v>
       </c>
       <c r="D6">
-        <v>1.051732626877991</v>
+        <v>1.061205018977306</v>
       </c>
       <c r="E6">
-        <v>1.038967836745495</v>
+        <v>1.053839778068329</v>
       </c>
       <c r="F6">
-        <v>1.054705129991537</v>
+        <v>1.070641311595459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064272206240797</v>
+        <v>1.051735000090412</v>
       </c>
       <c r="J6">
-        <v>1.056866575524777</v>
+        <v>1.062113091746206</v>
       </c>
       <c r="K6">
-        <v>1.060999114044121</v>
+        <v>1.063567970612191</v>
       </c>
       <c r="L6">
-        <v>1.048368420795609</v>
+        <v>1.056220096138067</v>
       </c>
       <c r="M6">
-        <v>1.063940958698253</v>
+        <v>1.072982387755889</v>
       </c>
       <c r="N6">
-        <v>1.058367447286312</v>
+        <v>1.06362141416256</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03703403691183</v>
+        <v>1.057403279129119</v>
       </c>
       <c r="D7">
-        <v>1.050230796692691</v>
+        <v>1.060888579101159</v>
       </c>
       <c r="E7">
-        <v>1.037399351402789</v>
+        <v>1.05350236251661</v>
       </c>
       <c r="F7">
-        <v>1.052920034485628</v>
+        <v>1.070251412215286</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063488952105079</v>
+        <v>1.051597927927394</v>
       </c>
       <c r="J7">
-        <v>1.055529851426689</v>
+        <v>1.061832690430366</v>
       </c>
       <c r="K7">
-        <v>1.059755733699683</v>
+        <v>1.063310517561297</v>
       </c>
       <c r="L7">
-        <v>1.047063560596886</v>
+        <v>1.055942178278183</v>
       </c>
       <c r="M7">
-        <v>1.062416309308892</v>
+        <v>1.072651069976615</v>
       </c>
       <c r="N7">
-        <v>1.057028824886681</v>
+        <v>1.063340614644689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028986974715097</v>
+        <v>1.055769236030632</v>
       </c>
       <c r="D8">
-        <v>1.043794063697044</v>
+        <v>1.059564832260393</v>
       </c>
       <c r="E8">
-        <v>1.030680516144514</v>
+        <v>1.052091280928493</v>
       </c>
       <c r="F8">
-        <v>1.04527714939184</v>
+        <v>1.068621554680072</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060105603844522</v>
+        <v>1.051021743202127</v>
       </c>
       <c r="J8">
-        <v>1.049786485159965</v>
+        <v>1.060658462509244</v>
       </c>
       <c r="K8">
-        <v>1.054411776515696</v>
+        <v>1.062232084754769</v>
       </c>
       <c r="L8">
-        <v>1.041460338468012</v>
+        <v>1.054778577640096</v>
       </c>
       <c r="M8">
-        <v>1.05587684640701</v>
+        <v>1.071264922756942</v>
       </c>
       <c r="N8">
-        <v>1.051277302381084</v>
+        <v>1.062164719185233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013950164640905</v>
+        <v>1.052885401255118</v>
       </c>
       <c r="D9">
-        <v>1.031790618719177</v>
+        <v>1.057228045462635</v>
       </c>
       <c r="E9">
-        <v>1.018164360182017</v>
+        <v>1.04960187025677</v>
       </c>
       <c r="F9">
-        <v>1.031053116155608</v>
+        <v>1.065748860385298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053694719174712</v>
+        <v>1.049994131317537</v>
       </c>
       <c r="J9">
-        <v>1.03901974465234</v>
+        <v>1.058580926124339</v>
       </c>
       <c r="K9">
-        <v>1.044388143808473</v>
+        <v>1.060322894892113</v>
       </c>
       <c r="L9">
-        <v>1.030969450629398</v>
+        <v>1.052720706197654</v>
       </c>
       <c r="M9">
-        <v>1.043661696688885</v>
+        <v>1.068817352674201</v>
       </c>
       <c r="N9">
-        <v>1.040495271866977</v>
+        <v>1.060084232460365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003261405028071</v>
+        <v>1.050959683455156</v>
       </c>
       <c r="D10">
-        <v>1.023279897011438</v>
+        <v>1.055667278729996</v>
       </c>
       <c r="E10">
-        <v>1.009298760470196</v>
+        <v>1.047940198580463</v>
       </c>
       <c r="F10">
-        <v>1.020985604340685</v>
+        <v>1.063833139315457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049080467915185</v>
+        <v>1.04930072226064</v>
       </c>
       <c r="J10">
-        <v>1.031346219856618</v>
+        <v>1.057190143455184</v>
       </c>
       <c r="K10">
-        <v>1.037241173438717</v>
+        <v>1.059044049385306</v>
       </c>
       <c r="L10">
-        <v>1.023502128349802</v>
+        <v>1.051343671735485</v>
       </c>
       <c r="M10">
-        <v>1.034986020208682</v>
+        <v>1.06718215448069</v>
       </c>
       <c r="N10">
-        <v>1.03281084978588</v>
+        <v>1.058691474720295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9984531600497529</v>
+        <v>1.050125037052861</v>
       </c>
       <c r="D11">
-        <v>1.019457915024388</v>
+        <v>1.054990736249084</v>
       </c>
       <c r="E11">
-        <v>1.005319361028799</v>
+        <v>1.047220161130898</v>
       </c>
       <c r="F11">
-        <v>1.016468253063923</v>
+        <v>1.063003439549209</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046991996914935</v>
+        <v>1.048998476957947</v>
       </c>
       <c r="J11">
-        <v>1.027890431258748</v>
+        <v>1.056586527617759</v>
       </c>
       <c r="K11">
-        <v>1.034021981604998</v>
+        <v>1.058488836825876</v>
       </c>
       <c r="L11">
-        <v>1.020141654395309</v>
+        <v>1.050746162055077</v>
       </c>
       <c r="M11">
-        <v>1.03108614418367</v>
+        <v>1.06647324120019</v>
       </c>
       <c r="N11">
-        <v>1.029350153571815</v>
+        <v>1.058087001679144</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9966379874112609</v>
+        <v>1.049814888845443</v>
       </c>
       <c r="D12">
-        <v>1.018016167418949</v>
+        <v>1.054739327943552</v>
       </c>
       <c r="E12">
-        <v>1.003818515437719</v>
+        <v>1.04695262634189</v>
       </c>
       <c r="F12">
-        <v>1.014764717983192</v>
+        <v>1.062695222311306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046201723470751</v>
+        <v>1.048885908591031</v>
       </c>
       <c r="J12">
-        <v>1.026585318356922</v>
+        <v>1.056362105509532</v>
       </c>
       <c r="K12">
-        <v>1.032806158533334</v>
+        <v>1.058282384152149</v>
       </c>
       <c r="L12">
-        <v>1.018872922555913</v>
+        <v>1.050524031189897</v>
       </c>
       <c r="M12">
-        <v>1.029614412602102</v>
+        <v>1.066209787291506</v>
       </c>
       <c r="N12">
-        <v>1.02804318725997</v>
+        <v>1.057862260865782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9970287052864785</v>
+        <v>1.049881422327834</v>
       </c>
       <c r="D13">
-        <v>1.018326453469348</v>
+        <v>1.054793260903959</v>
       </c>
       <c r="E13">
-        <v>1.004141507612921</v>
+        <v>1.047010017156609</v>
       </c>
       <c r="F13">
-        <v>1.015131321735887</v>
+        <v>1.062761337348381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046371912969491</v>
+        <v>1.04891006853044</v>
       </c>
       <c r="J13">
-        <v>1.026866266974366</v>
+        <v>1.056410254458265</v>
       </c>
       <c r="K13">
-        <v>1.033067888496917</v>
+        <v>1.058326679030933</v>
       </c>
       <c r="L13">
-        <v>1.019146021866747</v>
+        <v>1.050571687609561</v>
       </c>
       <c r="M13">
-        <v>1.029931179227956</v>
+        <v>1.066266305060507</v>
       </c>
       <c r="N13">
-        <v>1.028324534856677</v>
+        <v>1.057910478191545</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.998303725697798</v>
+        <v>1.050099402642282</v>
       </c>
       <c r="D14">
-        <v>1.019339199904001</v>
+        <v>1.054969957022521</v>
       </c>
       <c r="E14">
-        <v>1.005195774007031</v>
+        <v>1.047198048283821</v>
       </c>
       <c r="F14">
-        <v>1.016327971687633</v>
+        <v>1.062977962840216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046926974639026</v>
+        <v>1.048989178169761</v>
       </c>
       <c r="J14">
-        <v>1.027782997506782</v>
+        <v>1.05656798116075</v>
       </c>
       <c r="K14">
-        <v>1.033921899155054</v>
+        <v>1.058471775924286</v>
       </c>
       <c r="L14">
-        <v>1.020037207541783</v>
+        <v>1.050727804519957</v>
       </c>
       <c r="M14">
-        <v>1.030964972500157</v>
+        <v>1.066451466724158</v>
       </c>
       <c r="N14">
-        <v>1.0292425672516</v>
+        <v>1.058068428884039</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9990853737730486</v>
+        <v>1.050233691055616</v>
       </c>
       <c r="D15">
-        <v>1.019960209970529</v>
+        <v>1.05507881065325</v>
       </c>
       <c r="E15">
-        <v>1.005842280947287</v>
+        <v>1.047313889688691</v>
       </c>
       <c r="F15">
-        <v>1.017061817935929</v>
+        <v>1.063111428923022</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047267012641788</v>
+        <v>1.049037880303471</v>
       </c>
       <c r="J15">
-        <v>1.028344932297496</v>
+        <v>1.056665133585325</v>
       </c>
       <c r="K15">
-        <v>1.034445380319522</v>
+        <v>1.058561145429181</v>
       </c>
       <c r="L15">
-        <v>1.020583535033146</v>
+        <v>1.050823968169685</v>
       </c>
       <c r="M15">
-        <v>1.031598808481026</v>
+        <v>1.066565533376527</v>
       </c>
       <c r="N15">
-        <v>1.029805300054171</v>
+        <v>1.058165719276202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00357654347314</v>
+        <v>1.051015059079194</v>
       </c>
       <c r="D16">
-        <v>1.023530539335332</v>
+        <v>1.055712163273342</v>
       </c>
       <c r="E16">
-        <v>1.00955976583103</v>
+        <v>1.047987973887013</v>
       </c>
       <c r="F16">
-        <v>1.021281922947406</v>
+        <v>1.063888199729519</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049217089514436</v>
+        <v>1.049320739147884</v>
       </c>
       <c r="J16">
-        <v>1.031572641803652</v>
+        <v>1.057230173803924</v>
       </c>
       <c r="K16">
-        <v>1.037452083940316</v>
+        <v>1.059080865993839</v>
       </c>
       <c r="L16">
-        <v>1.023722357483132</v>
+        <v>1.051383300076452</v>
       </c>
       <c r="M16">
-        <v>1.035241689296626</v>
+        <v>1.067229184353133</v>
       </c>
       <c r="N16">
-        <v>1.033037593278049</v>
+        <v>1.058731561916722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006344116794102</v>
+        <v>1.051504974513583</v>
       </c>
       <c r="D17">
-        <v>1.025732450769557</v>
+        <v>1.056109254340857</v>
       </c>
       <c r="E17">
-        <v>1.011852937279011</v>
+        <v>1.048410667547244</v>
       </c>
       <c r="F17">
-        <v>1.023885524419049</v>
+        <v>1.064375397413792</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050415472483577</v>
+        <v>1.04949763407254</v>
       </c>
       <c r="J17">
-        <v>1.033560664175563</v>
+        <v>1.057584232753717</v>
       </c>
       <c r="K17">
-        <v>1.039303854325675</v>
+        <v>1.059406479564711</v>
       </c>
       <c r="L17">
-        <v>1.025656285028355</v>
+        <v>1.051733819441685</v>
       </c>
       <c r="M17">
-        <v>1.037487325738772</v>
+        <v>1.067645242623809</v>
       </c>
       <c r="N17">
-        <v>1.035028438869758</v>
+        <v>1.059086123670835</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007941189834201</v>
+        <v>1.05179065715108</v>
       </c>
       <c r="D18">
-        <v>1.027003703076298</v>
+        <v>1.056340801498521</v>
       </c>
       <c r="E18">
-        <v>1.01317706244009</v>
+        <v>1.04865716733666</v>
       </c>
       <c r="F18">
-        <v>1.025389045515266</v>
+        <v>1.064659554411514</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051105807661138</v>
+        <v>1.049600621529895</v>
       </c>
       <c r="J18">
-        <v>1.03470750946929</v>
+        <v>1.057790614642505</v>
       </c>
       <c r="K18">
-        <v>1.040372046988538</v>
+        <v>1.059596263335551</v>
       </c>
       <c r="L18">
-        <v>1.026772154069323</v>
+        <v>1.051938151512132</v>
       </c>
       <c r="M18">
-        <v>1.03878346386211</v>
+        <v>1.067887839405164</v>
       </c>
       <c r="N18">
-        <v>1.036176912815346</v>
+        <v>1.059292798645577</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008482893537234</v>
+        <v>1.051888054635397</v>
       </c>
       <c r="D19">
-        <v>1.027434992086984</v>
+        <v>1.056419741396784</v>
       </c>
       <c r="E19">
-        <v>1.013626320865754</v>
+        <v>1.048741208936827</v>
       </c>
       <c r="F19">
-        <v>1.025899196454014</v>
+        <v>1.064756441775641</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05133975172071</v>
+        <v>1.049635705004085</v>
       </c>
       <c r="J19">
-        <v>1.035096436636975</v>
+        <v>1.057860962754088</v>
       </c>
       <c r="K19">
-        <v>1.040734291552945</v>
+        <v>1.05966095082295</v>
       </c>
       <c r="L19">
-        <v>1.027150614855018</v>
+        <v>1.052007803188088</v>
       </c>
       <c r="M19">
-        <v>1.039223135686143</v>
+        <v>1.067970544640329</v>
       </c>
       <c r="N19">
-        <v>1.03656639230422</v>
+        <v>1.059363246659548</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006048976796568</v>
+        <v>1.051452419188869</v>
       </c>
       <c r="D20">
-        <v>1.025497570644963</v>
+        <v>1.056066657416142</v>
       </c>
       <c r="E20">
-        <v>1.011608303233058</v>
+        <v>1.048365321735318</v>
       </c>
       <c r="F20">
-        <v>1.023607758823893</v>
+        <v>1.064323127510193</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050287799633963</v>
+        <v>1.049478674828146</v>
       </c>
       <c r="J20">
-        <v>1.033348695605914</v>
+        <v>1.057546259530221</v>
       </c>
       <c r="K20">
-        <v>1.039106418602832</v>
+        <v>1.059371558922231</v>
       </c>
       <c r="L20">
-        <v>1.025450060217474</v>
+        <v>1.051696224454199</v>
       </c>
       <c r="M20">
-        <v>1.037247818824936</v>
+        <v>1.067600612109902</v>
       </c>
       <c r="N20">
-        <v>1.034816169280427</v>
+        <v>1.059048096521006</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9979290877222352</v>
+        <v>1.050035216306477</v>
       </c>
       <c r="D21">
-        <v>1.019041594398106</v>
+        <v>1.054917927481551</v>
       </c>
       <c r="E21">
-        <v>1.004885959725621</v>
+        <v>1.047142680052955</v>
       </c>
       <c r="F21">
-        <v>1.015976310273608</v>
+        <v>1.062914172877137</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046763931655256</v>
+        <v>1.04896589067268</v>
       </c>
       <c r="J21">
-        <v>1.027513648822563</v>
+        <v>1.056521540457511</v>
       </c>
       <c r="K21">
-        <v>1.033670980068501</v>
+        <v>1.058429054650706</v>
       </c>
       <c r="L21">
-        <v>1.019775353598194</v>
+        <v>1.050681837220304</v>
       </c>
       <c r="M21">
-        <v>1.030661198907772</v>
+        <v>1.066396944891849</v>
       </c>
       <c r="N21">
-        <v>1.028972836061354</v>
+        <v>1.058021922229674</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9926537523066663</v>
+        <v>1.049143449079649</v>
       </c>
       <c r="D22">
-        <v>1.014853755799304</v>
+        <v>1.054195036138423</v>
       </c>
       <c r="E22">
-        <v>1.000526986996516</v>
+        <v>1.046373487953305</v>
       </c>
       <c r="F22">
-        <v>1.011029003442714</v>
+        <v>1.062028133370018</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044463780402799</v>
+        <v>1.048641740740234</v>
       </c>
       <c r="J22">
-        <v>1.023719800442768</v>
+        <v>1.055876029393338</v>
       </c>
       <c r="K22">
-        <v>1.030136590287226</v>
+        <v>1.05783517931189</v>
       </c>
       <c r="L22">
-        <v>1.016088011395461</v>
+        <v>1.050042956171885</v>
       </c>
       <c r="M22">
-        <v>1.026385094741014</v>
+        <v>1.065639386863071</v>
       </c>
       <c r="N22">
-        <v>1.025173599981699</v>
+        <v>1.05737549446575</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9954672017667459</v>
+        <v>1.049616260754123</v>
       </c>
       <c r="D23">
-        <v>1.017086566708618</v>
+        <v>1.054578315815282</v>
       </c>
       <c r="E23">
-        <v>1.002850888701436</v>
+        <v>1.046781296440919</v>
       </c>
       <c r="F23">
-        <v>1.013666465823929</v>
+        <v>1.062497857081511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045691485645854</v>
+        <v>1.048813744339002</v>
       </c>
       <c r="J23">
-        <v>1.025743387998671</v>
+        <v>1.056218344339964</v>
       </c>
       <c r="K23">
-        <v>1.032021813667753</v>
+        <v>1.058150126404571</v>
       </c>
       <c r="L23">
-        <v>1.018054572248868</v>
+        <v>1.050381743673751</v>
       </c>
       <c r="M23">
-        <v>1.028665306234043</v>
+        <v>1.066041056025948</v>
       </c>
       <c r="N23">
-        <v>1.027200061264041</v>
+        <v>1.057718295538864</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006182390869299</v>
+        <v>1.051476166914931</v>
       </c>
       <c r="D24">
-        <v>1.02560374318665</v>
+        <v>1.056085905347131</v>
       </c>
       <c r="E24">
-        <v>1.01171888425235</v>
+        <v>1.048385811711174</v>
       </c>
       <c r="F24">
-        <v>1.023733315715453</v>
+        <v>1.064346746082731</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050345516196248</v>
+        <v>1.049487242288937</v>
       </c>
       <c r="J24">
-        <v>1.033444514322232</v>
+        <v>1.05756341841157</v>
       </c>
       <c r="K24">
-        <v>1.039195668023165</v>
+        <v>1.059387338493434</v>
       </c>
       <c r="L24">
-        <v>1.025543281800696</v>
+        <v>1.051713212381379</v>
       </c>
       <c r="M24">
-        <v>1.037356083918148</v>
+        <v>1.067620778974378</v>
       </c>
       <c r="N24">
-        <v>1.034912124070313</v>
+        <v>1.059065279769934</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017947651503461</v>
+        <v>1.053631486032742</v>
       </c>
       <c r="D25">
-        <v>1.03497836808429</v>
+        <v>1.057832666112645</v>
       </c>
       <c r="E25">
-        <v>1.021486758305824</v>
+        <v>1.050245798268588</v>
       </c>
       <c r="F25">
-        <v>1.034827427545135</v>
+        <v>1.066491614960955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05540903726417</v>
+        <v>1.050261257915347</v>
       </c>
       <c r="J25">
-        <v>1.041885742639074</v>
+        <v>1.059119025736851</v>
       </c>
       <c r="K25">
-        <v>1.047056914725906</v>
+        <v>1.060817525656903</v>
       </c>
       <c r="L25">
-        <v>1.033760431616136</v>
+        <v>1.05325360999982</v>
       </c>
       <c r="M25">
-        <v>1.046908121607326</v>
+        <v>1.069450713458159</v>
       </c>
       <c r="N25">
-        <v>1.043365339899586</v>
+        <v>1.060623096236047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055348271424477</v>
+        <v>1.026860145300739</v>
       </c>
       <c r="D2">
-        <v>1.059223765969924</v>
+        <v>1.04209427566643</v>
       </c>
       <c r="E2">
-        <v>1.05172781776135</v>
+        <v>1.028907130943663</v>
       </c>
       <c r="F2">
-        <v>1.068201921739796</v>
+        <v>1.043260805598914</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050872577125768</v>
+        <v>1.059205415340542</v>
       </c>
       <c r="J2">
-        <v>1.060355602432158</v>
+        <v>1.048266115992738</v>
       </c>
       <c r="K2">
-        <v>1.061953854772176</v>
+        <v>1.052996739898885</v>
       </c>
       <c r="L2">
-        <v>1.054478516877626</v>
+        <v>1.039977913782799</v>
       </c>
       <c r="M2">
-        <v>1.070907736768231</v>
+        <v>1.054148635879425</v>
       </c>
       <c r="N2">
-        <v>1.0618614290121</v>
+        <v>1.049754774115252</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056593545473205</v>
+        <v>1.033087254575557</v>
       </c>
       <c r="D3">
-        <v>1.060232641963411</v>
+        <v>1.047072779253125</v>
       </c>
       <c r="E3">
-        <v>1.052803067570205</v>
+        <v>1.034102228732972</v>
       </c>
       <c r="F3">
-        <v>1.069443555495317</v>
+        <v>1.049168715105366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051312973854122</v>
+        <v>1.061834189702591</v>
       </c>
       <c r="J3">
-        <v>1.061251089807425</v>
+        <v>1.052714840181578</v>
       </c>
       <c r="K3">
-        <v>1.062776425360184</v>
+        <v>1.057136801829771</v>
       </c>
       <c r="L3">
-        <v>1.055365795996082</v>
+        <v>1.044316594818307</v>
       </c>
       <c r="M3">
-        <v>1.071964245104395</v>
+        <v>1.059208873667367</v>
       </c>
       <c r="N3">
-        <v>1.062758188082153</v>
+        <v>1.054209816002715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057398757179376</v>
+        <v>1.037012214988465</v>
       </c>
       <c r="D4">
-        <v>1.060884916209817</v>
+        <v>1.050213330587826</v>
       </c>
       <c r="E4">
-        <v>1.053498457051168</v>
+        <v>1.037381112056981</v>
       </c>
       <c r="F4">
-        <v>1.070246899659429</v>
+        <v>1.052899278383713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051596339751782</v>
+        <v>1.063479828694761</v>
       </c>
       <c r="J4">
-        <v>1.0618294440183</v>
+        <v>1.055514297834683</v>
       </c>
       <c r="K4">
-        <v>1.063307536670919</v>
+        <v>1.059741265296511</v>
       </c>
       <c r="L4">
-        <v>1.055938960743286</v>
+        <v>1.047048379481034</v>
       </c>
       <c r="M4">
-        <v>1.07264723478061</v>
+        <v>1.062398575205223</v>
       </c>
       <c r="N4">
-        <v>1.063337363622346</v>
+        <v>1.057013249206791</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057737135940284</v>
+        <v>1.0386384494582</v>
       </c>
       <c r="D5">
-        <v>1.061159005556815</v>
+        <v>1.051515113178211</v>
       </c>
       <c r="E5">
-        <v>1.05379071217558</v>
+        <v>1.038740648473933</v>
       </c>
       <c r="F5">
-        <v>1.070584609505153</v>
+        <v>1.054446544009553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051715084673273</v>
+        <v>1.064158917020314</v>
       </c>
       <c r="J5">
-        <v>1.062072325900816</v>
+        <v>1.05667305563585</v>
       </c>
       <c r="K5">
-        <v>1.063530542856669</v>
+        <v>1.060819117545776</v>
       </c>
       <c r="L5">
-        <v>1.056179690023958</v>
+        <v>1.048179495698076</v>
       </c>
       <c r="M5">
-        <v>1.072934211881747</v>
+        <v>1.063720167683528</v>
       </c>
       <c r="N5">
-        <v>1.063580590424994</v>
+        <v>1.058173652576947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05779394354847</v>
+        <v>1.038910137260896</v>
       </c>
       <c r="D6">
-        <v>1.061205018977306</v>
+        <v>1.051732626877991</v>
       </c>
       <c r="E6">
-        <v>1.053839778068329</v>
+        <v>1.038967836745495</v>
       </c>
       <c r="F6">
-        <v>1.070641311595459</v>
+        <v>1.054705129991537</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051735000090412</v>
+        <v>1.064272206240798</v>
       </c>
       <c r="J6">
-        <v>1.062113091746206</v>
+        <v>1.056866575524777</v>
       </c>
       <c r="K6">
-        <v>1.063567970612191</v>
+        <v>1.060999114044121</v>
       </c>
       <c r="L6">
-        <v>1.056220096138067</v>
+        <v>1.048368420795608</v>
       </c>
       <c r="M6">
-        <v>1.072982387755889</v>
+        <v>1.063940958698253</v>
       </c>
       <c r="N6">
-        <v>1.06362141416256</v>
+        <v>1.058367447286312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057403279129119</v>
+        <v>1.03703403691183</v>
       </c>
       <c r="D7">
-        <v>1.060888579101159</v>
+        <v>1.050230796692691</v>
       </c>
       <c r="E7">
-        <v>1.05350236251661</v>
+        <v>1.037399351402789</v>
       </c>
       <c r="F7">
-        <v>1.070251412215286</v>
+        <v>1.052920034485628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051597927927394</v>
+        <v>1.063488952105078</v>
       </c>
       <c r="J7">
-        <v>1.061832690430366</v>
+        <v>1.055529851426689</v>
       </c>
       <c r="K7">
-        <v>1.063310517561297</v>
+        <v>1.059755733699683</v>
       </c>
       <c r="L7">
-        <v>1.055942178278183</v>
+        <v>1.047063560596886</v>
       </c>
       <c r="M7">
-        <v>1.072651069976615</v>
+        <v>1.062416309308892</v>
       </c>
       <c r="N7">
-        <v>1.063340614644689</v>
+        <v>1.057028824886681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055769236030632</v>
+        <v>1.028986974715096</v>
       </c>
       <c r="D8">
-        <v>1.059564832260393</v>
+        <v>1.043794063697042</v>
       </c>
       <c r="E8">
-        <v>1.052091280928493</v>
+        <v>1.030680516144514</v>
       </c>
       <c r="F8">
-        <v>1.068621554680072</v>
+        <v>1.045277149391838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051021743202127</v>
+        <v>1.060105603844521</v>
       </c>
       <c r="J8">
-        <v>1.060658462509244</v>
+        <v>1.049786485159964</v>
       </c>
       <c r="K8">
-        <v>1.062232084754769</v>
+        <v>1.054411776515695</v>
       </c>
       <c r="L8">
-        <v>1.054778577640096</v>
+        <v>1.041460338468011</v>
       </c>
       <c r="M8">
-        <v>1.071264922756942</v>
+        <v>1.055876846407009</v>
       </c>
       <c r="N8">
-        <v>1.062164719185233</v>
+        <v>1.051277302381084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052885401255118</v>
+        <v>1.013950164640906</v>
       </c>
       <c r="D9">
-        <v>1.057228045462635</v>
+        <v>1.031790618719179</v>
       </c>
       <c r="E9">
-        <v>1.04960187025677</v>
+        <v>1.018164360182018</v>
       </c>
       <c r="F9">
-        <v>1.065748860385298</v>
+        <v>1.03105311615561</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049994131317537</v>
+        <v>1.053694719174713</v>
       </c>
       <c r="J9">
-        <v>1.058580926124339</v>
+        <v>1.039019744652341</v>
       </c>
       <c r="K9">
-        <v>1.060322894892113</v>
+        <v>1.044388143808474</v>
       </c>
       <c r="L9">
-        <v>1.052720706197654</v>
+        <v>1.0309694506294</v>
       </c>
       <c r="M9">
-        <v>1.068817352674201</v>
+        <v>1.043661696688886</v>
       </c>
       <c r="N9">
-        <v>1.060084232460365</v>
+        <v>1.040495271866978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050959683455156</v>
+        <v>1.003261405028073</v>
       </c>
       <c r="D10">
-        <v>1.055667278729996</v>
+        <v>1.023279897011441</v>
       </c>
       <c r="E10">
-        <v>1.047940198580463</v>
+        <v>1.009298760470198</v>
       </c>
       <c r="F10">
-        <v>1.063833139315457</v>
+        <v>1.020985604340687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04930072226064</v>
+        <v>1.049080467915187</v>
       </c>
       <c r="J10">
-        <v>1.057190143455184</v>
+        <v>1.031346219856621</v>
       </c>
       <c r="K10">
-        <v>1.059044049385306</v>
+        <v>1.037241173438719</v>
       </c>
       <c r="L10">
-        <v>1.051343671735485</v>
+        <v>1.023502128349804</v>
       </c>
       <c r="M10">
-        <v>1.06718215448069</v>
+        <v>1.034986020208684</v>
       </c>
       <c r="N10">
-        <v>1.058691474720295</v>
+        <v>1.032810849785882</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050125037052861</v>
+        <v>0.9984531600497507</v>
       </c>
       <c r="D11">
-        <v>1.054990736249084</v>
+        <v>1.019457915024385</v>
       </c>
       <c r="E11">
-        <v>1.047220161130898</v>
+        <v>1.005319361028796</v>
       </c>
       <c r="F11">
-        <v>1.063003439549209</v>
+        <v>1.016468253063921</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048998476957947</v>
+        <v>1.046991996914933</v>
       </c>
       <c r="J11">
-        <v>1.056586527617759</v>
+        <v>1.027890431258746</v>
       </c>
       <c r="K11">
-        <v>1.058488836825876</v>
+        <v>1.034021981604996</v>
       </c>
       <c r="L11">
-        <v>1.050746162055077</v>
+        <v>1.020141654395306</v>
       </c>
       <c r="M11">
-        <v>1.06647324120019</v>
+        <v>1.031086144183668</v>
       </c>
       <c r="N11">
-        <v>1.058087001679144</v>
+        <v>1.029350153571813</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049814888845443</v>
+        <v>0.9966379874112598</v>
       </c>
       <c r="D12">
-        <v>1.054739327943552</v>
+        <v>1.018016167418948</v>
       </c>
       <c r="E12">
-        <v>1.04695262634189</v>
+        <v>1.003818515437718</v>
       </c>
       <c r="F12">
-        <v>1.062695222311306</v>
+        <v>1.014764717983191</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048885908591031</v>
+        <v>1.04620172347075</v>
       </c>
       <c r="J12">
-        <v>1.056362105509532</v>
+        <v>1.026585318356921</v>
       </c>
       <c r="K12">
-        <v>1.058282384152149</v>
+        <v>1.032806158533333</v>
       </c>
       <c r="L12">
-        <v>1.050524031189897</v>
+        <v>1.018872922555912</v>
       </c>
       <c r="M12">
-        <v>1.066209787291506</v>
+        <v>1.029614412602101</v>
       </c>
       <c r="N12">
-        <v>1.057862260865782</v>
+        <v>1.028043187259969</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049881422327834</v>
+        <v>0.9970287052864805</v>
       </c>
       <c r="D13">
-        <v>1.054793260903959</v>
+        <v>1.01832645346935</v>
       </c>
       <c r="E13">
-        <v>1.047010017156609</v>
+        <v>1.004141507612922</v>
       </c>
       <c r="F13">
-        <v>1.062761337348381</v>
+        <v>1.015131321735889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04891006853044</v>
+        <v>1.046371912969492</v>
       </c>
       <c r="J13">
-        <v>1.056410254458265</v>
+        <v>1.026866266974368</v>
       </c>
       <c r="K13">
-        <v>1.058326679030933</v>
+        <v>1.03306788849692</v>
       </c>
       <c r="L13">
-        <v>1.050571687609561</v>
+        <v>1.019146021866748</v>
       </c>
       <c r="M13">
-        <v>1.066266305060507</v>
+        <v>1.029931179227957</v>
       </c>
       <c r="N13">
-        <v>1.057910478191545</v>
+        <v>1.028324534856679</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050099402642282</v>
+        <v>0.9983037256977977</v>
       </c>
       <c r="D14">
-        <v>1.054969957022521</v>
+        <v>1.019339199904001</v>
       </c>
       <c r="E14">
-        <v>1.047198048283821</v>
+        <v>1.005195774007031</v>
       </c>
       <c r="F14">
-        <v>1.062977962840216</v>
+        <v>1.016327971687633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048989178169761</v>
+        <v>1.046926974639026</v>
       </c>
       <c r="J14">
-        <v>1.05656798116075</v>
+        <v>1.027782997506782</v>
       </c>
       <c r="K14">
-        <v>1.058471775924286</v>
+        <v>1.033921899155054</v>
       </c>
       <c r="L14">
-        <v>1.050727804519957</v>
+        <v>1.020037207541782</v>
       </c>
       <c r="M14">
-        <v>1.066451466724158</v>
+        <v>1.030964972500157</v>
       </c>
       <c r="N14">
-        <v>1.058068428884039</v>
+        <v>1.029242567251599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050233691055616</v>
+        <v>0.9990853737730486</v>
       </c>
       <c r="D15">
-        <v>1.05507881065325</v>
+        <v>1.019960209970529</v>
       </c>
       <c r="E15">
-        <v>1.047313889688691</v>
+        <v>1.005842280947287</v>
       </c>
       <c r="F15">
-        <v>1.063111428923022</v>
+        <v>1.017061817935928</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049037880303471</v>
+        <v>1.047267012641788</v>
       </c>
       <c r="J15">
-        <v>1.056665133585325</v>
+        <v>1.028344932297496</v>
       </c>
       <c r="K15">
-        <v>1.058561145429181</v>
+        <v>1.034445380319523</v>
       </c>
       <c r="L15">
-        <v>1.050823968169685</v>
+        <v>1.020583535033146</v>
       </c>
       <c r="M15">
-        <v>1.066565533376527</v>
+        <v>1.031598808481026</v>
       </c>
       <c r="N15">
-        <v>1.058165719276202</v>
+        <v>1.029805300054171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051015059079194</v>
+        <v>1.003576543473141</v>
       </c>
       <c r="D16">
-        <v>1.055712163273342</v>
+        <v>1.023530539335333</v>
       </c>
       <c r="E16">
-        <v>1.047987973887013</v>
+        <v>1.00955976583103</v>
       </c>
       <c r="F16">
-        <v>1.063888199729519</v>
+        <v>1.021281922947407</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049320739147884</v>
+        <v>1.049217089514436</v>
       </c>
       <c r="J16">
-        <v>1.057230173803924</v>
+        <v>1.031572641803653</v>
       </c>
       <c r="K16">
-        <v>1.059080865993839</v>
+        <v>1.037452083940316</v>
       </c>
       <c r="L16">
-        <v>1.051383300076452</v>
+        <v>1.023722357483132</v>
       </c>
       <c r="M16">
-        <v>1.067229184353133</v>
+        <v>1.035241689296627</v>
       </c>
       <c r="N16">
-        <v>1.058731561916722</v>
+        <v>1.033037593278049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051504974513583</v>
+        <v>1.006344116794102</v>
       </c>
       <c r="D17">
-        <v>1.056109254340857</v>
+        <v>1.025732450769558</v>
       </c>
       <c r="E17">
-        <v>1.048410667547244</v>
+        <v>1.011852937279011</v>
       </c>
       <c r="F17">
-        <v>1.064375397413792</v>
+        <v>1.023885524419049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04949763407254</v>
+        <v>1.050415472483577</v>
       </c>
       <c r="J17">
-        <v>1.057584232753717</v>
+        <v>1.033560664175563</v>
       </c>
       <c r="K17">
-        <v>1.059406479564711</v>
+        <v>1.039303854325675</v>
       </c>
       <c r="L17">
-        <v>1.051733819441685</v>
+        <v>1.025656285028355</v>
       </c>
       <c r="M17">
-        <v>1.067645242623809</v>
+        <v>1.037487325738772</v>
       </c>
       <c r="N17">
-        <v>1.059086123670835</v>
+        <v>1.035028438869758</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05179065715108</v>
+        <v>1.007941189834201</v>
       </c>
       <c r="D18">
-        <v>1.056340801498521</v>
+        <v>1.027003703076298</v>
       </c>
       <c r="E18">
-        <v>1.04865716733666</v>
+        <v>1.01317706244009</v>
       </c>
       <c r="F18">
-        <v>1.064659554411514</v>
+        <v>1.025389045515265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049600621529895</v>
+        <v>1.051105807661138</v>
       </c>
       <c r="J18">
-        <v>1.057790614642505</v>
+        <v>1.03470750946929</v>
       </c>
       <c r="K18">
-        <v>1.059596263335551</v>
+        <v>1.040372046988538</v>
       </c>
       <c r="L18">
-        <v>1.051938151512132</v>
+        <v>1.026772154069324</v>
       </c>
       <c r="M18">
-        <v>1.067887839405164</v>
+        <v>1.03878346386211</v>
       </c>
       <c r="N18">
-        <v>1.059292798645577</v>
+        <v>1.036176912815347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051888054635397</v>
+        <v>1.008482893537232</v>
       </c>
       <c r="D19">
-        <v>1.056419741396784</v>
+        <v>1.027434992086983</v>
       </c>
       <c r="E19">
-        <v>1.048741208936827</v>
+        <v>1.013626320865752</v>
       </c>
       <c r="F19">
-        <v>1.064756441775641</v>
+        <v>1.025899196454013</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049635705004085</v>
+        <v>1.051339751720709</v>
       </c>
       <c r="J19">
-        <v>1.057860962754088</v>
+        <v>1.035096436636973</v>
       </c>
       <c r="K19">
-        <v>1.05966095082295</v>
+        <v>1.040734291552943</v>
       </c>
       <c r="L19">
-        <v>1.052007803188088</v>
+        <v>1.027150614855017</v>
       </c>
       <c r="M19">
-        <v>1.067970544640329</v>
+        <v>1.039223135686141</v>
       </c>
       <c r="N19">
-        <v>1.059363246659548</v>
+        <v>1.036566392304218</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051452419188869</v>
+        <v>1.006048976796569</v>
       </c>
       <c r="D20">
-        <v>1.056066657416142</v>
+        <v>1.025497570644964</v>
       </c>
       <c r="E20">
-        <v>1.048365321735318</v>
+        <v>1.011608303233059</v>
       </c>
       <c r="F20">
-        <v>1.064323127510193</v>
+        <v>1.023607758823894</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049478674828146</v>
+        <v>1.050287799633964</v>
       </c>
       <c r="J20">
-        <v>1.057546259530221</v>
+        <v>1.033348695605915</v>
       </c>
       <c r="K20">
-        <v>1.059371558922231</v>
+        <v>1.039106418602833</v>
       </c>
       <c r="L20">
-        <v>1.051696224454199</v>
+        <v>1.025450060217475</v>
       </c>
       <c r="M20">
-        <v>1.067600612109902</v>
+        <v>1.037247818824937</v>
       </c>
       <c r="N20">
-        <v>1.059048096521006</v>
+        <v>1.034816169280428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050035216306477</v>
+        <v>0.9979290877222348</v>
       </c>
       <c r="D21">
-        <v>1.054917927481551</v>
+        <v>1.019041594398105</v>
       </c>
       <c r="E21">
-        <v>1.047142680052955</v>
+        <v>1.00488595972562</v>
       </c>
       <c r="F21">
-        <v>1.062914172877137</v>
+        <v>1.015976310273607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04896589067268</v>
+        <v>1.046763931655256</v>
       </c>
       <c r="J21">
-        <v>1.056521540457511</v>
+        <v>1.027513648822562</v>
       </c>
       <c r="K21">
-        <v>1.058429054650706</v>
+        <v>1.033670980068501</v>
       </c>
       <c r="L21">
-        <v>1.050681837220304</v>
+        <v>1.019775353598193</v>
       </c>
       <c r="M21">
-        <v>1.066396944891849</v>
+        <v>1.030661198907771</v>
       </c>
       <c r="N21">
-        <v>1.058021922229674</v>
+        <v>1.028972836061353</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049143449079649</v>
+        <v>0.9926537523066655</v>
       </c>
       <c r="D22">
-        <v>1.054195036138423</v>
+        <v>1.014853755799303</v>
       </c>
       <c r="E22">
-        <v>1.046373487953305</v>
+        <v>1.000526986996515</v>
       </c>
       <c r="F22">
-        <v>1.062028133370018</v>
+        <v>1.011029003442714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048641740740234</v>
+        <v>1.044463780402798</v>
       </c>
       <c r="J22">
-        <v>1.055876029393338</v>
+        <v>1.023719800442767</v>
       </c>
       <c r="K22">
-        <v>1.05783517931189</v>
+        <v>1.030136590287225</v>
       </c>
       <c r="L22">
-        <v>1.050042956171885</v>
+        <v>1.016088011395461</v>
       </c>
       <c r="M22">
-        <v>1.065639386863071</v>
+        <v>1.026385094741014</v>
       </c>
       <c r="N22">
-        <v>1.05737549446575</v>
+        <v>1.025173599981698</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049616260754123</v>
+        <v>0.9954672017667459</v>
       </c>
       <c r="D23">
-        <v>1.054578315815282</v>
+        <v>1.017086566708618</v>
       </c>
       <c r="E23">
-        <v>1.046781296440919</v>
+        <v>1.002850888701436</v>
       </c>
       <c r="F23">
-        <v>1.062497857081511</v>
+        <v>1.01366646582393</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048813744339002</v>
+        <v>1.045691485645855</v>
       </c>
       <c r="J23">
-        <v>1.056218344339964</v>
+        <v>1.025743387998671</v>
       </c>
       <c r="K23">
-        <v>1.058150126404571</v>
+        <v>1.032021813667753</v>
       </c>
       <c r="L23">
-        <v>1.050381743673751</v>
+        <v>1.018054572248868</v>
       </c>
       <c r="M23">
-        <v>1.066041056025948</v>
+        <v>1.028665306234043</v>
       </c>
       <c r="N23">
-        <v>1.057718295538864</v>
+        <v>1.027200061264041</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051476166914931</v>
+        <v>1.0061823908693</v>
       </c>
       <c r="D24">
-        <v>1.056085905347131</v>
+        <v>1.02560374318665</v>
       </c>
       <c r="E24">
-        <v>1.048385811711174</v>
+        <v>1.011718884252351</v>
       </c>
       <c r="F24">
-        <v>1.064346746082731</v>
+        <v>1.023733315715454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049487242288937</v>
+        <v>1.050345516196248</v>
       </c>
       <c r="J24">
-        <v>1.05756341841157</v>
+        <v>1.033444514322232</v>
       </c>
       <c r="K24">
-        <v>1.059387338493434</v>
+        <v>1.039195668023166</v>
       </c>
       <c r="L24">
-        <v>1.051713212381379</v>
+        <v>1.025543281800696</v>
       </c>
       <c r="M24">
-        <v>1.067620778974378</v>
+        <v>1.037356083918149</v>
       </c>
       <c r="N24">
-        <v>1.059065279769934</v>
+        <v>1.034912124070313</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053631486032742</v>
+        <v>1.01794765150346</v>
       </c>
       <c r="D25">
-        <v>1.057832666112645</v>
+        <v>1.034978368084288</v>
       </c>
       <c r="E25">
-        <v>1.050245798268588</v>
+        <v>1.021486758305823</v>
       </c>
       <c r="F25">
-        <v>1.066491614960955</v>
+        <v>1.034827427545133</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050261257915347</v>
+        <v>1.055409037264169</v>
       </c>
       <c r="J25">
-        <v>1.059119025736851</v>
+        <v>1.041885742639072</v>
       </c>
       <c r="K25">
-        <v>1.060817525656903</v>
+        <v>1.047056914725904</v>
       </c>
       <c r="L25">
-        <v>1.05325360999982</v>
+        <v>1.033760431616134</v>
       </c>
       <c r="M25">
-        <v>1.069450713458159</v>
+        <v>1.046908121607325</v>
       </c>
       <c r="N25">
-        <v>1.060623096236047</v>
+        <v>1.043365339899584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026860145300739</v>
+        <v>1.00537107941022</v>
       </c>
       <c r="D2">
-        <v>1.04209427566643</v>
+        <v>1.02462582269426</v>
       </c>
       <c r="E2">
-        <v>1.028907130943663</v>
+        <v>1.011119600018841</v>
       </c>
       <c r="F2">
-        <v>1.043260805598914</v>
+        <v>1.027584876056903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059205415340542</v>
+        <v>1.047665116805146</v>
       </c>
       <c r="J2">
-        <v>1.048266115992738</v>
+        <v>1.027392320676245</v>
       </c>
       <c r="K2">
-        <v>1.052996739898885</v>
+        <v>1.035752418683339</v>
       </c>
       <c r="L2">
-        <v>1.039977913782799</v>
+        <v>1.022426164661177</v>
       </c>
       <c r="M2">
-        <v>1.054148635879425</v>
+        <v>1.038672834279579</v>
       </c>
       <c r="N2">
-        <v>1.049754774115252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013073254419169</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039179343504314</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036350308765477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033087254575557</v>
+        <v>1.008615593410268</v>
       </c>
       <c r="D3">
-        <v>1.047072779253125</v>
+        <v>1.026764023233441</v>
       </c>
       <c r="E3">
-        <v>1.034102228732972</v>
+        <v>1.013624335871601</v>
       </c>
       <c r="F3">
-        <v>1.049168715105366</v>
+        <v>1.030608601217295</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061834189702591</v>
+        <v>1.048554334903453</v>
       </c>
       <c r="J3">
-        <v>1.052714840181578</v>
+        <v>1.028874112719856</v>
       </c>
       <c r="K3">
-        <v>1.057136801829771</v>
+        <v>1.037065533716211</v>
       </c>
       <c r="L3">
-        <v>1.044316594818307</v>
+        <v>1.024085808886843</v>
       </c>
       <c r="M3">
-        <v>1.059208873667367</v>
+        <v>1.040864263870961</v>
       </c>
       <c r="N3">
-        <v>1.054209816002715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013571221843226</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040913714187927</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037276126543655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037012214988465</v>
+        <v>1.010680175040612</v>
       </c>
       <c r="D4">
-        <v>1.050213330587826</v>
+        <v>1.028127693062595</v>
       </c>
       <c r="E4">
-        <v>1.037381112056981</v>
+        <v>1.015223709130556</v>
       </c>
       <c r="F4">
-        <v>1.052899278383713</v>
+        <v>1.032529139519227</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063479828694761</v>
+        <v>1.049109436390147</v>
       </c>
       <c r="J4">
-        <v>1.055514297834683</v>
+        <v>1.0298145710366</v>
       </c>
       <c r="K4">
-        <v>1.059741265296511</v>
+        <v>1.037898092189519</v>
       </c>
       <c r="L4">
-        <v>1.047048379481034</v>
+        <v>1.025141804982899</v>
       </c>
       <c r="M4">
-        <v>1.062398575205223</v>
+        <v>1.042250199760575</v>
       </c>
       <c r="N4">
-        <v>1.057013249206791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013887308356935</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042010588058939</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037865717744013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0386384494582</v>
+        <v>1.011542644594231</v>
       </c>
       <c r="D5">
-        <v>1.051515113178211</v>
+        <v>1.028700160152938</v>
       </c>
       <c r="E5">
-        <v>1.038740648473933</v>
+        <v>1.015893476712601</v>
       </c>
       <c r="F5">
-        <v>1.054446544009553</v>
+        <v>1.033328739278701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064158917020314</v>
+        <v>1.049340070776108</v>
       </c>
       <c r="J5">
-        <v>1.05667305563585</v>
+        <v>1.030208211960572</v>
       </c>
       <c r="K5">
-        <v>1.060819117545776</v>
+        <v>1.038247877044462</v>
       </c>
       <c r="L5">
-        <v>1.048179495698076</v>
+        <v>1.025583904496683</v>
       </c>
       <c r="M5">
-        <v>1.063720167683528</v>
+        <v>1.042825945728096</v>
       </c>
       <c r="N5">
-        <v>1.058173652576947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014019881301597</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04246625129411</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03812023471398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038910137260896</v>
+        <v>1.011690200924714</v>
       </c>
       <c r="D6">
-        <v>1.051732626877991</v>
+        <v>1.028800678307842</v>
       </c>
       <c r="E6">
-        <v>1.038967836745495</v>
+        <v>1.016008541935695</v>
       </c>
       <c r="F6">
-        <v>1.054705129991537</v>
+        <v>1.033463233444655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064272206240798</v>
+        <v>1.049381016629457</v>
       </c>
       <c r="J6">
-        <v>1.056866575524777</v>
+        <v>1.030277193308637</v>
       </c>
       <c r="K6">
-        <v>1.060999114044121</v>
+        <v>1.038310991857631</v>
       </c>
       <c r="L6">
-        <v>1.048368420795608</v>
+        <v>1.025660756432954</v>
       </c>
       <c r="M6">
-        <v>1.063940958698253</v>
+        <v>1.042922897528009</v>
       </c>
       <c r="N6">
-        <v>1.058367447286312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014043432773446</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042542981930693</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038173628818378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03703403691183</v>
+        <v>1.010700359899414</v>
       </c>
       <c r="D7">
-        <v>1.050230796692691</v>
+        <v>1.028147862859306</v>
       </c>
       <c r="E7">
-        <v>1.037399351402789</v>
+        <v>1.015240461249381</v>
       </c>
       <c r="F7">
-        <v>1.052920034485628</v>
+        <v>1.032541798519017</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063488952105078</v>
+        <v>1.049119232609656</v>
       </c>
       <c r="J7">
-        <v>1.055529851426689</v>
+        <v>1.029828262130498</v>
       </c>
       <c r="K7">
-        <v>1.059755733699683</v>
+        <v>1.037915143167677</v>
       </c>
       <c r="L7">
-        <v>1.047063560596886</v>
+        <v>1.025155421448277</v>
       </c>
       <c r="M7">
-        <v>1.062416309308892</v>
+        <v>1.04225984248997</v>
       </c>
       <c r="N7">
-        <v>1.057028824886681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013892786640033</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042018219616739</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037897936884057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028986974715096</v>
+        <v>1.00648563990492</v>
       </c>
       <c r="D8">
-        <v>1.043794063697042</v>
+        <v>1.025368009690554</v>
       </c>
       <c r="E8">
-        <v>1.030680516144514</v>
+        <v>1.011980267235855</v>
       </c>
       <c r="F8">
-        <v>1.045277149391838</v>
+        <v>1.028616773027718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060105603844521</v>
+        <v>1.047978120436502</v>
       </c>
       <c r="J8">
-        <v>1.049786485159964</v>
+        <v>1.02790736583376</v>
       </c>
       <c r="K8">
-        <v>1.054411776515695</v>
+        <v>1.036214978677899</v>
       </c>
       <c r="L8">
-        <v>1.041460338468011</v>
+        <v>1.023000367162253</v>
       </c>
       <c r="M8">
-        <v>1.055876846407009</v>
+        <v>1.039422576935096</v>
       </c>
       <c r="N8">
-        <v>1.051277302381084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013247463228134</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039772715391928</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036700349042167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013950164640906</v>
+        <v>0.9987680088888506</v>
       </c>
       <c r="D9">
-        <v>1.031790618719179</v>
+        <v>1.020292622030226</v>
       </c>
       <c r="E9">
-        <v>1.018164360182018</v>
+        <v>1.006053618339281</v>
       </c>
       <c r="F9">
-        <v>1.03105311615561</v>
+        <v>1.0214104956091</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053694719174713</v>
+        <v>1.045798113425292</v>
       </c>
       <c r="J9">
-        <v>1.039019744652341</v>
+        <v>1.024364347072772</v>
       </c>
       <c r="K9">
-        <v>1.044388143808474</v>
+        <v>1.033064826816246</v>
       </c>
       <c r="L9">
-        <v>1.0309694506294</v>
+        <v>1.019049237440749</v>
       </c>
       <c r="M9">
-        <v>1.043661696688886</v>
+        <v>1.034165497200385</v>
       </c>
       <c r="N9">
-        <v>1.040495271866978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012056070814702</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035612072954014</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034469789521804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003261405028073</v>
+        <v>0.9934725884303445</v>
       </c>
       <c r="D10">
-        <v>1.023279897011441</v>
+        <v>1.016853178004445</v>
       </c>
       <c r="E10">
-        <v>1.009298760470198</v>
+        <v>1.002025775440448</v>
       </c>
       <c r="F10">
-        <v>1.020985604340687</v>
+        <v>1.016949226950191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049080467915187</v>
+        <v>1.044328176062091</v>
       </c>
       <c r="J10">
-        <v>1.031346219856621</v>
+        <v>1.021947599913144</v>
       </c>
       <c r="K10">
-        <v>1.037241173438719</v>
+        <v>1.030924667291501</v>
       </c>
       <c r="L10">
-        <v>1.023502128349804</v>
+        <v>1.016358549962</v>
       </c>
       <c r="M10">
-        <v>1.034986020208684</v>
+        <v>1.031019055813989</v>
       </c>
       <c r="N10">
-        <v>1.032810849785882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011248226784235</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033173625754604</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032973421551138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9984531600497507</v>
+        <v>0.9914880997110134</v>
       </c>
       <c r="D11">
-        <v>1.019457915024385</v>
+        <v>1.015734128602018</v>
       </c>
       <c r="E11">
-        <v>1.005319361028796</v>
+        <v>1.000573915444023</v>
       </c>
       <c r="F11">
-        <v>1.016468253063921</v>
+        <v>1.019222082047576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046991996914933</v>
+        <v>1.044360832226394</v>
       </c>
       <c r="J11">
-        <v>1.027890431258746</v>
+        <v>1.021219321594936</v>
       </c>
       <c r="K11">
-        <v>1.034021981604996</v>
+        <v>1.030365299585692</v>
       </c>
       <c r="L11">
-        <v>1.020141654395306</v>
+        <v>1.015485016670326</v>
       </c>
       <c r="M11">
-        <v>1.031086144183668</v>
+        <v>1.033790379556047</v>
       </c>
       <c r="N11">
-        <v>1.029350153571813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01104133856558</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035804381976443</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032610872932887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9966379874112598</v>
+        <v>0.9908107259280678</v>
       </c>
       <c r="D12">
-        <v>1.018016167418948</v>
+        <v>1.015383729362697</v>
       </c>
       <c r="E12">
-        <v>1.003818515437718</v>
+        <v>1.000093145840852</v>
       </c>
       <c r="F12">
-        <v>1.014764717983191</v>
+        <v>1.021386389805313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04620172347075</v>
+        <v>1.044533311468431</v>
       </c>
       <c r="J12">
-        <v>1.026585318356921</v>
+        <v>1.021009149065837</v>
       </c>
       <c r="K12">
-        <v>1.032806158533333</v>
+        <v>1.030222019224385</v>
       </c>
       <c r="L12">
-        <v>1.018872922555912</v>
+        <v>1.015218561540945</v>
       </c>
       <c r="M12">
-        <v>1.029614412602101</v>
+        <v>1.036115018318814</v>
       </c>
       <c r="N12">
-        <v>1.028043187259969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010999310306171</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03796980699924</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032509568479551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970287052864805</v>
+        <v>0.9911052402548564</v>
       </c>
       <c r="D13">
-        <v>1.01832645346935</v>
+        <v>1.015617182175019</v>
       </c>
       <c r="E13">
-        <v>1.004141507612922</v>
+        <v>1.000335503661531</v>
       </c>
       <c r="F13">
-        <v>1.015131321735889</v>
+        <v>1.023649981303867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046371912969492</v>
+        <v>1.044840669276879</v>
       </c>
       <c r="J13">
-        <v>1.026866266974368</v>
+        <v>1.021196854333408</v>
       </c>
       <c r="K13">
-        <v>1.03306788849692</v>
+        <v>1.030408124923017</v>
       </c>
       <c r="L13">
-        <v>1.019146021866748</v>
+        <v>1.015412266454955</v>
       </c>
       <c r="M13">
-        <v>1.029931179227957</v>
+        <v>1.038295128996611</v>
       </c>
       <c r="N13">
-        <v>1.028324534856679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011087044962639</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03997016087892</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032638651352736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9983037256977977</v>
+        <v>0.9917455476082655</v>
       </c>
       <c r="D14">
-        <v>1.019339199904001</v>
+        <v>1.01603824463327</v>
       </c>
       <c r="E14">
-        <v>1.005195774007031</v>
+        <v>1.000827362994652</v>
       </c>
       <c r="F14">
-        <v>1.016327971687633</v>
+        <v>1.025221803198453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046926974639026</v>
+        <v>1.045102399181965</v>
       </c>
       <c r="J14">
-        <v>1.027782997506782</v>
+        <v>1.0215019507119</v>
       </c>
       <c r="K14">
-        <v>1.033921899155054</v>
+        <v>1.030680492177929</v>
       </c>
       <c r="L14">
-        <v>1.020037207541782</v>
+        <v>1.015750641712362</v>
       </c>
       <c r="M14">
-        <v>1.030964972500157</v>
+        <v>1.039699614959515</v>
       </c>
       <c r="N14">
-        <v>1.029242567251599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01120512178592</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041253543654375</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032832654253195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9990853737730486</v>
+        <v>0.9921243925566527</v>
       </c>
       <c r="D15">
-        <v>1.019960209970529</v>
+        <v>1.016283375606008</v>
       </c>
       <c r="E15">
-        <v>1.005842280947287</v>
+        <v>1.001115046146091</v>
       </c>
       <c r="F15">
-        <v>1.017061817935928</v>
+        <v>1.025718435758659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047267012641788</v>
+        <v>1.045217149131153</v>
       </c>
       <c r="J15">
-        <v>1.028344932297496</v>
+        <v>1.021675419633344</v>
       </c>
       <c r="K15">
-        <v>1.034445380319523</v>
+        <v>1.030834349312003</v>
       </c>
       <c r="L15">
-        <v>1.020583535033146</v>
+        <v>1.015944154072546</v>
       </c>
       <c r="M15">
-        <v>1.031598808481026</v>
+        <v>1.040101781048797</v>
       </c>
       <c r="N15">
-        <v>1.029805300054171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011266747151741</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041608910991425</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032947327152221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003576543473141</v>
+        <v>0.9942974006216579</v>
       </c>
       <c r="D16">
-        <v>1.023530539335333</v>
+        <v>1.01768630795332</v>
       </c>
       <c r="E16">
-        <v>1.00955976583103</v>
+        <v>1.002757621729597</v>
       </c>
       <c r="F16">
-        <v>1.021281922947407</v>
+        <v>1.027188258620328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049217089514436</v>
+        <v>1.045785906727787</v>
       </c>
       <c r="J16">
-        <v>1.031572641803653</v>
+        <v>1.022661597159934</v>
       </c>
       <c r="K16">
-        <v>1.037452083940316</v>
+        <v>1.031707645952783</v>
       </c>
       <c r="L16">
-        <v>1.023722357483132</v>
+        <v>1.017040732406343</v>
       </c>
       <c r="M16">
-        <v>1.035241689296627</v>
+        <v>1.041048090635171</v>
       </c>
       <c r="N16">
-        <v>1.033037593278049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011592043200244</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042318200206247</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033567961296604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006344116794102</v>
+        <v>0.9956387412150478</v>
       </c>
       <c r="D17">
-        <v>1.025732450769558</v>
+        <v>1.018552543033453</v>
       </c>
       <c r="E17">
-        <v>1.011852937279011</v>
+        <v>1.003769846692117</v>
       </c>
       <c r="F17">
-        <v>1.023885524419049</v>
+        <v>1.027518892252098</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050415472483577</v>
+        <v>1.046094693287554</v>
       </c>
       <c r="J17">
-        <v>1.033560664175563</v>
+        <v>1.023265554013025</v>
       </c>
       <c r="K17">
-        <v>1.039303854325675</v>
+        <v>1.03224291488976</v>
       </c>
       <c r="L17">
-        <v>1.025656285028355</v>
+        <v>1.017712098140032</v>
       </c>
       <c r="M17">
-        <v>1.037487325738772</v>
+        <v>1.04106102717374</v>
       </c>
       <c r="N17">
-        <v>1.035028438869758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011782078414954</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042199514298558</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033949015228332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007941189834201</v>
+        <v>0.9963585592023314</v>
       </c>
       <c r="D18">
-        <v>1.027003703076298</v>
+        <v>1.018991910059395</v>
       </c>
       <c r="E18">
-        <v>1.01317706244009</v>
+        <v>1.004302871127387</v>
       </c>
       <c r="F18">
-        <v>1.025389045515265</v>
+        <v>1.026588098317435</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051105807661138</v>
+        <v>1.046140338212778</v>
       </c>
       <c r="J18">
-        <v>1.03470750946929</v>
+        <v>1.023559845172554</v>
       </c>
       <c r="K18">
-        <v>1.040372046988538</v>
+        <v>1.032490677722826</v>
       </c>
       <c r="L18">
-        <v>1.026772154069324</v>
+        <v>1.018047742470937</v>
       </c>
       <c r="M18">
-        <v>1.03878346386211</v>
+        <v>1.03996314359808</v>
       </c>
       <c r="N18">
-        <v>1.036176912815347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011859516298141</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041094019022388</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034112520488639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008482893537232</v>
+        <v>0.9964725460235377</v>
       </c>
       <c r="D19">
-        <v>1.027434992086983</v>
+        <v>1.019000473983372</v>
       </c>
       <c r="E19">
-        <v>1.013626320865752</v>
+        <v>1.004364661061832</v>
       </c>
       <c r="F19">
-        <v>1.025899196454013</v>
+        <v>1.02425406205322</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051339751720709</v>
+        <v>1.045873747951427</v>
       </c>
       <c r="J19">
-        <v>1.035096436636973</v>
+        <v>1.023534071018969</v>
       </c>
       <c r="K19">
-        <v>1.040734291552943</v>
+        <v>1.032436271425259</v>
       </c>
       <c r="L19">
-        <v>1.027150614855017</v>
+        <v>1.018044336257304</v>
       </c>
       <c r="M19">
-        <v>1.039223135686141</v>
+        <v>1.037604500445645</v>
       </c>
       <c r="N19">
-        <v>1.036566392304218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011824366226693</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038903194324843</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034080467053465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006048976796569</v>
+        <v>0.9948659288506069</v>
       </c>
       <c r="D20">
-        <v>1.025497570644964</v>
+        <v>1.017774015109703</v>
       </c>
       <c r="E20">
-        <v>1.011608303233059</v>
+        <v>1.003086579821352</v>
       </c>
       <c r="F20">
-        <v>1.023607758823894</v>
+        <v>1.018131888214975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050287799633964</v>
+        <v>1.044732271294182</v>
       </c>
       <c r="J20">
-        <v>1.033348695605915</v>
+        <v>1.022596205040896</v>
       </c>
       <c r="K20">
-        <v>1.039106418602833</v>
+        <v>1.031511367661512</v>
       </c>
       <c r="L20">
-        <v>1.025450060217475</v>
+        <v>1.017075371707796</v>
       </c>
       <c r="M20">
-        <v>1.037247818824937</v>
+        <v>1.031863230935716</v>
       </c>
       <c r="N20">
-        <v>1.034816169280428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011467755166722</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033831088842523</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033430452012601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9979290877222348</v>
+        <v>0.9908192528386282</v>
       </c>
       <c r="D21">
-        <v>1.019041594398105</v>
+        <v>1.015114654818838</v>
       </c>
       <c r="E21">
-        <v>1.00488595972562</v>
+        <v>1.000009572298617</v>
       </c>
       <c r="F21">
-        <v>1.015976310273607</v>
+        <v>1.01393666689991</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046763931655256</v>
+        <v>1.043466054218311</v>
       </c>
       <c r="J21">
-        <v>1.027513648822562</v>
+        <v>1.020705896173747</v>
       </c>
       <c r="K21">
-        <v>1.033670980068501</v>
+        <v>1.029815223958256</v>
       </c>
       <c r="L21">
-        <v>1.019775353598193</v>
+        <v>1.014990763332354</v>
       </c>
       <c r="M21">
-        <v>1.030661198907771</v>
+        <v>1.02865872933999</v>
       </c>
       <c r="N21">
-        <v>1.028972836061353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010828999921512</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031253792105376</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03223444166192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9926537523066655</v>
+        <v>0.98824319500476</v>
       </c>
       <c r="D22">
-        <v>1.014853755799303</v>
+        <v>1.013430904160125</v>
       </c>
       <c r="E22">
-        <v>1.000526986996515</v>
+        <v>0.9980600187225838</v>
       </c>
       <c r="F22">
-        <v>1.011029003442714</v>
+        <v>1.01151921006882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044463780402798</v>
+        <v>1.042684298790937</v>
       </c>
       <c r="J22">
-        <v>1.023719800442767</v>
+        <v>1.019508221828783</v>
       </c>
       <c r="K22">
-        <v>1.030136590287225</v>
+        <v>1.028740906490801</v>
       </c>
       <c r="L22">
-        <v>1.016088011395461</v>
+        <v>1.01367000523276</v>
       </c>
       <c r="M22">
-        <v>1.026385094741014</v>
+        <v>1.026865871739283</v>
       </c>
       <c r="N22">
-        <v>1.025173599981698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010425377362885</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029834845561655</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031461292847938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9954672017667459</v>
+        <v>0.9896055039677474</v>
       </c>
       <c r="D23">
-        <v>1.017086566708618</v>
+        <v>1.014315095287659</v>
       </c>
       <c r="E23">
-        <v>1.002850888701436</v>
+        <v>0.9990891272455966</v>
       </c>
       <c r="F23">
-        <v>1.01366646582393</v>
+        <v>1.01280369604742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045691485645855</v>
+        <v>1.04309526085897</v>
       </c>
       <c r="J23">
-        <v>1.025743387998671</v>
+        <v>1.020137908126333</v>
       </c>
       <c r="K23">
-        <v>1.032021813667753</v>
+        <v>1.029301832062666</v>
       </c>
       <c r="L23">
-        <v>1.018054572248868</v>
+        <v>1.014365419886378</v>
       </c>
       <c r="M23">
-        <v>1.028665306234043</v>
+        <v>1.027818667383945</v>
       </c>
       <c r="N23">
-        <v>1.027200061264041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010636633471926</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03058893039974</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031848225104745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0061823908693</v>
+        <v>0.9948823767622144</v>
       </c>
       <c r="D24">
-        <v>1.02560374318665</v>
+        <v>1.017758321586205</v>
       </c>
       <c r="E24">
-        <v>1.011718884252351</v>
+        <v>1.00309224784586</v>
       </c>
       <c r="F24">
-        <v>1.023733315715454</v>
+        <v>1.017760600416692</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050345516196248</v>
+        <v>1.044669968602353</v>
       </c>
       <c r="J24">
-        <v>1.033444514322232</v>
+        <v>1.022578858618808</v>
       </c>
       <c r="K24">
-        <v>1.039195668023166</v>
+        <v>1.031480596604416</v>
       </c>
       <c r="L24">
-        <v>1.025543281800696</v>
+        <v>1.017065276891865</v>
       </c>
       <c r="M24">
-        <v>1.037356083918149</v>
+        <v>1.031482837196421</v>
       </c>
       <c r="N24">
-        <v>1.034912124070313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011457240900064</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033488909709487</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033381200116078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01794765150346</v>
+        <v>1.000811123151197</v>
       </c>
       <c r="D25">
-        <v>1.034978368084288</v>
+        <v>1.021643385282454</v>
       </c>
       <c r="E25">
-        <v>1.021486758305823</v>
+        <v>1.007619025106859</v>
       </c>
       <c r="F25">
-        <v>1.034827427545133</v>
+        <v>1.023312154164486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055409037264169</v>
+        <v>1.046391335407385</v>
       </c>
       <c r="J25">
-        <v>1.041885742639072</v>
+        <v>1.025311220567187</v>
       </c>
       <c r="K25">
-        <v>1.047056914725904</v>
+        <v>1.033914755786639</v>
       </c>
       <c r="L25">
-        <v>1.033760431616134</v>
+        <v>1.020100205776856</v>
       </c>
       <c r="M25">
-        <v>1.046908121607325</v>
+        <v>1.035559045161222</v>
       </c>
       <c r="N25">
-        <v>1.043365339899584</v>
+        <v>1.012375930994161</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036714979418713</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035099416067361</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00537107941022</v>
+        <v>1.005211121436294</v>
       </c>
       <c r="D2">
-        <v>1.02462582269426</v>
+        <v>1.024050971863971</v>
       </c>
       <c r="E2">
-        <v>1.011119600018841</v>
+        <v>1.010986268781849</v>
       </c>
       <c r="F2">
-        <v>1.027584876056903</v>
+        <v>1.027510934865162</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047665116805146</v>
+        <v>1.047413320250464</v>
       </c>
       <c r="J2">
-        <v>1.027392320676245</v>
+        <v>1.027237078120234</v>
       </c>
       <c r="K2">
-        <v>1.035752418683339</v>
+        <v>1.03518510641781</v>
       </c>
       <c r="L2">
-        <v>1.022426164661177</v>
+        <v>1.02229464019394</v>
       </c>
       <c r="M2">
-        <v>1.038672834279579</v>
+        <v>1.038599855178497</v>
       </c>
       <c r="N2">
-        <v>1.013073254419169</v>
+        <v>1.01445327028489</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039179343504314</v>
+        <v>1.039121585330512</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036350308765477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03595796766902</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02145156723468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008615593410268</v>
+        <v>1.008348187334754</v>
       </c>
       <c r="D3">
-        <v>1.026764023233441</v>
+        <v>1.026042287505643</v>
       </c>
       <c r="E3">
-        <v>1.013624335871601</v>
+        <v>1.013397078543471</v>
       </c>
       <c r="F3">
-        <v>1.030608601217295</v>
+        <v>1.030511725294114</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048554334903453</v>
+        <v>1.048221920189536</v>
       </c>
       <c r="J3">
-        <v>1.028874112719856</v>
+        <v>1.028613830839064</v>
       </c>
       <c r="K3">
-        <v>1.037065533716211</v>
+        <v>1.03635245244074</v>
       </c>
       <c r="L3">
-        <v>1.024085808886843</v>
+        <v>1.023861363616451</v>
       </c>
       <c r="M3">
-        <v>1.040864263870961</v>
+        <v>1.040768538017627</v>
       </c>
       <c r="N3">
-        <v>1.013571221843226</v>
+        <v>1.014820494024482</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040913714187927</v>
+        <v>1.040837953632721</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037276126543655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036780438214541</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021664811384172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010680175040612</v>
+        <v>1.010345058554564</v>
       </c>
       <c r="D4">
-        <v>1.028127693062595</v>
+        <v>1.027312940992889</v>
       </c>
       <c r="E4">
-        <v>1.015223709130556</v>
+        <v>1.014937184496339</v>
       </c>
       <c r="F4">
-        <v>1.032529139519227</v>
+        <v>1.032417898548378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049109436390147</v>
+        <v>1.048725917296549</v>
       </c>
       <c r="J4">
-        <v>1.0298145710366</v>
+        <v>1.0294877881775</v>
       </c>
       <c r="K4">
-        <v>1.037898092189519</v>
+        <v>1.037092530381915</v>
       </c>
       <c r="L4">
-        <v>1.025141804982899</v>
+        <v>1.024858612545426</v>
       </c>
       <c r="M4">
-        <v>1.042250199760575</v>
+        <v>1.042140199390636</v>
       </c>
       <c r="N4">
-        <v>1.013887308356935</v>
+        <v>1.015053672004279</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042010588058939</v>
+        <v>1.041923530318162</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037865717744013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037304720238896</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021797583337209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011542644594231</v>
+        <v>1.011179371989101</v>
       </c>
       <c r="D5">
-        <v>1.028700160152938</v>
+        <v>1.027846685104555</v>
       </c>
       <c r="E5">
-        <v>1.015893476712601</v>
+        <v>1.015582286262487</v>
       </c>
       <c r="F5">
-        <v>1.033328739278701</v>
+        <v>1.033211549334289</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049340070776108</v>
+        <v>1.048935252870671</v>
       </c>
       <c r="J5">
-        <v>1.030208211960572</v>
+        <v>1.029853707403277</v>
       </c>
       <c r="K5">
-        <v>1.038247877044462</v>
+        <v>1.037403776763832</v>
       </c>
       <c r="L5">
-        <v>1.025583904496683</v>
+        <v>1.025276236988881</v>
       </c>
       <c r="M5">
-        <v>1.042825945728096</v>
+        <v>1.042710027795115</v>
       </c>
       <c r="N5">
-        <v>1.014019881301597</v>
+        <v>1.015151519262377</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04246625129411</v>
+        <v>1.042374510265795</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03812023471398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037532698463699</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021853308085763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011690200924714</v>
+        <v>1.011322093003781</v>
       </c>
       <c r="D6">
-        <v>1.028800678307842</v>
+        <v>1.027940619205824</v>
       </c>
       <c r="E6">
-        <v>1.016008541935695</v>
+        <v>1.015693109274853</v>
       </c>
       <c r="F6">
-        <v>1.033463233444655</v>
+        <v>1.033345029392017</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049381016629457</v>
+        <v>1.048972562722935</v>
       </c>
       <c r="J6">
-        <v>1.030277193308637</v>
+        <v>1.029917925158114</v>
       </c>
       <c r="K6">
-        <v>1.038310991857631</v>
+        <v>1.037460337231951</v>
       </c>
       <c r="L6">
-        <v>1.025660756432954</v>
+        <v>1.025348878432514</v>
       </c>
       <c r="M6">
-        <v>1.042922897528009</v>
+        <v>1.042805970604671</v>
       </c>
       <c r="N6">
-        <v>1.014043432773446</v>
+        <v>1.015168937313757</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042542981930693</v>
+        <v>1.042450442366011</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038173628818378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037582326994354</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021863977816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010700359899414</v>
+        <v>1.010371155411942</v>
       </c>
       <c r="D7">
-        <v>1.028147862859306</v>
+        <v>1.027337020196731</v>
       </c>
       <c r="E7">
-        <v>1.015240461249381</v>
+        <v>1.01495920287542</v>
       </c>
       <c r="F7">
-        <v>1.032541798519017</v>
+        <v>1.032431397389624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049119232609656</v>
+        <v>1.048738598625164</v>
       </c>
       <c r="J7">
-        <v>1.029828262130498</v>
+        <v>1.029507240757681</v>
       </c>
       <c r="K7">
-        <v>1.037915143167677</v>
+        <v>1.037113443133261</v>
       </c>
       <c r="L7">
-        <v>1.025155421448277</v>
+        <v>1.024877432776554</v>
       </c>
       <c r="M7">
-        <v>1.04225984248997</v>
+        <v>1.04215067214663</v>
       </c>
       <c r="N7">
-        <v>1.013892786640033</v>
+        <v>1.015085349104899</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042018219616739</v>
+        <v>1.041931818785979</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037897936884057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037341668952917</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021803472585945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00648563990492</v>
+        <v>1.006308887906352</v>
       </c>
       <c r="D8">
-        <v>1.025368009690554</v>
+        <v>1.02475718652982</v>
       </c>
       <c r="E8">
-        <v>1.011980267235855</v>
+        <v>1.011832621376371</v>
       </c>
       <c r="F8">
-        <v>1.028616773027718</v>
+        <v>1.028537922251593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047978120436502</v>
+        <v>1.047708903550725</v>
       </c>
       <c r="J8">
-        <v>1.02790736583376</v>
+        <v>1.027735652250495</v>
       </c>
       <c r="K8">
-        <v>1.036214978677899</v>
+        <v>1.035611931668621</v>
       </c>
       <c r="L8">
-        <v>1.023000367162253</v>
+        <v>1.02285466268235</v>
       </c>
       <c r="M8">
-        <v>1.039422576935096</v>
+        <v>1.039344721434622</v>
       </c>
       <c r="N8">
-        <v>1.013247463228134</v>
+        <v>1.014665557812142</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039772715391928</v>
+        <v>1.039711097918467</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036700349042167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036285007548768</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021533708763231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9987680088888506</v>
+        <v>0.9988539640516892</v>
       </c>
       <c r="D9">
-        <v>1.020292622030226</v>
+        <v>1.020035879790748</v>
       </c>
       <c r="E9">
-        <v>1.006053618339281</v>
+        <v>1.006135139867345</v>
       </c>
       <c r="F9">
-        <v>1.0214104956091</v>
+        <v>1.021388162659131</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045798113425292</v>
+        <v>1.045723271496534</v>
       </c>
       <c r="J9">
-        <v>1.024364347072772</v>
+        <v>1.024447256811137</v>
       </c>
       <c r="K9">
-        <v>1.033064826816246</v>
+        <v>1.032812042435715</v>
       </c>
       <c r="L9">
-        <v>1.019049237440749</v>
+        <v>1.019129456800624</v>
       </c>
       <c r="M9">
-        <v>1.034165497200385</v>
+        <v>1.034143507466471</v>
       </c>
       <c r="N9">
-        <v>1.012056070814702</v>
+        <v>1.013797522483145</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035612072954014</v>
+        <v>1.035594669434699</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034469789521804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034301826973723</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021007209379528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9934725884303445</v>
+        <v>0.9937690245819367</v>
       </c>
       <c r="D10">
-        <v>1.016853178004445</v>
+        <v>1.016859196364154</v>
       </c>
       <c r="E10">
-        <v>1.002025775440448</v>
+        <v>1.002290607309671</v>
       </c>
       <c r="F10">
-        <v>1.016949226950191</v>
+        <v>1.016971022204692</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044328176062091</v>
+        <v>1.044400441007175</v>
       </c>
       <c r="J10">
-        <v>1.021947599913144</v>
+        <v>1.02223205952935</v>
       </c>
       <c r="K10">
-        <v>1.030924667291501</v>
+        <v>1.030930581598334</v>
       </c>
       <c r="L10">
-        <v>1.016358549962</v>
+        <v>1.016618626930096</v>
       </c>
       <c r="M10">
-        <v>1.031019055813989</v>
+        <v>1.031040474344699</v>
       </c>
       <c r="N10">
-        <v>1.011248226784235</v>
+        <v>1.013326698211078</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033173625754604</v>
+        <v>1.033190576189545</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032973421551138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032990053328205</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020649374070886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9914880997110134</v>
+        <v>0.9918854974826261</v>
       </c>
       <c r="D11">
-        <v>1.015734128602018</v>
+        <v>1.015844121434767</v>
       </c>
       <c r="E11">
-        <v>1.000573915444023</v>
+        <v>1.000925324713431</v>
       </c>
       <c r="F11">
-        <v>1.019222082047576</v>
+        <v>1.019261918240089</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044360832226394</v>
+        <v>1.044495205718853</v>
       </c>
       <c r="J11">
-        <v>1.021219321594936</v>
+        <v>1.021599789387003</v>
       </c>
       <c r="K11">
-        <v>1.030365299585692</v>
+        <v>1.030473301125393</v>
       </c>
       <c r="L11">
-        <v>1.015485016670326</v>
+        <v>1.015829811837889</v>
       </c>
       <c r="M11">
-        <v>1.033790379556047</v>
+        <v>1.033829500894495</v>
       </c>
       <c r="N11">
-        <v>1.01104133856558</v>
+        <v>1.013411895315918</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035804381976443</v>
+        <v>1.03583532649195</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032610872932887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032702897806905</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020604115727041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,105 +1059,123 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9908107259280678</v>
+        <v>0.9912403650112719</v>
       </c>
       <c r="D12">
-        <v>1.015383729362697</v>
+        <v>1.015525210271029</v>
       </c>
       <c r="E12">
-        <v>1.000093145840852</v>
+        <v>1.00047105324514</v>
       </c>
       <c r="F12">
-        <v>1.021386389805313</v>
+        <v>1.02143128590389</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044533311468431</v>
+        <v>1.044686817382907</v>
       </c>
       <c r="J12">
-        <v>1.021009149065837</v>
+        <v>1.021420131327863</v>
       </c>
       <c r="K12">
-        <v>1.030222019224385</v>
+        <v>1.030360896010885</v>
       </c>
       <c r="L12">
-        <v>1.015218561540945</v>
+        <v>1.015589234179321</v>
       </c>
       <c r="M12">
-        <v>1.036115018318814</v>
+        <v>1.03615910053611</v>
       </c>
       <c r="N12">
-        <v>1.010999310306171</v>
+        <v>1.01348460412394</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03796980699924</v>
+        <v>1.038004663683615</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032509568479551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032623424973772</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020607143856944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
-        <v>0.9911052402548564</v>
+        <v>0.9915070767737365</v>
       </c>
       <c r="D13">
-        <v>1.015617182175019</v>
+        <v>1.015729861881215</v>
       </c>
       <c r="E13">
-        <v>1.000335503661531</v>
+        <v>1.000687475791514</v>
       </c>
       <c r="F13">
-        <v>1.023649981303867</v>
+        <v>1.023689385016487</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044840669276879</v>
+        <v>1.044977004959057</v>
       </c>
       <c r="J13">
-        <v>1.021196854333408</v>
+        <v>1.021581319377404</v>
       </c>
       <c r="K13">
-        <v>1.030408124923017</v>
+        <v>1.030518738727623</v>
       </c>
       <c r="L13">
-        <v>1.015412266454955</v>
+        <v>1.015757527006059</v>
       </c>
       <c r="M13">
-        <v>1.038295128996611</v>
+        <v>1.03833382486044</v>
       </c>
       <c r="N13">
-        <v>1.011087044962639</v>
+        <v>1.013521499773243</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03997016087892</v>
+        <v>1.040000750808913</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032638651352736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032732280184862</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020652646077569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9917455476082655</v>
+        <v>0.9921020691040517</v>
       </c>
       <c r="D14">
-        <v>1.01603824463327</v>
+        <v>1.016104919026795</v>
       </c>
       <c r="E14">
-        <v>1.000827362994652</v>
+        <v>1.001138770323214</v>
       </c>
       <c r="F14">
-        <v>1.025221803198453</v>
+        <v>1.025253004424812</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045102399181965</v>
+        <v>1.045211147080197</v>
       </c>
       <c r="J14">
-        <v>1.0215019507119</v>
+        <v>1.021843272247094</v>
       </c>
       <c r="K14">
-        <v>1.030680492177929</v>
+        <v>1.030745958805214</v>
       </c>
       <c r="L14">
-        <v>1.015750641712362</v>
+        <v>1.016056183724356</v>
       </c>
       <c r="M14">
-        <v>1.039699614959515</v>
+        <v>1.039730264026695</v>
       </c>
       <c r="N14">
-        <v>1.01120512178592</v>
+        <v>1.013530907225235</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041253543654375</v>
+        <v>1.041277769166358</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032832654253195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032894497465471</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020702341747829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9921243925566527</v>
+        <v>0.9924565000254599</v>
       </c>
       <c r="D15">
-        <v>1.016283375606008</v>
+        <v>1.01632492808541</v>
       </c>
       <c r="E15">
-        <v>1.001115046146091</v>
+        <v>1.0014049634059</v>
       </c>
       <c r="F15">
-        <v>1.025718435758659</v>
+        <v>1.025745284076538</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045217149131153</v>
+        <v>1.045310898163091</v>
       </c>
       <c r="J15">
-        <v>1.021675419633344</v>
+        <v>1.021993488825138</v>
       </c>
       <c r="K15">
-        <v>1.030834349312003</v>
+        <v>1.030875154680907</v>
       </c>
       <c r="L15">
-        <v>1.015944154072546</v>
+        <v>1.016228652170218</v>
       </c>
       <c r="M15">
-        <v>1.040101781048797</v>
+        <v>1.040128158066808</v>
       </c>
       <c r="N15">
-        <v>1.011266747151741</v>
+        <v>1.013531694527083</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041608910991425</v>
+        <v>1.04162975926266</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032947327152221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032992302849583</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020728087608774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9942974006216579</v>
+        <v>0.9945038174137562</v>
       </c>
       <c r="D16">
-        <v>1.01768630795332</v>
+        <v>1.01759312818216</v>
       </c>
       <c r="E16">
-        <v>1.002757621729597</v>
+        <v>1.002938374635985</v>
       </c>
       <c r="F16">
-        <v>1.027188258620328</v>
+        <v>1.027192367721122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045785906727787</v>
+        <v>1.045800286586824</v>
       </c>
       <c r="J16">
-        <v>1.022661597159934</v>
+        <v>1.022859719577247</v>
       </c>
       <c r="K16">
-        <v>1.031707645952783</v>
+        <v>1.031616069279152</v>
       </c>
       <c r="L16">
-        <v>1.017040732406343</v>
+        <v>1.01721825531458</v>
       </c>
       <c r="M16">
-        <v>1.041048090635171</v>
+        <v>1.041052130726375</v>
       </c>
       <c r="N16">
-        <v>1.011592043200244</v>
+        <v>1.013552815602807</v>
       </c>
       <c r="O16">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P16">
-        <v>1.042318200206247</v>
+        <v>1.042321393565852</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033567961296604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033519636450697</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020866945177265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9956387412150478</v>
+        <v>0.9957787929961223</v>
       </c>
       <c r="D17">
-        <v>1.018552543033453</v>
+        <v>1.01838402060946</v>
       </c>
       <c r="E17">
-        <v>1.003769846692117</v>
+        <v>1.00389344775204</v>
       </c>
       <c r="F17">
-        <v>1.027518892252098</v>
+        <v>1.027510534502116</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046094693287554</v>
+        <v>1.046065504884547</v>
       </c>
       <c r="J17">
-        <v>1.023265554013025</v>
+        <v>1.023400158037618</v>
       </c>
       <c r="K17">
-        <v>1.03224291488976</v>
+        <v>1.0320772107832</v>
       </c>
       <c r="L17">
-        <v>1.017712098140032</v>
+        <v>1.017833553385121</v>
       </c>
       <c r="M17">
-        <v>1.04106102717374</v>
+        <v>1.041052806050588</v>
       </c>
       <c r="N17">
-        <v>1.011782078414954</v>
+        <v>1.013594311402562</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042199514298558</v>
+        <v>1.042193015534138</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033949015228332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033848525737234</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020949833073678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9963585592023314</v>
+        <v>0.9964712374062838</v>
       </c>
       <c r="D18">
-        <v>1.018991910059395</v>
+        <v>1.01878996616851</v>
       </c>
       <c r="E18">
-        <v>1.004302871127387</v>
+        <v>1.004403634540446</v>
       </c>
       <c r="F18">
-        <v>1.026588098317435</v>
+        <v>1.026574221528403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046140338212778</v>
+        <v>1.046092226288385</v>
       </c>
       <c r="J18">
-        <v>1.023559845172554</v>
+        <v>1.02366822320429</v>
       </c>
       <c r="K18">
-        <v>1.032490677722826</v>
+        <v>1.032292055361251</v>
       </c>
       <c r="L18">
-        <v>1.018047742470937</v>
+        <v>1.018146785997957</v>
       </c>
       <c r="M18">
-        <v>1.03996314359808</v>
+        <v>1.039949490683783</v>
       </c>
       <c r="N18">
-        <v>1.011859516298141</v>
+        <v>1.013610100847552</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041094019022388</v>
+        <v>1.041083224210952</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034112520488639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033987620591544</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020978588585817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9964725460235377</v>
+        <v>0.9965923204463251</v>
       </c>
       <c r="D19">
-        <v>1.019000473983372</v>
+        <v>1.01880541492139</v>
       </c>
       <c r="E19">
-        <v>1.004364661061832</v>
+        <v>1.004472874433371</v>
       </c>
       <c r="F19">
-        <v>1.02425406205322</v>
+        <v>1.024241210186194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045873747951427</v>
+        <v>1.045829765620486</v>
       </c>
       <c r="J19">
-        <v>1.023534071018969</v>
+        <v>1.023649302724332</v>
       </c>
       <c r="K19">
-        <v>1.032436271425259</v>
+        <v>1.032244403424168</v>
       </c>
       <c r="L19">
-        <v>1.018044336257304</v>
+        <v>1.018150712796905</v>
       </c>
       <c r="M19">
-        <v>1.037604500445645</v>
+        <v>1.037591856021383</v>
       </c>
       <c r="N19">
-        <v>1.011824366226693</v>
+        <v>1.013575195656372</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038903194324843</v>
+        <v>1.038893193621694</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034080467053465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033960966513745</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.0209487571418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9948659288506069</v>
+        <v>0.9950879301360779</v>
       </c>
       <c r="D20">
-        <v>1.017774015109703</v>
+        <v>1.017697647233799</v>
       </c>
       <c r="E20">
-        <v>1.003086579821352</v>
+        <v>1.003286135429988</v>
       </c>
       <c r="F20">
-        <v>1.018131888214975</v>
+        <v>1.018139147027233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044732271294182</v>
+        <v>1.044756409068007</v>
       </c>
       <c r="J20">
-        <v>1.022596205040896</v>
+        <v>1.022809525905466</v>
       </c>
       <c r="K20">
-        <v>1.031511367661512</v>
+        <v>1.03143628295142</v>
       </c>
       <c r="L20">
-        <v>1.017075371707796</v>
+        <v>1.017271447176463</v>
       </c>
       <c r="M20">
-        <v>1.031863230935716</v>
+        <v>1.031870367905723</v>
       </c>
       <c r="N20">
-        <v>1.011467755166722</v>
+        <v>1.013383755287918</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033831088842523</v>
+        <v>1.033836737045287</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033430452012601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033393912761776</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020748716609185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9908192528386282</v>
+        <v>0.9912970379377217</v>
       </c>
       <c r="D21">
-        <v>1.015114654818838</v>
+        <v>1.01530850912859</v>
       </c>
       <c r="E21">
-        <v>1.000009572298617</v>
+        <v>1.000434143324078</v>
       </c>
       <c r="F21">
-        <v>1.01393666689991</v>
+        <v>1.013992891083099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043466054218311</v>
+        <v>1.043650685994529</v>
       </c>
       <c r="J21">
-        <v>1.020705896173747</v>
+        <v>1.021163187374311</v>
       </c>
       <c r="K21">
-        <v>1.029815223958256</v>
+        <v>1.030005547465391</v>
       </c>
       <c r="L21">
-        <v>1.014990763332354</v>
+        <v>1.015407295392771</v>
       </c>
       <c r="M21">
-        <v>1.02865872933999</v>
+        <v>1.028713926192026</v>
       </c>
       <c r="N21">
-        <v>1.010828999921512</v>
+        <v>1.01335877658686</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031253792105376</v>
+        <v>1.031297477281515</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03223444166192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03238588575195</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020471177098046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.98824319500476</v>
+        <v>0.988881584520512</v>
       </c>
       <c r="D22">
-        <v>1.013430904160125</v>
+        <v>1.013794333420484</v>
       </c>
       <c r="E22">
-        <v>0.9980600187225838</v>
+        <v>0.998625813700796</v>
       </c>
       <c r="F22">
-        <v>1.01151921006882</v>
+        <v>1.011606603130906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042684298790937</v>
+        <v>1.04296935189797</v>
       </c>
       <c r="J22">
-        <v>1.019508221828783</v>
+        <v>1.020117653361771</v>
       </c>
       <c r="K22">
-        <v>1.028740906490801</v>
+        <v>1.029097386965725</v>
       </c>
       <c r="L22">
-        <v>1.01367000523276</v>
+        <v>1.0142245427323</v>
       </c>
       <c r="M22">
-        <v>1.026865871739283</v>
+        <v>1.026951584962924</v>
       </c>
       <c r="N22">
-        <v>1.010425377362885</v>
+        <v>1.01333638822184</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029834845561655</v>
+        <v>1.029902682851526</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031461292847938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031728918866652</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020293830194601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9896055039677474</v>
+        <v>0.9901485355183086</v>
       </c>
       <c r="D23">
-        <v>1.014315095287659</v>
+        <v>1.014581324924948</v>
       </c>
       <c r="E23">
-        <v>0.9990891272455966</v>
+        <v>0.999570911382469</v>
       </c>
       <c r="F23">
-        <v>1.01280369604742</v>
+        <v>1.012872951895425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04309526085897</v>
+        <v>1.043321971065392</v>
       </c>
       <c r="J23">
-        <v>1.020137908126333</v>
+        <v>1.02065702110292</v>
       </c>
       <c r="K23">
-        <v>1.029301832062666</v>
+        <v>1.029563099613885</v>
       </c>
       <c r="L23">
-        <v>1.014365419886378</v>
+        <v>1.014837864687486</v>
       </c>
       <c r="M23">
-        <v>1.027818667383945</v>
+        <v>1.027886627053585</v>
       </c>
       <c r="N23">
-        <v>1.010636633471926</v>
+        <v>1.013304161782018</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03058893039974</v>
+        <v>1.030642716672753</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031848225104745</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03204758884229</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020382834480039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9948823767622144</v>
+        <v>0.9951058512512806</v>
       </c>
       <c r="D24">
-        <v>1.017758321586205</v>
+        <v>1.017683558032521</v>
       </c>
       <c r="E24">
-        <v>1.00309224784586</v>
+        <v>1.003293291486602</v>
       </c>
       <c r="F24">
-        <v>1.017760600416692</v>
+        <v>1.017768164291352</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044669968602353</v>
+        <v>1.044695069438486</v>
       </c>
       <c r="J24">
-        <v>1.022578858618808</v>
+        <v>1.022793607799694</v>
       </c>
       <c r="K24">
-        <v>1.031480596604416</v>
+        <v>1.031407087695951</v>
       </c>
       <c r="L24">
-        <v>1.017065276891865</v>
+        <v>1.017262819016854</v>
       </c>
       <c r="M24">
-        <v>1.031482837196421</v>
+        <v>1.031490274151822</v>
       </c>
       <c r="N24">
-        <v>1.011457240900064</v>
+        <v>1.013372233223348</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033488909709487</v>
+        <v>1.03349479561902</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033381200116078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033343103712572</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020737018045181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000811123151197</v>
+        <v>1.000818540828279</v>
       </c>
       <c r="D25">
-        <v>1.021643385282454</v>
+        <v>1.021286768348001</v>
       </c>
       <c r="E25">
-        <v>1.007619025106859</v>
+        <v>1.007631931531321</v>
       </c>
       <c r="F25">
-        <v>1.023312154164486</v>
+        <v>1.023273373471199</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046391335407385</v>
+        <v>1.046260722091199</v>
       </c>
       <c r="J25">
-        <v>1.025311220567187</v>
+        <v>1.025318389175443</v>
       </c>
       <c r="K25">
-        <v>1.033914755786639</v>
+        <v>1.033563383311942</v>
       </c>
       <c r="L25">
-        <v>1.020100205776856</v>
+        <v>1.020112915693324</v>
       </c>
       <c r="M25">
-        <v>1.035559045161222</v>
+        <v>1.035520832199665</v>
       </c>
       <c r="N25">
-        <v>1.012375930994161</v>
+        <v>1.01399821251168</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036714979418713</v>
+        <v>1.036684736261189</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035099416067361</v>
+        <v>1.034864548625641</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021152277014167</v>
       </c>
     </row>
   </sheetData>
